--- a/Output/Ship.data Output - Cycle4-Vertical.xlsx
+++ b/Output/Ship.data Output - Cycle4-Vertical.xlsx
@@ -1063,79 +1063,79 @@
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>23.1831846761349</v>
+        <v>23.0772112352186</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0000000191451347550364</v>
+        <v>0.0000000189754145619443</v>
       </c>
       <c r="AW2" t="n">
         <v>2</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.000000000825737632921434</v>
+        <v>0.000000000822240910276282</v>
       </c>
       <c r="AY2" t="n">
         <v>2</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.000000000500770233319034</v>
+        <v>0.000000000499926819232629</v>
       </c>
       <c r="BA2" t="n">
         <v>2</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.00000000000717952654767238</v>
+        <v>0.00000000000697049670104543</v>
       </c>
       <c r="BC2" t="n">
         <v>2</v>
       </c>
       <c r="BD2" t="n">
-        <v>35.1646255304265</v>
+        <v>35.1423185363552</v>
       </c>
       <c r="BE2" t="n">
         <v>2</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.000000000557598487203687</v>
+        <v>0.000000000501569928052926</v>
       </c>
       <c r="BG2" t="n">
         <v>2</v>
       </c>
       <c r="BH2" t="n">
-        <v>21.9916042106926</v>
+        <v>22.0529536963492</v>
       </c>
       <c r="BI2" t="n">
         <v>2</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0000000170921640665754</v>
+        <v>0.0000000153552752966195</v>
       </c>
       <c r="BK2" t="n">
         <v>2</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.000000000776750729169177</v>
+        <v>0.000000000695532663760146</v>
       </c>
       <c r="BM2" t="n">
         <v>2</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.000000000557598487203687</v>
+        <v>0.000000000501569928052926</v>
       </c>
       <c r="BO2" t="n">
         <v>2</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00000000000801621256191818</v>
+        <v>0.00000000000713686698152583</v>
       </c>
       <c r="BQ2" t="n">
         <v>2</v>
       </c>
       <c r="BR2" t="n">
-        <v>35.2583949047492</v>
+        <v>35.524742305285</v>
       </c>
       <c r="BS2" t="n">
         <v>2</v>
@@ -1210,7 +1210,7 @@
         <v>-300.850171787324</v>
       </c>
       <c r="CQ2" t="n">
-        <v>47.729946573349</v>
+        <v>40.913523962494</v>
       </c>
     </row>
     <row r="3">
@@ -1350,79 +1350,79 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>23.182627333871</v>
+        <v>23.0767280802251</v>
       </c>
       <c r="AU3" t="n">
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0000000191496672827235</v>
+        <v>0.0000000189795735662633</v>
       </c>
       <c r="AW3" t="n">
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.000000000825951151662209</v>
+        <v>0.000000000822436609766724</v>
       </c>
       <c r="AY3" t="n">
         <v>2</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.00000000050094229176113</v>
+        <v>0.000000000500089804720158</v>
       </c>
       <c r="BA3" t="n">
         <v>2</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.00000000000718165780999595</v>
+        <v>0.00000000000697303729205444</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
       </c>
       <c r="BD3" t="n">
-        <v>35.1662098633348</v>
+        <v>35.1438249629035</v>
       </c>
       <c r="BE3" t="n">
         <v>2</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.000000000557783776026205</v>
+        <v>0.000000000501863330050508</v>
       </c>
       <c r="BG3" t="n">
         <v>2</v>
       </c>
       <c r="BH3" t="n">
-        <v>21.991897607498</v>
+        <v>22.0529972124832</v>
       </c>
       <c r="BI3" t="n">
         <v>2</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.000000017097636809548</v>
+        <v>0.0000000153637552660403</v>
       </c>
       <c r="BK3" t="n">
         <v>2</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.000000000776986878518924</v>
+        <v>0.000000000695916145961281</v>
       </c>
       <c r="BM3" t="n">
         <v>2</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.000000000557783776026205</v>
+        <v>0.000000000501863330050508</v>
       </c>
       <c r="BO3" t="n">
         <v>2</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.00000000000801888119074131</v>
+        <v>0.00000000000714109822766137</v>
       </c>
       <c r="BQ3" t="n">
         <v>2</v>
       </c>
       <c r="BR3" t="n">
-        <v>35.260573345821</v>
+        <v>35.5263382831618</v>
       </c>
       <c r="BS3" t="n">
         <v>2</v>
@@ -1497,7 +1497,7 @@
         <v>-300.132507737058</v>
       </c>
       <c r="CQ3" t="n">
-        <v>47.6678599295153</v>
+        <v>40.8689367588229</v>
       </c>
     </row>
     <row r="4">
@@ -1637,79 +1637,79 @@
         <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>23.1820699916071</v>
+        <v>23.0762449252316</v>
       </c>
       <c r="AU4" t="n">
         <v>2</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0000000191541998104105</v>
+        <v>0.0000000189837325705823</v>
       </c>
       <c r="AW4" t="n">
         <v>2</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.000000000826164670402985</v>
+        <v>0.000000000822632309257166</v>
       </c>
       <c r="AY4" t="n">
         <v>2</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.000000000501114350203227</v>
+        <v>0.000000000500252790207686</v>
       </c>
       <c r="BA4" t="n">
         <v>2</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.00000000000718378907231952</v>
+        <v>0.00000000000697557788306345</v>
       </c>
       <c r="BC4" t="n">
         <v>2</v>
       </c>
       <c r="BD4" t="n">
-        <v>35.1677941962431</v>
+        <v>35.1453313894518</v>
       </c>
       <c r="BE4" t="n">
         <v>2</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.000000000557969064848724</v>
+        <v>0.000000000502156732048089</v>
       </c>
       <c r="BG4" t="n">
         <v>2</v>
       </c>
       <c r="BH4" t="n">
-        <v>21.9921910043035</v>
+        <v>22.0530407286172</v>
       </c>
       <c r="BI4" t="n">
         <v>2</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0000000171031095525206</v>
+        <v>0.0000000153722352354611</v>
       </c>
       <c r="BK4" t="n">
         <v>2</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.00000000077722302786867</v>
+        <v>0.000000000696299628162417</v>
       </c>
       <c r="BM4" t="n">
         <v>2</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.000000000557969064848724</v>
+        <v>0.000000000502156732048089</v>
       </c>
       <c r="BO4" t="n">
         <v>2</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.00000000000802154981956444</v>
+        <v>0.00000000000714532947379691</v>
       </c>
       <c r="BQ4" t="n">
         <v>2</v>
       </c>
       <c r="BR4" t="n">
-        <v>35.2627517868929</v>
+        <v>35.5279342610386</v>
       </c>
       <c r="BS4" t="n">
         <v>2</v>
@@ -1784,7 +1784,7 @@
         <v>-299.547896870416</v>
       </c>
       <c r="CQ4" t="n">
-        <v>47.6268716750949</v>
+        <v>40.8424318433804</v>
       </c>
     </row>
     <row r="5">
@@ -1924,79 +1924,79 @@
         <v>2</v>
       </c>
       <c r="AT5" t="n">
-        <v>23.181512649345</v>
+        <v>23.0757617702397</v>
       </c>
       <c r="AU5" t="n">
         <v>2</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0000000191587323380832</v>
+        <v>0.0000000189878915748881</v>
       </c>
       <c r="AW5" t="n">
         <v>2</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.000000000826378189143082</v>
+        <v>0.000000000822828008746986</v>
       </c>
       <c r="AY5" t="n">
         <v>2</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.000000000501286408644776</v>
+        <v>0.000000000500415775694697</v>
       </c>
       <c r="BA5" t="n">
         <v>2</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.00000000000718592033463632</v>
+        <v>0.00000000000697811847406438</v>
       </c>
       <c r="BC5" t="n">
         <v>2</v>
       </c>
       <c r="BD5" t="n">
-        <v>35.1693785291464</v>
+        <v>35.1468378159953</v>
       </c>
       <c r="BE5" t="n">
         <v>2</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.000000000558154353670653</v>
+        <v>0.000000000502450134044738</v>
       </c>
       <c r="BG5" t="n">
         <v>2</v>
       </c>
       <c r="BH5" t="n">
-        <v>21.992484401108</v>
+        <v>22.053084244751</v>
       </c>
       <c r="BI5" t="n">
         <v>2</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.0000000171085822954758</v>
+        <v>0.000000015380715204855</v>
       </c>
       <c r="BK5" t="n">
         <v>2</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.000000000777459177217666</v>
+        <v>0.000000000696683110362333</v>
       </c>
       <c r="BM5" t="n">
         <v>2</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.000000000558154353670653</v>
+        <v>0.000000000502450134044738</v>
       </c>
       <c r="BO5" t="n">
         <v>2</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.00000000000802421844837908</v>
+        <v>0.00000000000714956071991901</v>
       </c>
       <c r="BQ5" t="n">
         <v>2</v>
       </c>
       <c r="BR5" t="n">
-        <v>35.2649302279579</v>
+        <v>35.5295302389103</v>
       </c>
       <c r="BS5" t="n">
         <v>2</v>
@@ -2071,7 +2071,7 @@
         <v>-294.008994974849</v>
       </c>
       <c r="CQ5" t="n">
-        <v>46.797300200358</v>
+        <v>40.1395310507101</v>
       </c>
     </row>
     <row r="6">
@@ -2211,79 +2211,79 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>23.1810667755321</v>
+        <v>23.0753752462433</v>
       </c>
       <c r="AU6" t="n">
         <v>2</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.0000000191623583602473</v>
+        <v>0.0000000189912187783565</v>
       </c>
       <c r="AW6" t="n">
         <v>2</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.000000000826549004136381</v>
+        <v>0.000000000822984568339962</v>
       </c>
       <c r="AY6" t="n">
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.000000000501424055399</v>
+        <v>0.000000000500546164085238</v>
       </c>
       <c r="BA6" t="n">
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.00000000000718762534450195</v>
+        <v>0.00000000000698015094687966</v>
       </c>
       <c r="BC6" t="n">
         <v>2</v>
       </c>
       <c r="BD6" t="n">
-        <v>35.1706459954781</v>
+        <v>35.1480429572387</v>
       </c>
       <c r="BE6" t="n">
         <v>2</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.000000000558302584729256</v>
+        <v>0.000000000502684855643736</v>
       </c>
       <c r="BG6" t="n">
         <v>2</v>
       </c>
       <c r="BH6" t="n">
-        <v>21.9927191185533</v>
+        <v>22.0531190576583</v>
       </c>
       <c r="BI6" t="n">
         <v>2</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.0000000171129604898713</v>
+        <v>0.0000000153874991804186</v>
       </c>
       <c r="BK6" t="n">
         <v>2</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.000000000777648096698214</v>
+        <v>0.00000000069698989612446</v>
       </c>
       <c r="BM6" t="n">
         <v>2</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.000000000558302584729256</v>
+        <v>0.000000000502684855643736</v>
       </c>
       <c r="BO6" t="n">
         <v>2</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.00000000000802635335144607</v>
+        <v>0.00000000000715294571684089</v>
       </c>
       <c r="BQ6" t="n">
         <v>2</v>
       </c>
       <c r="BR6" t="n">
-        <v>35.2666729808223</v>
+        <v>35.5308070212168</v>
       </c>
       <c r="BS6" t="n">
         <v>2</v>
@@ -2358,7 +2358,7 @@
         <v>-294.612401052558</v>
       </c>
       <c r="CQ6" t="n">
-        <v>46.9344375522318</v>
+        <v>40.2639851754872</v>
       </c>
     </row>
     <row r="7">
@@ -2498,79 +2498,79 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>23.1805094332683</v>
+        <v>23.0748920912499</v>
       </c>
       <c r="AU7" t="n">
         <v>2</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.0000000191668908879344</v>
+        <v>0.0000000189953777826755</v>
       </c>
       <c r="AW7" t="n">
         <v>2</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.000000000826762522877156</v>
+        <v>0.000000000823180267830404</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.000000000501596113841096</v>
+        <v>0.000000000500709149572766</v>
       </c>
       <c r="BA7" t="n">
         <v>2</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.00000000000718975660682552</v>
+        <v>0.00000000000698269153788867</v>
       </c>
       <c r="BC7" t="n">
         <v>2</v>
       </c>
       <c r="BD7" t="n">
-        <v>35.1722303283864</v>
+        <v>35.149549383787</v>
       </c>
       <c r="BE7" t="n">
         <v>2</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.000000000558487873551774</v>
+        <v>0.000000000502978257641317</v>
       </c>
       <c r="BG7" t="n">
         <v>2</v>
       </c>
       <c r="BH7" t="n">
-        <v>21.9930125153587</v>
+        <v>22.0531625737923</v>
       </c>
       <c r="BI7" t="n">
         <v>2</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.0000000171184332328439</v>
+        <v>0.0000000153959791498394</v>
       </c>
       <c r="BK7" t="n">
         <v>2</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.000000000777884246047961</v>
+        <v>0.000000000697373378325595</v>
       </c>
       <c r="BM7" t="n">
         <v>2</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.000000000558487873551774</v>
+        <v>0.000000000502978257641317</v>
       </c>
       <c r="BO7" t="n">
         <v>2</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0000000000080290219802692</v>
+        <v>0.00000000000715717696297643</v>
       </c>
       <c r="BQ7" t="n">
         <v>2</v>
       </c>
       <c r="BR7" t="n">
-        <v>35.2688514218942</v>
+        <v>35.5324029990936</v>
       </c>
       <c r="BS7" t="n">
         <v>2</v>
@@ -2645,7 +2645,7 @@
         <v>-293.839620167131</v>
       </c>
       <c r="CQ7" t="n">
-        <v>46.8627300222339</v>
+        <v>40.2110002692565</v>
       </c>
     </row>
     <row r="8">
@@ -2785,79 +2785,79 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>23.1799520910062</v>
+        <v>23.0744089362579</v>
       </c>
       <c r="AU8" t="n">
         <v>2</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.000000019171423415607</v>
+        <v>0.0000000189995367869813</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.000000000826976041617253</v>
+        <v>0.000000000823375967320224</v>
       </c>
       <c r="AY8" t="n">
         <v>2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.000000000501768172282645</v>
+        <v>0.000000000500872135059776</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.00000000000719188786914232</v>
+        <v>0.0000000000069852321288896</v>
       </c>
       <c r="BC8" t="n">
         <v>2</v>
       </c>
       <c r="BD8" t="n">
-        <v>35.1738146612896</v>
+        <v>35.1510558103305</v>
       </c>
       <c r="BE8" t="n">
         <v>2</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.000000000558673162373703</v>
+        <v>0.000000000503271659637966</v>
       </c>
       <c r="BG8" t="n">
         <v>2</v>
       </c>
       <c r="BH8" t="n">
-        <v>21.9933059121632</v>
+        <v>22.0532060899262</v>
       </c>
       <c r="BI8" t="n">
         <v>2</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.0000000171239059757991</v>
+        <v>0.0000000154044591192332</v>
       </c>
       <c r="BK8" t="n">
         <v>2</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.000000000778120395396957</v>
+        <v>0.000000000697756860525512</v>
       </c>
       <c r="BM8" t="n">
         <v>2</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.000000000558673162373703</v>
+        <v>0.000000000503271659637966</v>
       </c>
       <c r="BO8" t="n">
         <v>2</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.00000000000803169060908384</v>
+        <v>0.00000000000716140820909853</v>
       </c>
       <c r="BQ8" t="n">
         <v>2</v>
       </c>
       <c r="BR8" t="n">
-        <v>35.2710298629591</v>
+        <v>35.5339989769653</v>
       </c>
       <c r="BS8" t="n">
         <v>2</v>
@@ -2932,7 +2932,7 @@
         <v>-290.832868728924</v>
       </c>
       <c r="CQ8" t="n">
-        <v>46.4342681773118</v>
+        <v>39.8518196093474</v>
       </c>
     </row>
     <row r="9">
@@ -3072,79 +3072,79 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>23.1795062171933</v>
+        <v>23.0740224122616</v>
       </c>
       <c r="AU9" t="n">
         <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0000000191750494377711</v>
+        <v>0.0000000190028639904498</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.000000000827146856610552</v>
+        <v>0.0000000008235325269132</v>
       </c>
       <c r="AY9" t="n">
         <v>2</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.000000000501905819036869</v>
+        <v>0.000000000501002523450317</v>
       </c>
       <c r="BA9" t="n">
         <v>2</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.00000000000719359287900795</v>
+        <v>0.00000000000698726460170488</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
       </c>
       <c r="BD9" t="n">
-        <v>35.1750821276213</v>
+        <v>35.1522609515739</v>
       </c>
       <c r="BE9" t="n">
         <v>2</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.000000000558821393432307</v>
+        <v>0.000000000503506381236964</v>
       </c>
       <c r="BG9" t="n">
         <v>2</v>
       </c>
       <c r="BH9" t="n">
-        <v>21.9935406296085</v>
+        <v>22.0532409028335</v>
       </c>
       <c r="BI9" t="n">
         <v>2</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.0000000171282841701946</v>
+        <v>0.0000000154112430947968</v>
       </c>
       <c r="BK9" t="n">
         <v>2</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.000000000778309314877505</v>
+        <v>0.000000000698063646287639</v>
       </c>
       <c r="BM9" t="n">
         <v>2</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.000000000558821393432307</v>
+        <v>0.000000000503506381236964</v>
       </c>
       <c r="BO9" t="n">
         <v>2</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.00000000000803382551215083</v>
+        <v>0.00000000000716479320602041</v>
       </c>
       <c r="BQ9" t="n">
         <v>2</v>
       </c>
       <c r="BR9" t="n">
-        <v>35.2727726158235</v>
+        <v>35.5352757592719</v>
       </c>
       <c r="BS9" t="n">
         <v>2</v>
@@ -3219,7 +3219,7 @@
         <v>-288.741810835376</v>
       </c>
       <c r="CQ9" t="n">
-        <v>46.1411067070594</v>
+        <v>39.6069538456942</v>
       </c>
     </row>
     <row r="10">
@@ -3359,79 +3359,79 @@
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>23.1789488749294</v>
+        <v>23.0735392572681</v>
       </c>
       <c r="AU10" t="n">
         <v>2</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.0000000191795819654582</v>
+        <v>0.0000000190070229947688</v>
       </c>
       <c r="AW10" t="n">
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.000000000827360375351327</v>
+        <v>0.000000000823728226403642</v>
       </c>
       <c r="AY10" t="n">
         <v>2</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.000000000502077877478966</v>
+        <v>0.000000000501165508937846</v>
       </c>
       <c r="BA10" t="n">
         <v>2</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.00000000000719572414133152</v>
+        <v>0.00000000000698980519271389</v>
       </c>
       <c r="BC10" t="n">
         <v>2</v>
       </c>
       <c r="BD10" t="n">
-        <v>35.1766664605296</v>
+        <v>35.1537673781222</v>
       </c>
       <c r="BE10" t="n">
         <v>2</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.000000000559006682254825</v>
+        <v>0.000000000503799783234546</v>
       </c>
       <c r="BG10" t="n">
         <v>2</v>
       </c>
       <c r="BH10" t="n">
-        <v>21.993834026414</v>
+        <v>22.0532844189675</v>
       </c>
       <c r="BI10" t="n">
         <v>2</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0000000171337569131672</v>
+        <v>0.0000000154197230642176</v>
       </c>
       <c r="BK10" t="n">
         <v>2</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.000000000778545464227252</v>
+        <v>0.000000000698447128488774</v>
       </c>
       <c r="BM10" t="n">
         <v>2</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.000000000559006682254825</v>
+        <v>0.000000000503799783234546</v>
       </c>
       <c r="BO10" t="n">
         <v>2</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.00000000000803649414097396</v>
+        <v>0.00000000000716902445215595</v>
       </c>
       <c r="BQ10" t="n">
         <v>2</v>
       </c>
       <c r="BR10" t="n">
-        <v>35.2749510568954</v>
+        <v>35.5368717371487</v>
       </c>
       <c r="BS10" t="n">
         <v>2</v>
@@ -3506,7 +3506,7 @@
         <v>-288.170451882809</v>
       </c>
       <c r="CQ10" t="n">
-        <v>46.1007433908569</v>
+        <v>39.5807315604564</v>
       </c>
     </row>
     <row r="11">
@@ -3646,79 +3646,79 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>23.1783915326655</v>
+        <v>23.0730561022746</v>
       </c>
       <c r="AU11" t="n">
         <v>2</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0000000191841144931453</v>
+        <v>0.0000000190111819990878</v>
       </c>
       <c r="AW11" t="n">
         <v>2</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.000000000827573894092103</v>
+        <v>0.000000000823923925894084</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.000000000502249935921062</v>
+        <v>0.000000000501328494425374</v>
       </c>
       <c r="BA11" t="n">
         <v>2</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.00000000000719785540365509</v>
+        <v>0.00000000000699234578372289</v>
       </c>
       <c r="BC11" t="n">
         <v>2</v>
       </c>
       <c r="BD11" t="n">
-        <v>35.1782507934379</v>
+        <v>35.1552738046704</v>
       </c>
       <c r="BE11" t="n">
         <v>2</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.000000000559191971077343</v>
+        <v>0.000000000504093185232127</v>
       </c>
       <c r="BG11" t="n">
         <v>2</v>
       </c>
       <c r="BH11" t="n">
-        <v>21.9941274232194</v>
+        <v>22.0533279351015</v>
       </c>
       <c r="BI11" t="n">
         <v>2</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.0000000171392296561398</v>
+        <v>0.0000000154282030336384</v>
       </c>
       <c r="BK11" t="n">
         <v>2</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.000000000778781613576998</v>
+        <v>0.000000000698830610689909</v>
       </c>
       <c r="BM11" t="n">
         <v>2</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.000000000559191971077343</v>
+        <v>0.000000000504093185232127</v>
       </c>
       <c r="BO11" t="n">
         <v>2</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.00000000000803916276979709</v>
+        <v>0.0000000000071732556982915</v>
       </c>
       <c r="BQ11" t="n">
         <v>2</v>
       </c>
       <c r="BR11" t="n">
-        <v>35.2771294979673</v>
+        <v>35.5384677150255</v>
       </c>
       <c r="BS11" t="n">
         <v>2</v>
@@ -3793,7 +3793,7 @@
         <v>-287.764167302364</v>
       </c>
       <c r="CQ11" t="n">
-        <v>46.0868058637584</v>
+        <v>39.5771993851562</v>
       </c>
     </row>
     <row r="12">
@@ -3933,79 +3933,79 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>23.1778341904034</v>
+        <v>23.0725729472827</v>
       </c>
       <c r="AU12" t="n">
         <v>2</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.000000019188647020818</v>
+        <v>0.0000000190153410033936</v>
       </c>
       <c r="AW12" t="n">
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0000000008277874128322</v>
+        <v>0.000000000824119625383904</v>
       </c>
       <c r="AY12" t="n">
         <v>2</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.000000000502421994362611</v>
+        <v>0.000000000501491479912385</v>
       </c>
       <c r="BA12" t="n">
         <v>2</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.00000000000719998666597189</v>
+        <v>0.00000000000699488637472382</v>
       </c>
       <c r="BC12" t="n">
         <v>2</v>
       </c>
       <c r="BD12" t="n">
-        <v>35.1798351263412</v>
+        <v>35.1567802312139</v>
       </c>
       <c r="BE12" t="n">
         <v>2</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.000000000559377259899272</v>
+        <v>0.000000000504386587228776</v>
       </c>
       <c r="BG12" t="n">
         <v>2</v>
       </c>
       <c r="BH12" t="n">
-        <v>21.994420820024</v>
+        <v>22.0533714512353</v>
       </c>
       <c r="BI12" t="n">
         <v>2</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.000000017144702399095</v>
+        <v>0.0000000154366830030322</v>
       </c>
       <c r="BK12" t="n">
         <v>2</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.000000000779017762925994</v>
+        <v>0.000000000699214092889825</v>
       </c>
       <c r="BM12" t="n">
         <v>2</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.000000000559377259899272</v>
+        <v>0.000000000504386587228776</v>
       </c>
       <c r="BO12" t="n">
         <v>2</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.00000000000804183139861173</v>
+        <v>0.00000000000717748694441359</v>
       </c>
       <c r="BQ12" t="n">
         <v>2</v>
       </c>
       <c r="BR12" t="n">
-        <v>35.2793079390322</v>
+        <v>35.5400636928972</v>
       </c>
       <c r="BS12" t="n">
         <v>2</v>
@@ -4080,7 +4080,7 @@
         <v>-287.222058278435</v>
       </c>
       <c r="CQ12" t="n">
-        <v>46.0511382762756</v>
+        <v>39.5550090200108</v>
       </c>
     </row>
     <row r="13">
@@ -4220,79 +4220,79 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>23.1773883165905</v>
+        <v>23.0721864232863</v>
       </c>
       <c r="AU13" t="n">
         <v>2</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.000000019192273042982</v>
+        <v>0.000000019018668206862</v>
       </c>
       <c r="AW13" t="n">
         <v>2</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.000000000827958227825499</v>
+        <v>0.00000000082427618497688</v>
       </c>
       <c r="AY13" t="n">
         <v>2</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.000000000502559641116835</v>
+        <v>0.000000000501621868302925</v>
       </c>
       <c r="BA13" t="n">
         <v>2</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.00000000000720169167583752</v>
+        <v>0.00000000000699691884753911</v>
       </c>
       <c r="BC13" t="n">
         <v>2</v>
       </c>
       <c r="BD13" t="n">
-        <v>35.1811025926729</v>
+        <v>35.1579853724574</v>
       </c>
       <c r="BE13" t="n">
         <v>2</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.000000000559525490957875</v>
+        <v>0.000000000504621308827774</v>
       </c>
       <c r="BG13" t="n">
         <v>2</v>
       </c>
       <c r="BH13" t="n">
-        <v>21.9946555374693</v>
+        <v>22.0534062641426</v>
       </c>
       <c r="BI13" t="n">
         <v>2</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.0000000171490805934905</v>
+        <v>0.0000000154434669785958</v>
       </c>
       <c r="BK13" t="n">
         <v>2</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.000000000779206682406542</v>
+        <v>0.000000000699520878651953</v>
       </c>
       <c r="BM13" t="n">
         <v>2</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.000000000559525490957875</v>
+        <v>0.000000000504621308827774</v>
       </c>
       <c r="BO13" t="n">
         <v>2</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.00000000000804396630167872</v>
+        <v>0.00000000000718087194133547</v>
       </c>
       <c r="BQ13" t="n">
         <v>2</v>
       </c>
       <c r="BR13" t="n">
-        <v>35.2810506918967</v>
+        <v>35.5413404752037</v>
       </c>
       <c r="BS13" t="n">
         <v>2</v>
@@ -4367,7 +4367,7 @@
         <v>-268.18146730304</v>
       </c>
       <c r="CQ13" t="n">
-        <v>45.6414240419633</v>
+        <v>39.2097901605852</v>
       </c>
     </row>
     <row r="14">
@@ -4507,79 +4507,79 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>23.1768309743267</v>
+        <v>23.0717032682929</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.0000000191968055706691</v>
+        <v>0.000000019022827211181</v>
       </c>
       <c r="AW14" t="n">
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.000000000828171746566274</v>
+        <v>0.000000000824471884467322</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.000000000502731699558931</v>
+        <v>0.000000000501784853790454</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.00000000000720382293816109</v>
+        <v>0.00000000000699945943854811</v>
       </c>
       <c r="BC14" t="n">
         <v>2</v>
       </c>
       <c r="BD14" t="n">
-        <v>35.1826869255812</v>
+        <v>35.1594917990056</v>
       </c>
       <c r="BE14" t="n">
         <v>2</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.000000000559710779780393</v>
+        <v>0.000000000504914710825355</v>
       </c>
       <c r="BG14" t="n">
         <v>2</v>
       </c>
       <c r="BH14" t="n">
-        <v>21.9949489342747</v>
+        <v>22.0534497802766</v>
       </c>
       <c r="BI14" t="n">
         <v>2</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.0000000171545533364631</v>
+        <v>0.0000000154519469480166</v>
       </c>
       <c r="BK14" t="n">
         <v>2</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.000000000779442831756289</v>
+        <v>0.000000000699904360853088</v>
       </c>
       <c r="BM14" t="n">
         <v>2</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.000000000559710779780393</v>
+        <v>0.000000000504914710825355</v>
       </c>
       <c r="BO14" t="n">
         <v>2</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.00000000000804663493050185</v>
+        <v>0.00000000000718510318747102</v>
       </c>
       <c r="BQ14" t="n">
         <v>2</v>
       </c>
       <c r="BR14" t="n">
-        <v>35.2832291329685</v>
+        <v>35.5429364530805</v>
       </c>
       <c r="BS14" t="n">
         <v>2</v>
@@ -4654,7 +4654,7 @@
         <v>-248.920211082675</v>
       </c>
       <c r="CQ14" t="n">
-        <v>45.2354122224296</v>
+        <v>38.8693026105905</v>
       </c>
     </row>
     <row r="15">
@@ -4794,79 +4794,79 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>23.1762736320628</v>
+        <v>23.0712201132994</v>
       </c>
       <c r="AU15" t="n">
         <v>2</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.0000000192013380983562</v>
+        <v>0.0000000190269862155</v>
       </c>
       <c r="AW15" t="n">
         <v>2</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.00000000082838526530705</v>
+        <v>0.000000000824667583957765</v>
       </c>
       <c r="AY15" t="n">
         <v>2</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.000000000502903758001028</v>
+        <v>0.000000000501947839277982</v>
       </c>
       <c r="BA15" t="n">
         <v>2</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.00000000000720595420048466</v>
+        <v>0.00000000000700200002955712</v>
       </c>
       <c r="BC15" t="n">
         <v>2</v>
       </c>
       <c r="BD15" t="n">
-        <v>35.1842712584895</v>
+        <v>35.1609982255539</v>
       </c>
       <c r="BE15" t="n">
         <v>2</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.000000000559896068602911</v>
+        <v>0.000000000505208112822937</v>
       </c>
       <c r="BG15" t="n">
         <v>2</v>
       </c>
       <c r="BH15" t="n">
-        <v>21.9952423310802</v>
+        <v>22.0534932964106</v>
       </c>
       <c r="BI15" t="n">
         <v>2</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.0000000171600260794357</v>
+        <v>0.0000000154604269174374</v>
       </c>
       <c r="BK15" t="n">
         <v>2</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.000000000779678981106036</v>
+        <v>0.000000000700287843054223</v>
       </c>
       <c r="BM15" t="n">
         <v>2</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.000000000559896068602911</v>
+        <v>0.000000000505208112822937</v>
       </c>
       <c r="BO15" t="n">
         <v>2</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.00000000000804930355932498</v>
+        <v>0.00000000000718933443360656</v>
       </c>
       <c r="BQ15" t="n">
         <v>2</v>
       </c>
       <c r="BR15" t="n">
-        <v>35.2854075740404</v>
+        <v>35.5445324309573</v>
       </c>
       <c r="BS15" t="n">
         <v>2</v>
@@ -4941,7 +4941,7 @@
         <v>-227.664759866268</v>
       </c>
       <c r="CQ15" t="n">
-        <v>45.6723452374142</v>
+        <v>39.2531471506175</v>
       </c>
     </row>
     <row r="16">
@@ -5081,79 +5081,79 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>23.1757162898007</v>
+        <v>23.0707369583074</v>
       </c>
       <c r="AU16" t="n">
         <v>2</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.0000000192058706260289</v>
+        <v>0.0000000190311452198058</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.000000000828598784047147</v>
+        <v>0.000000000824863283447585</v>
       </c>
       <c r="AY16" t="n">
         <v>2</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.000000000503075816442577</v>
+        <v>0.000000000502110824764993</v>
       </c>
       <c r="BA16" t="n">
         <v>2</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.00000000000720808546280146</v>
+        <v>0.00000000000700454062055805</v>
       </c>
       <c r="BC16" t="n">
         <v>2</v>
       </c>
       <c r="BD16" t="n">
-        <v>35.1858555913927</v>
+        <v>35.1625046520974</v>
       </c>
       <c r="BE16" t="n">
         <v>2</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.00000000056008135742484</v>
+        <v>0.000000000505501514819586</v>
       </c>
       <c r="BG16" t="n">
         <v>2</v>
       </c>
       <c r="BH16" t="n">
-        <v>21.9955357278847</v>
+        <v>22.0535368125445</v>
       </c>
       <c r="BI16" t="n">
         <v>2</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.0000000171654988223909</v>
+        <v>0.0000000154689068868313</v>
       </c>
       <c r="BK16" t="n">
         <v>2</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.000000000779915130455032</v>
+        <v>0.000000000700671325254139</v>
       </c>
       <c r="BM16" t="n">
         <v>2</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.00000000056008135742484</v>
+        <v>0.000000000505501514819586</v>
       </c>
       <c r="BO16" t="n">
         <v>2</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.00000000000805197218813962</v>
+        <v>0.00000000000719356567972865</v>
       </c>
       <c r="BQ16" t="n">
         <v>2</v>
       </c>
       <c r="BR16" t="n">
-        <v>35.2875860151053</v>
+        <v>35.546128408829</v>
       </c>
       <c r="BS16" t="n">
         <v>2</v>
@@ -5228,7 +5228,7 @@
         <v>-227.78823465215</v>
       </c>
       <c r="CQ16" t="n">
-        <v>45.6652022975147</v>
+        <v>39.2554208414786</v>
       </c>
     </row>
     <row r="17">
@@ -5368,79 +5368,79 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>23.1752704159878</v>
+        <v>23.0703504343111</v>
       </c>
       <c r="AU17" t="n">
         <v>2</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.000000019209496648193</v>
+        <v>0.0000000190344724232742</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.000000000828769599040446</v>
+        <v>0.00000000082501984304056</v>
       </c>
       <c r="AY17" t="n">
         <v>2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.000000000503213463196801</v>
+        <v>0.000000000502241213155534</v>
       </c>
       <c r="BA17" t="n">
         <v>2</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.00000000000720979047266709</v>
+        <v>0.00000000000700657309337333</v>
       </c>
       <c r="BC17" t="n">
         <v>2</v>
       </c>
       <c r="BD17" t="n">
-        <v>35.1871230577244</v>
+        <v>35.1637097933408</v>
       </c>
       <c r="BE17" t="n">
         <v>2</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.000000000560229588483444</v>
+        <v>0.000000000505736236418584</v>
       </c>
       <c r="BG17" t="n">
         <v>2</v>
       </c>
       <c r="BH17" t="n">
-        <v>21.99577044533</v>
+        <v>22.0535716254518</v>
       </c>
       <c r="BI17" t="n">
         <v>2</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.0000000171698770167864</v>
+        <v>0.0000000154756908623948</v>
       </c>
       <c r="BK17" t="n">
         <v>2</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.00000000078010404993558</v>
+        <v>0.000000000700978111016267</v>
       </c>
       <c r="BM17" t="n">
         <v>2</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.000000000560229588483444</v>
+        <v>0.000000000505736236418584</v>
       </c>
       <c r="BO17" t="n">
         <v>2</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.00000000000805410709120661</v>
+        <v>0.00000000000719695067665054</v>
       </c>
       <c r="BQ17" t="n">
         <v>2</v>
       </c>
       <c r="BR17" t="n">
-        <v>35.2893287679698</v>
+        <v>35.5474051911355</v>
       </c>
       <c r="BS17" t="n">
         <v>2</v>
@@ -5515,7 +5515,7 @@
         <v>-199.186040969868</v>
       </c>
       <c r="CQ17" t="n">
-        <v>45.6169000439595</v>
+        <v>39.2206299528579</v>
       </c>
     </row>
     <row r="18">
@@ -5655,79 +5655,79 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>23.1747130737239</v>
+        <v>23.0698672793176</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.00000001921402917588</v>
+        <v>0.0000000190386314275932</v>
       </c>
       <c r="AW18" t="n">
         <v>2</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.000000000828983117781221</v>
+        <v>0.000000000825215542531003</v>
       </c>
       <c r="AY18" t="n">
         <v>2</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.000000000503385521638897</v>
+        <v>0.000000000502404198643062</v>
       </c>
       <c r="BA18" t="n">
         <v>2</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.00000000000721192173499066</v>
+        <v>0.00000000000700911368438234</v>
       </c>
       <c r="BC18" t="n">
         <v>2</v>
       </c>
       <c r="BD18" t="n">
-        <v>35.1887073906327</v>
+        <v>35.1652162198891</v>
       </c>
       <c r="BE18" t="n">
         <v>2</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.000000000560414877305962</v>
+        <v>0.000000000506029638416165</v>
       </c>
       <c r="BG18" t="n">
         <v>2</v>
       </c>
       <c r="BH18" t="n">
-        <v>21.9960638421354</v>
+        <v>22.0536151415858</v>
       </c>
       <c r="BI18" t="n">
         <v>2</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.000000017175349759759</v>
+        <v>0.0000000154841708318156</v>
       </c>
       <c r="BK18" t="n">
         <v>2</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.000000000780340199285326</v>
+        <v>0.000000000701361593217402</v>
       </c>
       <c r="BM18" t="n">
         <v>2</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.000000000560414877305962</v>
+        <v>0.000000000506029638416165</v>
       </c>
       <c r="BO18" t="n">
         <v>2</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.00000000000805677572002974</v>
+        <v>0.00000000000720118192278608</v>
       </c>
       <c r="BQ18" t="n">
         <v>2</v>
       </c>
       <c r="BR18" t="n">
-        <v>35.2915072090416</v>
+        <v>35.5490011690123</v>
       </c>
       <c r="BS18" t="n">
         <v>2</v>
@@ -5802,7 +5802,7 @@
         <v>-198.107439728194</v>
       </c>
       <c r="CQ18" t="n">
-        <v>45.3384680752155</v>
+        <v>38.9896122966121</v>
       </c>
     </row>
     <row r="19">
@@ -5942,79 +5942,79 @@
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>23.17415573146</v>
+        <v>23.0693841243241</v>
       </c>
       <c r="AU19" t="n">
         <v>2</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.0000000192185617035671</v>
+        <v>0.0000000190427904319122</v>
       </c>
       <c r="AW19" t="n">
         <v>2</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.000000000829196636521997</v>
+        <v>0.000000000825411242021445</v>
       </c>
       <c r="AY19" t="n">
         <v>2</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.000000000503557580080993</v>
+        <v>0.000000000502567184130591</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.00000000000721405299731423</v>
+        <v>0.00000000000701165427539135</v>
       </c>
       <c r="BC19" t="n">
         <v>2</v>
       </c>
       <c r="BD19" t="n">
-        <v>35.190291723541</v>
+        <v>35.1667226464374</v>
       </c>
       <c r="BE19" t="n">
         <v>2</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.00000000056060016612848</v>
+        <v>0.000000000506323040413747</v>
       </c>
       <c r="BG19" t="n">
         <v>2</v>
       </c>
       <c r="BH19" t="n">
-        <v>21.9963572389409</v>
+        <v>22.0536586577197</v>
       </c>
       <c r="BI19" t="n">
         <v>2</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.0000000171808225027316</v>
+        <v>0.0000000154926508012364</v>
       </c>
       <c r="BK19" t="n">
         <v>2</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.000000000780576348635073</v>
+        <v>0.000000000701745075418537</v>
       </c>
       <c r="BM19" t="n">
         <v>2</v>
       </c>
       <c r="BN19" t="n">
-        <v>0.00000000056060016612848</v>
+        <v>0.000000000506323040413747</v>
       </c>
       <c r="BO19" t="n">
         <v>2</v>
       </c>
       <c r="BP19" t="n">
-        <v>0.00000000000805944434885287</v>
+        <v>0.00000000000720541316892162</v>
       </c>
       <c r="BQ19" t="n">
         <v>2</v>
       </c>
       <c r="BR19" t="n">
-        <v>35.2936856501135</v>
+        <v>35.5505971468891</v>
       </c>
       <c r="BS19" t="n">
         <v>2</v>
@@ -6089,7 +6089,7 @@
         <v>-162.226577940148</v>
       </c>
       <c r="CQ19" t="n">
-        <v>44.9789149381719</v>
+        <v>38.6887267820113</v>
       </c>
     </row>
     <row r="20">
@@ -6229,79 +6229,79 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>23.1735983891979</v>
+        <v>23.0689009693322</v>
       </c>
       <c r="AU20" t="n">
         <v>2</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.0000000192230942312398</v>
+        <v>0.000000019046949436218</v>
       </c>
       <c r="AW20" t="n">
         <v>2</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.000000000829410155262093</v>
+        <v>0.000000000825606941511265</v>
       </c>
       <c r="AY20" t="n">
         <v>2</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.000000000503729638522543</v>
+        <v>0.000000000502730169617601</v>
       </c>
       <c r="BA20" t="n">
         <v>2</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.00000000000721618425963103</v>
+        <v>0.00000000000701419486639228</v>
       </c>
       <c r="BC20" t="n">
         <v>2</v>
       </c>
       <c r="BD20" t="n">
-        <v>35.1918760564443</v>
+        <v>35.1682290729809</v>
       </c>
       <c r="BE20" t="n">
         <v>2</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.000000000560785454950409</v>
+        <v>0.000000000506616442410395</v>
       </c>
       <c r="BG20" t="n">
         <v>2</v>
       </c>
       <c r="BH20" t="n">
-        <v>21.9966506357454</v>
+        <v>22.0537021738536</v>
       </c>
       <c r="BI20" t="n">
         <v>2</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.0000000171862952456868</v>
+        <v>0.0000000155011307706303</v>
       </c>
       <c r="BK20" t="n">
         <v>2</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.000000000780812497984069</v>
+        <v>0.000000000702128557618453</v>
       </c>
       <c r="BM20" t="n">
         <v>2</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.000000000560785454950409</v>
+        <v>0.000000000506616442410395</v>
       </c>
       <c r="BO20" t="n">
         <v>2</v>
       </c>
       <c r="BP20" t="n">
-        <v>0.00000000000806211297766751</v>
+        <v>0.00000000000720964441504371</v>
       </c>
       <c r="BQ20" t="n">
         <v>2</v>
       </c>
       <c r="BR20" t="n">
-        <v>35.2958640911785</v>
+        <v>35.5521931247609</v>
       </c>
       <c r="BS20" t="n">
         <v>2</v>
@@ -6376,7 +6376,7 @@
         <v>-136.276829518354</v>
       </c>
       <c r="CQ20" t="n">
-        <v>44.7222159850877</v>
+        <v>38.4762090827578</v>
       </c>
     </row>
     <row r="21">
@@ -6516,79 +6516,79 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>23.1731525153851</v>
+        <v>23.0685144453359</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.0000000192267202534039</v>
+        <v>0.0000000190502766396865</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.000000000829580970255392</v>
+        <v>0.000000000825763501104241</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.000000000503867285276767</v>
+        <v>0.000000000502860558008142</v>
       </c>
       <c r="BA21" t="n">
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.00000000000721788926949666</v>
+        <v>0.00000000000701622733920756</v>
       </c>
       <c r="BC21" t="n">
         <v>2</v>
       </c>
       <c r="BD21" t="n">
-        <v>35.193143522776</v>
+        <v>35.1694342142243</v>
       </c>
       <c r="BE21" t="n">
         <v>2</v>
       </c>
       <c r="BF21" t="n">
-        <v>0.000000000560933686009013</v>
+        <v>0.000000000506851164009393</v>
       </c>
       <c r="BG21" t="n">
         <v>2</v>
       </c>
       <c r="BH21" t="n">
-        <v>21.9968853531907</v>
+        <v>22.0537369867609</v>
       </c>
       <c r="BI21" t="n">
         <v>2</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.0000000171906734400823</v>
+        <v>0.0000000155079147461939</v>
       </c>
       <c r="BK21" t="n">
         <v>2</v>
       </c>
       <c r="BL21" t="n">
-        <v>0.000000000781001417464617</v>
+        <v>0.00000000070243534338058</v>
       </c>
       <c r="BM21" t="n">
         <v>2</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.000000000560933686009013</v>
+        <v>0.000000000506851164009393</v>
       </c>
       <c r="BO21" t="n">
         <v>2</v>
       </c>
       <c r="BP21" t="n">
-        <v>0.0000000000080642478807345</v>
+        <v>0.0000000000072130294119656</v>
       </c>
       <c r="BQ21" t="n">
         <v>2</v>
       </c>
       <c r="BR21" t="n">
-        <v>35.2976068440429</v>
+        <v>35.5534699070674</v>
       </c>
       <c r="BS21" t="n">
         <v>2</v>
@@ -6663,7 +6663,7 @@
         <v>-137.205627951256</v>
       </c>
       <c r="CQ21" t="n">
-        <v>45.0028894073414</v>
+        <v>38.7243589886346</v>
       </c>
     </row>
     <row r="22">
@@ -6803,79 +6803,79 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>23.1725951731212</v>
+        <v>23.0680312903424</v>
       </c>
       <c r="AU22" t="n">
         <v>2</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.000000019231252781091</v>
+        <v>0.0000000190544356440055</v>
       </c>
       <c r="AW22" t="n">
         <v>2</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.000000000829794488996168</v>
+        <v>0.000000000825959200594683</v>
       </c>
       <c r="AY22" t="n">
         <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.000000000504039343718863</v>
+        <v>0.00000000050302354349567</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
       </c>
       <c r="BB22" t="n">
-        <v>0.00000000000722002053182023</v>
+        <v>0.00000000000701876793021657</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
       </c>
       <c r="BD22" t="n">
-        <v>35.1947278556843</v>
+        <v>35.1709406407726</v>
       </c>
       <c r="BE22" t="n">
         <v>2</v>
       </c>
       <c r="BF22" t="n">
-        <v>0.000000000561118974831531</v>
+        <v>0.000000000507144566006975</v>
       </c>
       <c r="BG22" t="n">
         <v>2</v>
       </c>
       <c r="BH22" t="n">
-        <v>21.9971787499961</v>
+        <v>22.0537805028949</v>
       </c>
       <c r="BI22" t="n">
         <v>2</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.0000000171961461830549</v>
+        <v>0.0000000155163947156147</v>
       </c>
       <c r="BK22" t="n">
         <v>2</v>
       </c>
       <c r="BL22" t="n">
-        <v>0.000000000781237566814364</v>
+        <v>0.000000000702818825581715</v>
       </c>
       <c r="BM22" t="n">
         <v>2</v>
       </c>
       <c r="BN22" t="n">
-        <v>0.000000000561118974831531</v>
+        <v>0.000000000507144566006975</v>
       </c>
       <c r="BO22" t="n">
         <v>2</v>
       </c>
       <c r="BP22" t="n">
-        <v>0.00000000000806691650955763</v>
+        <v>0.00000000000721726065810114</v>
       </c>
       <c r="BQ22" t="n">
         <v>2</v>
       </c>
       <c r="BR22" t="n">
-        <v>35.2997852851148</v>
+        <v>35.5550658849442</v>
       </c>
       <c r="BS22" t="n">
         <v>2</v>
@@ -6950,7 +6950,7 @@
         <v>-113.764652076632</v>
       </c>
       <c r="CQ22" t="n">
-        <v>44.7407675784084</v>
+        <v>38.5071135700799</v>
       </c>
     </row>
     <row r="23">
@@ -7090,79 +7090,79 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>23.1720378308573</v>
+        <v>23.0675481353489</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.000000019235785308778</v>
+        <v>0.0000000190585946483245</v>
       </c>
       <c r="AW23" t="n">
         <v>2</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.000000000830008007736943</v>
+        <v>0.000000000826154900085125</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.000000000504211402160959</v>
+        <v>0.000000000503186528983199</v>
       </c>
       <c r="BA23" t="n">
         <v>2</v>
       </c>
       <c r="BB23" t="n">
-        <v>0.00000000000722215179414381</v>
+        <v>0.00000000000702130852122557</v>
       </c>
       <c r="BC23" t="n">
         <v>2</v>
       </c>
       <c r="BD23" t="n">
-        <v>35.1963121885926</v>
+        <v>35.1724470673209</v>
       </c>
       <c r="BE23" t="n">
         <v>2</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.000000000561304263654049</v>
+        <v>0.000000000507437968004556</v>
       </c>
       <c r="BG23" t="n">
         <v>2</v>
       </c>
       <c r="BH23" t="n">
-        <v>21.9974721468016</v>
+        <v>22.0538240190289</v>
       </c>
       <c r="BI23" t="n">
         <v>2</v>
       </c>
       <c r="BJ23" t="n">
-        <v>0.0000000172016189260275</v>
+        <v>0.0000000155248746850355</v>
       </c>
       <c r="BK23" t="n">
         <v>2</v>
       </c>
       <c r="BL23" t="n">
-        <v>0.00000000078147371616411</v>
+        <v>0.000000000703202307782851</v>
       </c>
       <c r="BM23" t="n">
         <v>2</v>
       </c>
       <c r="BN23" t="n">
-        <v>0.000000000561304263654049</v>
+        <v>0.000000000507437968004556</v>
       </c>
       <c r="BO23" t="n">
         <v>2</v>
       </c>
       <c r="BP23" t="n">
-        <v>0.00000000000806958513838076</v>
+        <v>0.00000000000722149190423668</v>
       </c>
       <c r="BQ23" t="n">
         <v>2</v>
       </c>
       <c r="BR23" t="n">
-        <v>35.3019637261866</v>
+        <v>35.556661862821</v>
       </c>
       <c r="BS23" t="n">
         <v>2</v>
@@ -7237,7 +7237,7 @@
         <v>-114.048834866493</v>
       </c>
       <c r="CQ23" t="n">
-        <v>44.8231486290614</v>
+        <v>38.586350265383</v>
       </c>
     </row>
     <row r="24">
@@ -7377,79 +7377,79 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>23.1714804885952</v>
+        <v>23.0670649803569</v>
       </c>
       <c r="AU24" t="n">
         <v>2</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.0000000192403178364507</v>
+        <v>0.0000000190627536526303</v>
       </c>
       <c r="AW24" t="n">
         <v>2</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.00000000083022152647704</v>
+        <v>0.000000000826350599574945</v>
       </c>
       <c r="AY24" t="n">
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.000000000504383460602508</v>
+        <v>0.000000000503349514470209</v>
       </c>
       <c r="BA24" t="n">
         <v>2</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.0000000000072242830564606</v>
+        <v>0.00000000000702384911222651</v>
       </c>
       <c r="BC24" t="n">
         <v>2</v>
       </c>
       <c r="BD24" t="n">
-        <v>35.1978965214958</v>
+        <v>35.1739534938644</v>
       </c>
       <c r="BE24" t="n">
         <v>2</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.000000000561489552475978</v>
+        <v>0.000000000507731370001205</v>
       </c>
       <c r="BG24" t="n">
         <v>2</v>
       </c>
       <c r="BH24" t="n">
-        <v>21.9977655436061</v>
+        <v>22.0538675351627</v>
       </c>
       <c r="BI24" t="n">
         <v>2</v>
       </c>
       <c r="BJ24" t="n">
-        <v>0.0000000172070916689827</v>
+        <v>0.0000000155333546544293</v>
       </c>
       <c r="BK24" t="n">
         <v>2</v>
       </c>
       <c r="BL24" t="n">
-        <v>0.000000000781709865513106</v>
+        <v>0.000000000703585789982767</v>
       </c>
       <c r="BM24" t="n">
         <v>2</v>
       </c>
       <c r="BN24" t="n">
-        <v>0.000000000561489552475978</v>
+        <v>0.000000000507731370001205</v>
       </c>
       <c r="BO24" t="n">
         <v>2</v>
       </c>
       <c r="BP24" t="n">
-        <v>0.0000000000080722537671954</v>
+        <v>0.00000000000722572315035878</v>
       </c>
       <c r="BQ24" t="n">
         <v>2</v>
       </c>
       <c r="BR24" t="n">
-        <v>35.3041421672516</v>
+        <v>35.5582578406927</v>
       </c>
       <c r="BS24" t="n">
         <v>2</v>
@@ -7524,7 +7524,7 @@
         <v>-94.9696717768401</v>
       </c>
       <c r="CQ24" t="n">
-        <v>44.8753590503258</v>
+        <v>38.6396510040022</v>
       </c>
     </row>
     <row r="25">
@@ -7664,79 +7664,79 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>23.1710346147823</v>
+        <v>23.0666784563606</v>
       </c>
       <c r="AU25" t="n">
         <v>2</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.0000000192439438586148</v>
+        <v>0.0000000190660808560987</v>
       </c>
       <c r="AW25" t="n">
         <v>2</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.000000000830392341470339</v>
+        <v>0.000000000826507159167921</v>
       </c>
       <c r="AY25" t="n">
         <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0.000000000504521107356732</v>
+        <v>0.00000000050347990286075</v>
       </c>
       <c r="BA25" t="n">
         <v>2</v>
       </c>
       <c r="BB25" t="n">
-        <v>0.00000000000722598806632623</v>
+        <v>0.00000000000702588158504179</v>
       </c>
       <c r="BC25" t="n">
         <v>2</v>
       </c>
       <c r="BD25" t="n">
-        <v>35.1991639878275</v>
+        <v>35.1751586351078</v>
       </c>
       <c r="BE25" t="n">
         <v>2</v>
       </c>
       <c r="BF25" t="n">
-        <v>0.000000000561637783534581</v>
+        <v>0.000000000507966091600203</v>
       </c>
       <c r="BG25" t="n">
         <v>2</v>
       </c>
       <c r="BH25" t="n">
-        <v>21.9980002610514</v>
+        <v>22.0539023480701</v>
       </c>
       <c r="BI25" t="n">
         <v>2</v>
       </c>
       <c r="BJ25" t="n">
-        <v>0.0000000172114698633782</v>
+        <v>0.0000000155401386299929</v>
       </c>
       <c r="BK25" t="n">
         <v>2</v>
       </c>
       <c r="BL25" t="n">
-        <v>0.000000000781898784993654</v>
+        <v>0.000000000703892575744894</v>
       </c>
       <c r="BM25" t="n">
         <v>2</v>
       </c>
       <c r="BN25" t="n">
-        <v>0.000000000561637783534581</v>
+        <v>0.000000000507966091600203</v>
       </c>
       <c r="BO25" t="n">
         <v>2</v>
       </c>
       <c r="BP25" t="n">
-        <v>0.00000000000807438867026239</v>
+        <v>0.00000000000722910814728066</v>
       </c>
       <c r="BQ25" t="n">
         <v>2</v>
       </c>
       <c r="BR25" t="n">
-        <v>35.305884920116</v>
+        <v>35.5595346229992</v>
       </c>
       <c r="BS25" t="n">
         <v>2</v>
@@ -7811,7 +7811,7 @@
         <v>-82.5181767770487</v>
       </c>
       <c r="CQ25" t="n">
-        <v>44.9199157021381</v>
+        <v>38.6847152730431</v>
       </c>
     </row>
     <row r="26">
@@ -7951,79 +7951,79 @@
         <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>23.1704772725184</v>
+        <v>23.0661953013671</v>
       </c>
       <c r="AU26" t="n">
         <v>2</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.0000000192484763863019</v>
+        <v>0.0000000190702398604177</v>
       </c>
       <c r="AW26" t="n">
         <v>2</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.000000000830605860211115</v>
+        <v>0.000000000826702858658363</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.000000000504693165798829</v>
+        <v>0.000000000503642888348278</v>
       </c>
       <c r="BA26" t="n">
         <v>2</v>
       </c>
       <c r="BB26" t="n">
-        <v>0.0000000000072281193286498</v>
+        <v>0.00000000000702842217605079</v>
       </c>
       <c r="BC26" t="n">
         <v>2</v>
       </c>
       <c r="BD26" t="n">
-        <v>35.2007483207358</v>
+        <v>35.1766650616561</v>
       </c>
       <c r="BE26" t="n">
         <v>2</v>
       </c>
       <c r="BF26" t="n">
-        <v>0.0000000005618230723571</v>
+        <v>0.000000000508259493597785</v>
       </c>
       <c r="BG26" t="n">
         <v>2</v>
       </c>
       <c r="BH26" t="n">
-        <v>21.9982936578568</v>
+        <v>22.053945864204</v>
       </c>
       <c r="BI26" t="n">
         <v>2</v>
       </c>
       <c r="BJ26" t="n">
-        <v>0.0000000172169426063508</v>
+        <v>0.0000000155486185994137</v>
       </c>
       <c r="BK26" t="n">
         <v>2</v>
       </c>
       <c r="BL26" t="n">
-        <v>0.000000000782134934343401</v>
+        <v>0.000000000704276057946029</v>
       </c>
       <c r="BM26" t="n">
         <v>2</v>
       </c>
       <c r="BN26" t="n">
-        <v>0.0000000005618230723571</v>
+        <v>0.000000000508259493597785</v>
       </c>
       <c r="BO26" t="n">
         <v>2</v>
       </c>
       <c r="BP26" t="n">
-        <v>0.00000000000807705729908552</v>
+        <v>0.0000000000072333393934162</v>
       </c>
       <c r="BQ26" t="n">
         <v>2</v>
       </c>
       <c r="BR26" t="n">
-        <v>35.3080633611879</v>
+        <v>35.561130600876</v>
       </c>
       <c r="BS26" t="n">
         <v>2</v>
@@ -8098,7 +8098,7 @@
         <v>-82.5817467240032</v>
       </c>
       <c r="CQ26" t="n">
-        <v>44.9266596290725</v>
+        <v>38.6989086789402</v>
       </c>
     </row>
     <row r="27">
@@ -8238,79 +8238,79 @@
         <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>23.1699199302563</v>
+        <v>23.0657121463752</v>
       </c>
       <c r="AU27" t="n">
         <v>2</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.0000000192530089139745</v>
+        <v>0.0000000190743988647235</v>
       </c>
       <c r="AW27" t="n">
         <v>2</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.000000000830819378951211</v>
+        <v>0.000000000826898558148183</v>
       </c>
       <c r="AY27" t="n">
         <v>2</v>
       </c>
       <c r="AZ27" t="n">
-        <v>0.000000000504865224240378</v>
+        <v>0.000000000503805873835289</v>
       </c>
       <c r="BA27" t="n">
         <v>2</v>
       </c>
       <c r="BB27" t="n">
-        <v>0.0000000000072302505909666</v>
+        <v>0.00000000000703096276705172</v>
       </c>
       <c r="BC27" t="n">
         <v>2</v>
       </c>
       <c r="BD27" t="n">
-        <v>35.2023326536391</v>
+        <v>35.1781714881996</v>
       </c>
       <c r="BE27" t="n">
         <v>2</v>
       </c>
       <c r="BF27" t="n">
-        <v>0.000000000562008361179029</v>
+        <v>0.000000000508552895594433</v>
       </c>
       <c r="BG27" t="n">
         <v>2</v>
       </c>
       <c r="BH27" t="n">
-        <v>21.9985870546614</v>
+        <v>22.0539893803379</v>
       </c>
       <c r="BI27" t="n">
         <v>2</v>
       </c>
       <c r="BJ27" t="n">
-        <v>0.000000017222415349306</v>
+        <v>0.0000000155570985688075</v>
       </c>
       <c r="BK27" t="n">
         <v>2</v>
       </c>
       <c r="BL27" t="n">
-        <v>0.000000000782371083692397</v>
+        <v>0.000000000704659540145946</v>
       </c>
       <c r="BM27" t="n">
         <v>2</v>
       </c>
       <c r="BN27" t="n">
-        <v>0.000000000562008361179029</v>
+        <v>0.000000000508552895594433</v>
       </c>
       <c r="BO27" t="n">
         <v>2</v>
       </c>
       <c r="BP27" t="n">
-        <v>0.00000000000807972592790016</v>
+        <v>0.0000000000072375706395383</v>
       </c>
       <c r="BQ27" t="n">
         <v>2</v>
       </c>
       <c r="BR27" t="n">
-        <v>35.3102418022528</v>
+        <v>35.5627265787477</v>
       </c>
       <c r="BS27" t="n">
         <v>2</v>
@@ -8385,7 +8385,7 @@
         <v>-72.2232173996658</v>
       </c>
       <c r="CQ27" t="n">
-        <v>44.80504596383</v>
+        <v>38.6025277207287</v>
       </c>
     </row>
     <row r="28">
@@ -8525,79 +8525,79 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>23.1694740564435</v>
+        <v>23.0653256223789</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.0000000192566349361386</v>
+        <v>0.0000000190777260681919</v>
       </c>
       <c r="AW28" t="n">
         <v>2</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.000000000830990193944511</v>
+        <v>0.000000000827055117741159</v>
       </c>
       <c r="AY28" t="n">
         <v>2</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0.000000000505002870994602</v>
+        <v>0.00000000050393626222583</v>
       </c>
       <c r="BA28" t="n">
         <v>2</v>
       </c>
       <c r="BB28" t="n">
-        <v>0.00000000000723195560083223</v>
+        <v>0.00000000000703299523986701</v>
       </c>
       <c r="BC28" t="n">
         <v>2</v>
       </c>
       <c r="BD28" t="n">
-        <v>35.2036001199708</v>
+        <v>35.179376629443</v>
       </c>
       <c r="BE28" t="n">
         <v>2</v>
       </c>
       <c r="BF28" t="n">
-        <v>0.000000000562156592237632</v>
+        <v>0.000000000508787617193431</v>
       </c>
       <c r="BG28" t="n">
         <v>2</v>
       </c>
       <c r="BH28" t="n">
-        <v>21.9988217721067</v>
+        <v>22.0540241932452</v>
       </c>
       <c r="BI28" t="n">
         <v>2</v>
       </c>
       <c r="BJ28" t="n">
-        <v>0.0000000172267935437015</v>
+        <v>0.0000000155638825443711</v>
       </c>
       <c r="BK28" t="n">
         <v>2</v>
       </c>
       <c r="BL28" t="n">
-        <v>0.000000000782560003172945</v>
+        <v>0.000000000704966325908073</v>
       </c>
       <c r="BM28" t="n">
         <v>2</v>
       </c>
       <c r="BN28" t="n">
-        <v>0.000000000562156592237632</v>
+        <v>0.000000000508787617193431</v>
       </c>
       <c r="BO28" t="n">
         <v>2</v>
       </c>
       <c r="BP28" t="n">
-        <v>0.00000000000808186083096715</v>
+        <v>0.00000000000724095563646018</v>
       </c>
       <c r="BQ28" t="n">
         <v>2</v>
       </c>
       <c r="BR28" t="n">
-        <v>35.3119845551172</v>
+        <v>35.5640033610542</v>
       </c>
       <c r="BS28" t="n">
         <v>2</v>
@@ -8672,7 +8672,7 @@
         <v>-72.0577722707009</v>
       </c>
       <c r="CQ28" t="n">
-        <v>44.680873580315</v>
+        <v>38.5022344536278</v>
       </c>
     </row>
     <row r="29">
@@ -8812,79 +8812,79 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>23.1689167141796</v>
+        <v>23.0648424673854</v>
       </c>
       <c r="AU29" t="n">
         <v>2</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.0000000192611674638257</v>
+        <v>0.0000000190818850725109</v>
       </c>
       <c r="AW29" t="n">
         <v>2</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.000000000831203712685286</v>
+        <v>0.000000000827250817231601</v>
       </c>
       <c r="AY29" t="n">
         <v>2</v>
       </c>
       <c r="AZ29" t="n">
-        <v>0.000000000505174929436698</v>
+        <v>0.000000000504099247713358</v>
       </c>
       <c r="BA29" t="n">
         <v>2</v>
       </c>
       <c r="BB29" t="n">
-        <v>0.0000000000072340868631558</v>
+        <v>0.00000000000703553583087601</v>
       </c>
       <c r="BC29" t="n">
         <v>2</v>
       </c>
       <c r="BD29" t="n">
-        <v>35.2051844528791</v>
+        <v>35.1808830559913</v>
       </c>
       <c r="BE29" t="n">
         <v>2</v>
       </c>
       <c r="BF29" t="n">
-        <v>0.00000000056234188106015</v>
+        <v>0.000000000509081019191013</v>
       </c>
       <c r="BG29" t="n">
         <v>2</v>
       </c>
       <c r="BH29" t="n">
-        <v>21.9991151689121</v>
+        <v>22.0540677093792</v>
       </c>
       <c r="BI29" t="n">
         <v>2</v>
       </c>
       <c r="BJ29" t="n">
-        <v>0.0000000172322662866741</v>
+        <v>0.0000000155723625137919</v>
       </c>
       <c r="BK29" t="n">
         <v>2</v>
       </c>
       <c r="BL29" t="n">
-        <v>0.000000000782796152522692</v>
+        <v>0.000000000705349808109208</v>
       </c>
       <c r="BM29" t="n">
         <v>2</v>
       </c>
       <c r="BN29" t="n">
-        <v>0.00000000056234188106015</v>
+        <v>0.000000000509081019191013</v>
       </c>
       <c r="BO29" t="n">
         <v>2</v>
       </c>
       <c r="BP29" t="n">
-        <v>0.00000000000808452945979028</v>
+        <v>0.00000000000724518688259572</v>
       </c>
       <c r="BQ29" t="n">
         <v>2</v>
       </c>
       <c r="BR29" t="n">
-        <v>35.3141629961891</v>
+        <v>35.565599338931</v>
       </c>
       <c r="BS29" t="n">
         <v>2</v>
@@ -8959,7 +8959,7 @@
         <v>-63.0137804750701</v>
       </c>
       <c r="CQ29" t="n">
-        <v>44.4840762172624</v>
+        <v>38.3409865045191</v>
       </c>
     </row>
     <row r="30">
@@ -9099,79 +9099,79 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>23.1683593719157</v>
+        <v>23.0643593123919</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.0000000192656999915128</v>
+        <v>0.0000000190860440768299</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.000000000831417231426062</v>
+        <v>0.000000000827446516722043</v>
       </c>
       <c r="AY30" t="n">
         <v>2</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0.000000000505346987878794</v>
+        <v>0.000000000504262233200887</v>
       </c>
       <c r="BA30" t="n">
         <v>2</v>
       </c>
       <c r="BB30" t="n">
-        <v>0.00000000000723621812547937</v>
+        <v>0.00000000000703807642188502</v>
       </c>
       <c r="BC30" t="n">
         <v>2</v>
       </c>
       <c r="BD30" t="n">
-        <v>35.2067687857874</v>
+        <v>35.1823894825396</v>
       </c>
       <c r="BE30" t="n">
         <v>2</v>
       </c>
       <c r="BF30" t="n">
-        <v>0.000000000562527169882668</v>
+        <v>0.000000000509374421188594</v>
       </c>
       <c r="BG30" t="n">
         <v>2</v>
       </c>
       <c r="BH30" t="n">
-        <v>21.9994085657176</v>
+        <v>22.0541112255132</v>
       </c>
       <c r="BI30" t="n">
         <v>2</v>
       </c>
       <c r="BJ30" t="n">
-        <v>0.0000000172377390296467</v>
+        <v>0.0000000155808424832127</v>
       </c>
       <c r="BK30" t="n">
         <v>2</v>
       </c>
       <c r="BL30" t="n">
-        <v>0.000000000783032301872438</v>
+        <v>0.000000000705733290310343</v>
       </c>
       <c r="BM30" t="n">
         <v>2</v>
       </c>
       <c r="BN30" t="n">
-        <v>0.000000000562527169882668</v>
+        <v>0.000000000509374421188594</v>
       </c>
       <c r="BO30" t="n">
         <v>2</v>
       </c>
       <c r="BP30" t="n">
-        <v>0.00000000000808719808861341</v>
+        <v>0.00000000000724941812873127</v>
       </c>
       <c r="BQ30" t="n">
         <v>2</v>
       </c>
       <c r="BR30" t="n">
-        <v>35.316341437261</v>
+        <v>35.5671953168078</v>
       </c>
       <c r="BS30" t="n">
         <v>2</v>
@@ -9246,7 +9246,7 @@
         <v>-54.0147732348663</v>
       </c>
       <c r="CQ30" t="n">
-        <v>44.3332379325219</v>
+        <v>38.2192973479352</v>
       </c>
     </row>
     <row r="31">
@@ -9386,79 +9386,79 @@
         <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>23.1678020296536</v>
+        <v>23.0638761573999</v>
       </c>
       <c r="AU31" t="n">
         <v>2</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.0000000192702325191855</v>
+        <v>0.0000000190902030811357</v>
       </c>
       <c r="AW31" t="n">
         <v>2</v>
       </c>
       <c r="AX31" t="n">
-        <v>0.000000000831630750166158</v>
+        <v>0.000000000827642216211863</v>
       </c>
       <c r="AY31" t="n">
         <v>2</v>
       </c>
       <c r="AZ31" t="n">
-        <v>0.000000000505519046320344</v>
+        <v>0.000000000504425218687897</v>
       </c>
       <c r="BA31" t="n">
         <v>2</v>
       </c>
       <c r="BB31" t="n">
-        <v>0.00000000000723834938779617</v>
+        <v>0.00000000000704061701288595</v>
       </c>
       <c r="BC31" t="n">
         <v>2</v>
       </c>
       <c r="BD31" t="n">
-        <v>35.2083531186906</v>
+        <v>35.1838959090831</v>
       </c>
       <c r="BE31" t="n">
         <v>2</v>
       </c>
       <c r="BF31" t="n">
-        <v>0.000000000562712458704597</v>
+        <v>0.000000000509667823185243</v>
       </c>
       <c r="BG31" t="n">
         <v>2</v>
       </c>
       <c r="BH31" t="n">
-        <v>21.9997019625221</v>
+        <v>22.054154741647</v>
       </c>
       <c r="BI31" t="n">
         <v>2</v>
       </c>
       <c r="BJ31" t="n">
-        <v>0.0000000172432117726019</v>
+        <v>0.0000000155893224526066</v>
       </c>
       <c r="BK31" t="n">
         <v>2</v>
       </c>
       <c r="BL31" t="n">
-        <v>0.000000000783268451221434</v>
+        <v>0.000000000706116772510259</v>
       </c>
       <c r="BM31" t="n">
         <v>2</v>
       </c>
       <c r="BN31" t="n">
-        <v>0.000000000562712458704597</v>
+        <v>0.000000000509667823185243</v>
       </c>
       <c r="BO31" t="n">
         <v>2</v>
       </c>
       <c r="BP31" t="n">
-        <v>0.00000000000808986671742805</v>
+        <v>0.00000000000725364937485336</v>
       </c>
       <c r="BQ31" t="n">
         <v>2</v>
       </c>
       <c r="BR31" t="n">
-        <v>35.3185198783259</v>
+        <v>35.5687912946796</v>
       </c>
       <c r="BS31" t="n">
         <v>2</v>
@@ -9533,7 +9533,7 @@
         <v>-53.9713942409958</v>
       </c>
       <c r="CQ31" t="n">
-        <v>44.2730625641882</v>
+        <v>38.1757399511222</v>
       </c>
     </row>
     <row r="32">
@@ -9673,79 +9673,79 @@
         <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>23.1673561558407</v>
+        <v>23.0634896334036</v>
       </c>
       <c r="AU32" t="n">
         <v>2</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.0000000192738585413495</v>
+        <v>0.0000000190935302846041</v>
       </c>
       <c r="AW32" t="n">
         <v>2</v>
       </c>
       <c r="AX32" t="n">
-        <v>0.000000000831801565159457</v>
+        <v>0.000000000827798775804839</v>
       </c>
       <c r="AY32" t="n">
         <v>2</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0.000000000505656693074568</v>
+        <v>0.000000000504555607078438</v>
       </c>
       <c r="BA32" t="n">
         <v>2</v>
       </c>
       <c r="BB32" t="n">
-        <v>0.0000000000072400543976618</v>
+        <v>0.00000000000704264948570123</v>
       </c>
       <c r="BC32" t="n">
         <v>2</v>
       </c>
       <c r="BD32" t="n">
-        <v>35.2096205850223</v>
+        <v>35.1851010503265</v>
       </c>
       <c r="BE32" t="n">
         <v>2</v>
       </c>
       <c r="BF32" t="n">
-        <v>0.000000000562860689763201</v>
+        <v>0.000000000509902544784241</v>
       </c>
       <c r="BG32" t="n">
         <v>2</v>
       </c>
       <c r="BH32" t="n">
-        <v>21.9999366799674</v>
+        <v>22.0541895545544</v>
       </c>
       <c r="BI32" t="n">
         <v>2</v>
       </c>
       <c r="BJ32" t="n">
-        <v>0.0000000172475899669974</v>
+        <v>0.0000000155961064281702</v>
       </c>
       <c r="BK32" t="n">
         <v>2</v>
       </c>
       <c r="BL32" t="n">
-        <v>0.000000000783457370701982</v>
+        <v>0.000000000706423558272387</v>
       </c>
       <c r="BM32" t="n">
         <v>2</v>
       </c>
       <c r="BN32" t="n">
-        <v>0.000000000562860689763201</v>
+        <v>0.000000000509902544784241</v>
       </c>
       <c r="BO32" t="n">
         <v>2</v>
       </c>
       <c r="BP32" t="n">
-        <v>0.00000000000809200162049504</v>
+        <v>0.00000000000725703437177524</v>
       </c>
       <c r="BQ32" t="n">
         <v>2</v>
       </c>
       <c r="BR32" t="n">
-        <v>35.3202626311904</v>
+        <v>35.5700680769861</v>
       </c>
       <c r="BS32" t="n">
         <v>2</v>
@@ -9820,7 +9820,7 @@
         <v>-40.0574368056088</v>
       </c>
       <c r="CQ32" t="n">
-        <v>44.2209656387756</v>
+        <v>38.137473828837</v>
       </c>
     </row>
     <row r="33">
@@ -9960,79 +9960,79 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>23.1667988135768</v>
+        <v>23.0630064784101</v>
       </c>
       <c r="AU33" t="n">
         <v>2</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.0000000192783910690366</v>
+        <v>0.0000000190976892889231</v>
       </c>
       <c r="AW33" t="n">
         <v>2</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.000000000832015083900233</v>
+        <v>0.000000000827994475295281</v>
       </c>
       <c r="AY33" t="n">
         <v>2</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0.000000000505828751516664</v>
+        <v>0.000000000504718592565966</v>
       </c>
       <c r="BA33" t="n">
         <v>2</v>
       </c>
       <c r="BB33" t="n">
-        <v>0.00000000000724218565998537</v>
+        <v>0.00000000000704519007671024</v>
       </c>
       <c r="BC33" t="n">
         <v>2</v>
       </c>
       <c r="BD33" t="n">
-        <v>35.2112049179306</v>
+        <v>35.1866074768748</v>
       </c>
       <c r="BE33" t="n">
         <v>2</v>
       </c>
       <c r="BF33" t="n">
-        <v>0.000000000563045978585719</v>
+        <v>0.000000000510195946781823</v>
       </c>
       <c r="BG33" t="n">
         <v>2</v>
       </c>
       <c r="BH33" t="n">
-        <v>22.0002300767728</v>
+        <v>22.0542330706883</v>
       </c>
       <c r="BI33" t="n">
         <v>2</v>
       </c>
       <c r="BJ33" t="n">
-        <v>0.00000001725306270997</v>
+        <v>0.000000015604586397591</v>
       </c>
       <c r="BK33" t="n">
         <v>2</v>
       </c>
       <c r="BL33" t="n">
-        <v>0.000000000783693520051729</v>
+        <v>0.000000000706807040473522</v>
       </c>
       <c r="BM33" t="n">
         <v>2</v>
       </c>
       <c r="BN33" t="n">
-        <v>0.000000000563045978585719</v>
+        <v>0.000000000510195946781823</v>
       </c>
       <c r="BO33" t="n">
         <v>2</v>
       </c>
       <c r="BP33" t="n">
-        <v>0.00000000000809467024931817</v>
+        <v>0.00000000000726126561791079</v>
       </c>
       <c r="BQ33" t="n">
         <v>2</v>
       </c>
       <c r="BR33" t="n">
-        <v>35.3224410722622</v>
+        <v>35.5716640548629</v>
       </c>
       <c r="BS33" t="n">
         <v>2</v>
@@ -10107,7 +10107,7 @@
         <v>-38.7904605340518</v>
       </c>
       <c r="CQ33" t="n">
-        <v>42.8014682313491</v>
+        <v>36.9213201832399</v>
       </c>
     </row>
     <row r="34">
@@ -10247,79 +10247,79 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>23.166241471313</v>
+        <v>23.0625233234166</v>
       </c>
       <c r="AU34" t="n">
         <v>2</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.0000000192829235967237</v>
+        <v>0.0000000191018482932422</v>
       </c>
       <c r="AW34" t="n">
         <v>2</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.000000000832228602641008</v>
+        <v>0.000000000828190174785723</v>
       </c>
       <c r="AY34" t="n">
         <v>2</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0.00000000050600080995876</v>
+        <v>0.000000000504881578053495</v>
       </c>
       <c r="BA34" t="n">
         <v>2</v>
       </c>
       <c r="BB34" t="n">
-        <v>0.00000000000724431692230895</v>
+        <v>0.00000000000704773066771925</v>
       </c>
       <c r="BC34" t="n">
         <v>2</v>
       </c>
       <c r="BD34" t="n">
-        <v>35.2127892508389</v>
+        <v>35.188113903423</v>
       </c>
       <c r="BE34" t="n">
         <v>2</v>
       </c>
       <c r="BF34" t="n">
-        <v>0.000000000563231267408237</v>
+        <v>0.000000000510489348779404</v>
       </c>
       <c r="BG34" t="n">
         <v>2</v>
       </c>
       <c r="BH34" t="n">
-        <v>22.0005234735783</v>
+        <v>22.0542765868223</v>
       </c>
       <c r="BI34" t="n">
         <v>2</v>
       </c>
       <c r="BJ34" t="n">
-        <v>0.0000000172585354529426</v>
+        <v>0.0000000156130663670118</v>
       </c>
       <c r="BK34" t="n">
         <v>2</v>
       </c>
       <c r="BL34" t="n">
-        <v>0.000000000783929669401476</v>
+        <v>0.000000000707190522674657</v>
       </c>
       <c r="BM34" t="n">
         <v>2</v>
       </c>
       <c r="BN34" t="n">
-        <v>0.000000000563231267408237</v>
+        <v>0.000000000510489348779404</v>
       </c>
       <c r="BO34" t="n">
         <v>2</v>
       </c>
       <c r="BP34" t="n">
-        <v>0.0000000000080973388781413</v>
+        <v>0.00000000000726549686404633</v>
       </c>
       <c r="BQ34" t="n">
         <v>2</v>
       </c>
       <c r="BR34" t="n">
-        <v>35.3246195133341</v>
+        <v>35.5732600327397</v>
       </c>
       <c r="BS34" t="n">
         <v>2</v>
@@ -10394,7 +10394,7 @@
         <v>-29.2912809681177</v>
       </c>
       <c r="CQ34" t="n">
-        <v>42.5115109445588</v>
+        <v>36.6792174833402</v>
       </c>
     </row>
     <row r="35">
@@ -10534,79 +10534,79 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>23.1656841290509</v>
+        <v>23.0620401684247</v>
       </c>
       <c r="AU35" t="n">
         <v>2</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.0000000192874561243964</v>
+        <v>0.0000000191060072975479</v>
       </c>
       <c r="AW35" t="n">
         <v>2</v>
       </c>
       <c r="AX35" t="n">
-        <v>0.000000000832442121381105</v>
+        <v>0.000000000828385874275543</v>
       </c>
       <c r="AY35" t="n">
         <v>2</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0.000000000506172868400309</v>
+        <v>0.000000000505044563540505</v>
       </c>
       <c r="BA35" t="n">
         <v>2</v>
       </c>
       <c r="BB35" t="n">
-        <v>0.00000000000724644818462574</v>
+        <v>0.00000000000705027125872018</v>
       </c>
       <c r="BC35" t="n">
         <v>2</v>
       </c>
       <c r="BD35" t="n">
-        <v>35.2143735837422</v>
+        <v>35.1896203299665</v>
       </c>
       <c r="BE35" t="n">
         <v>2</v>
       </c>
       <c r="BF35" t="n">
-        <v>0.000000000563416556230166</v>
+        <v>0.000000000510782750776053</v>
       </c>
       <c r="BG35" t="n">
         <v>2</v>
       </c>
       <c r="BH35" t="n">
-        <v>22.0008168703828</v>
+        <v>22.0543201029562</v>
       </c>
       <c r="BI35" t="n">
         <v>2</v>
       </c>
       <c r="BJ35" t="n">
-        <v>0.0000000172640081958978</v>
+        <v>0.0000000156215463364056</v>
       </c>
       <c r="BK35" t="n">
         <v>2</v>
       </c>
       <c r="BL35" t="n">
-        <v>0.000000000784165818750472</v>
+        <v>0.000000000707574004874573</v>
       </c>
       <c r="BM35" t="n">
         <v>2</v>
       </c>
       <c r="BN35" t="n">
-        <v>0.000000000563416556230166</v>
+        <v>0.000000000510782750776053</v>
       </c>
       <c r="BO35" t="n">
         <v>2</v>
       </c>
       <c r="BP35" t="n">
-        <v>0.00000000000810000750695594</v>
+        <v>0.00000000000726972811016842</v>
       </c>
       <c r="BQ35" t="n">
         <v>2</v>
       </c>
       <c r="BR35" t="n">
-        <v>35.3267979543991</v>
+        <v>35.5748560106114</v>
       </c>
       <c r="BS35" t="n">
         <v>2</v>
@@ -10681,7 +10681,7 @@
         <v>-20.5589052675546</v>
       </c>
       <c r="CQ35" t="n">
-        <v>42.6204551963836</v>
+        <v>36.7812668709836</v>
       </c>
     </row>
     <row r="36">
@@ -10821,79 +10821,79 @@
         <v>2</v>
       </c>
       <c r="AT36" t="n">
-        <v>23.165238255238</v>
+        <v>23.0616536444284</v>
       </c>
       <c r="AU36" t="n">
         <v>2</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.0000000192910821465604</v>
+        <v>0.0000000191093345010164</v>
       </c>
       <c r="AW36" t="n">
         <v>2</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.000000000832612936374404</v>
+        <v>0.000000000828542433868519</v>
       </c>
       <c r="AY36" t="n">
         <v>2</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0.000000000506310515154533</v>
+        <v>0.000000000505174951931046</v>
       </c>
       <c r="BA36" t="n">
         <v>2</v>
       </c>
       <c r="BB36" t="n">
-        <v>0.00000000000724815319449137</v>
+        <v>0.00000000000705230373153546</v>
       </c>
       <c r="BC36" t="n">
         <v>2</v>
       </c>
       <c r="BD36" t="n">
-        <v>35.2156410500738</v>
+        <v>35.19082547121</v>
       </c>
       <c r="BE36" t="n">
         <v>2</v>
       </c>
       <c r="BF36" t="n">
-        <v>0.000000000563564787288769</v>
+        <v>0.000000000511017472375051</v>
       </c>
       <c r="BG36" t="n">
         <v>2</v>
       </c>
       <c r="BH36" t="n">
-        <v>22.0010515878281</v>
+        <v>22.0543549158635</v>
       </c>
       <c r="BI36" t="n">
         <v>2</v>
       </c>
       <c r="BJ36" t="n">
-        <v>0.0000000172683863902933</v>
+        <v>0.0000000156283303119692</v>
       </c>
       <c r="BK36" t="n">
         <v>2</v>
       </c>
       <c r="BL36" t="n">
-        <v>0.00000000078435473823102</v>
+        <v>0.0000000007078807906367</v>
       </c>
       <c r="BM36" t="n">
         <v>2</v>
       </c>
       <c r="BN36" t="n">
-        <v>0.000000000563564787288769</v>
+        <v>0.000000000511017472375051</v>
       </c>
       <c r="BO36" t="n">
         <v>2</v>
       </c>
       <c r="BP36" t="n">
-        <v>0.00000000000810214241002293</v>
+        <v>0.00000000000727311310709031</v>
       </c>
       <c r="BQ36" t="n">
         <v>2</v>
       </c>
       <c r="BR36" t="n">
-        <v>35.3285407072635</v>
+        <v>35.5761327929179</v>
       </c>
       <c r="BS36" t="n">
         <v>2</v>
@@ -10968,7 +10968,7 @@
         <v>-20.5651587609222</v>
       </c>
       <c r="CQ36" t="n">
-        <v>42.624854286282</v>
+        <v>36.7915133324932</v>
       </c>
     </row>
     <row r="37">
@@ -11108,79 +11108,79 @@
         <v>2</v>
       </c>
       <c r="AT37" t="n">
-        <v>23.1646809129741</v>
+        <v>23.0611704894349</v>
       </c>
       <c r="AU37" t="n">
         <v>2</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.0000000192956146742475</v>
+        <v>0.0000000191134935053354</v>
       </c>
       <c r="AW37" t="n">
         <v>2</v>
       </c>
       <c r="AX37" t="n">
-        <v>0.00000000083282645511518</v>
+        <v>0.000000000828738133358961</v>
       </c>
       <c r="AY37" t="n">
         <v>2</v>
       </c>
       <c r="AZ37" t="n">
-        <v>0.00000000050648257359663</v>
+        <v>0.000000000505337937418575</v>
       </c>
       <c r="BA37" t="n">
         <v>2</v>
       </c>
       <c r="BB37" t="n">
-        <v>0.00000000000725028445681495</v>
+        <v>0.00000000000705484432254447</v>
       </c>
       <c r="BC37" t="n">
         <v>2</v>
       </c>
       <c r="BD37" t="n">
-        <v>35.2172253829821</v>
+        <v>35.1923318977582</v>
       </c>
       <c r="BE37" t="n">
         <v>2</v>
       </c>
       <c r="BF37" t="n">
-        <v>0.000000000563750076111287</v>
+        <v>0.000000000511310874372632</v>
       </c>
       <c r="BG37" t="n">
         <v>2</v>
       </c>
       <c r="BH37" t="n">
-        <v>22.0013449846335</v>
+        <v>22.0543984319975</v>
       </c>
       <c r="BI37" t="n">
         <v>2</v>
       </c>
       <c r="BJ37" t="n">
-        <v>0.0000000172738591332659</v>
+        <v>0.00000001563681028139</v>
       </c>
       <c r="BK37" t="n">
         <v>2</v>
       </c>
       <c r="BL37" t="n">
-        <v>0.000000000784590887580766</v>
+        <v>0.000000000708264272837836</v>
       </c>
       <c r="BM37" t="n">
         <v>2</v>
       </c>
       <c r="BN37" t="n">
-        <v>0.000000000563750076111287</v>
+        <v>0.000000000511310874372632</v>
       </c>
       <c r="BO37" t="n">
         <v>2</v>
       </c>
       <c r="BP37" t="n">
-        <v>0.00000000000810481103884606</v>
+        <v>0.00000000000727734435322585</v>
       </c>
       <c r="BQ37" t="n">
         <v>2</v>
       </c>
       <c r="BR37" t="n">
-        <v>35.3307191483353</v>
+        <v>35.5777287707947</v>
       </c>
       <c r="BS37" t="n">
         <v>2</v>
@@ -11255,7 +11255,7 @@
         <v>-10.864286596947</v>
       </c>
       <c r="CQ37" t="n">
-        <v>42.7707500623177</v>
+        <v>36.9255432597099</v>
       </c>
     </row>
     <row r="38">
@@ -11395,79 +11395,79 @@
         <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>23.1641235707102</v>
+        <v>23.0606873344414</v>
       </c>
       <c r="AU38" t="n">
         <v>2</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.0000000193001472019346</v>
+        <v>0.0000000191176525096544</v>
       </c>
       <c r="AW38" t="n">
         <v>2</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.000000000833039973855955</v>
+        <v>0.000000000828933832849403</v>
       </c>
       <c r="AY38" t="n">
         <v>2</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0.000000000506654632038726</v>
+        <v>0.000000000505500922906103</v>
       </c>
       <c r="BA38" t="n">
         <v>2</v>
       </c>
       <c r="BB38" t="n">
-        <v>0.00000000000725241571913852</v>
+        <v>0.00000000000705738491355348</v>
       </c>
       <c r="BC38" t="n">
         <v>2</v>
       </c>
       <c r="BD38" t="n">
-        <v>35.2188097158905</v>
+        <v>35.1938383243065</v>
       </c>
       <c r="BE38" t="n">
         <v>2</v>
       </c>
       <c r="BF38" t="n">
-        <v>0.000000000563935364933806</v>
+        <v>0.000000000511604276370214</v>
       </c>
       <c r="BG38" t="n">
         <v>2</v>
       </c>
       <c r="BH38" t="n">
-        <v>22.001638381439</v>
+        <v>22.0544419481315</v>
       </c>
       <c r="BI38" t="n">
         <v>2</v>
       </c>
       <c r="BJ38" t="n">
-        <v>0.0000000172793318762385</v>
+        <v>0.0000000156452902508108</v>
       </c>
       <c r="BK38" t="n">
         <v>2</v>
       </c>
       <c r="BL38" t="n">
-        <v>0.000000000784827036930513</v>
+        <v>0.000000000708647755038971</v>
       </c>
       <c r="BM38" t="n">
         <v>2</v>
       </c>
       <c r="BN38" t="n">
-        <v>0.000000000563935364933806</v>
+        <v>0.000000000511604276370214</v>
       </c>
       <c r="BO38" t="n">
         <v>2</v>
       </c>
       <c r="BP38" t="n">
-        <v>0.00000000000810747966766919</v>
+        <v>0.00000000000728157559936139</v>
       </c>
       <c r="BQ38" t="n">
         <v>2</v>
       </c>
       <c r="BR38" t="n">
-        <v>35.3328975894072</v>
+        <v>35.5793247486715</v>
       </c>
       <c r="BS38" t="n">
         <v>2</v>
@@ -11542,7 +11542,7 @@
         <v>-10.8730250898443</v>
       </c>
       <c r="CQ38" t="n">
-        <v>42.8138848466584</v>
+        <v>36.970903115062</v>
       </c>
     </row>
     <row r="39">
@@ -11682,79 +11682,79 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>23.1635662284481</v>
+        <v>23.0602041794495</v>
       </c>
       <c r="AU39" t="n">
         <v>2</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.0000000193046797296073</v>
+        <v>0.0000000191218115139602</v>
       </c>
       <c r="AW39" t="n">
         <v>2</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.000000000833253492596052</v>
+        <v>0.000000000829129532339223</v>
       </c>
       <c r="AY39" t="n">
         <v>2</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0.000000000506826690480275</v>
+        <v>0.000000000505663908393113</v>
       </c>
       <c r="BA39" t="n">
         <v>2</v>
       </c>
       <c r="BB39" t="n">
-        <v>0.00000000000725454698145531</v>
+        <v>0.00000000000705992550455441</v>
       </c>
       <c r="BC39" t="n">
         <v>2</v>
       </c>
       <c r="BD39" t="n">
-        <v>35.2203940487937</v>
+        <v>35.19534475085</v>
       </c>
       <c r="BE39" t="n">
         <v>2</v>
       </c>
       <c r="BF39" t="n">
-        <v>0.000000000564120653755735</v>
+        <v>0.000000000511897678366862</v>
       </c>
       <c r="BG39" t="n">
         <v>2</v>
       </c>
       <c r="BH39" t="n">
-        <v>22.0019317782435</v>
+        <v>22.0544854642653</v>
       </c>
       <c r="BI39" t="n">
         <v>2</v>
       </c>
       <c r="BJ39" t="n">
-        <v>0.0000000172848046191937</v>
+        <v>0.0000000156537702202046</v>
       </c>
       <c r="BK39" t="n">
         <v>2</v>
       </c>
       <c r="BL39" t="n">
-        <v>0.000000000785063186279509</v>
+        <v>0.000000000709031237238887</v>
       </c>
       <c r="BM39" t="n">
         <v>2</v>
       </c>
       <c r="BN39" t="n">
-        <v>0.000000000564120653755735</v>
+        <v>0.000000000511897678366862</v>
       </c>
       <c r="BO39" t="n">
         <v>2</v>
       </c>
       <c r="BP39" t="n">
-        <v>0.00000000000811014829648383</v>
+        <v>0.00000000000728580684548349</v>
       </c>
       <c r="BQ39" t="n">
         <v>2</v>
       </c>
       <c r="BR39" t="n">
-        <v>35.3350760304722</v>
+        <v>35.5809207265432</v>
       </c>
       <c r="BS39" t="n">
         <v>2</v>
@@ -11829,7 +11829,7 @@
         <v>-5.20196793435268</v>
       </c>
       <c r="CQ39" t="n">
-        <v>42.869689873542</v>
+        <v>37.0272342860142</v>
       </c>
     </row>
     <row r="40">
@@ -11969,79 +11969,79 @@
         <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>23.1631203546352</v>
+        <v>23.0598176554531</v>
       </c>
       <c r="AU40" t="n">
         <v>2</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.0000000193083057517714</v>
+        <v>0.0000000191251387174286</v>
       </c>
       <c r="AW40" t="n">
         <v>2</v>
       </c>
       <c r="AX40" t="n">
-        <v>0.000000000833424307589351</v>
+        <v>0.000000000829286091932199</v>
       </c>
       <c r="AY40" t="n">
         <v>2</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0.000000000506964337234499</v>
+        <v>0.000000000505794296783654</v>
       </c>
       <c r="BA40" t="n">
         <v>2</v>
       </c>
       <c r="BB40" t="n">
-        <v>0.00000000000725625199132094</v>
+        <v>0.00000000000706195797736969</v>
       </c>
       <c r="BC40" t="n">
         <v>2</v>
       </c>
       <c r="BD40" t="n">
-        <v>35.2216615151254</v>
+        <v>35.1965498920934</v>
       </c>
       <c r="BE40" t="n">
         <v>2</v>
       </c>
       <c r="BF40" t="n">
-        <v>0.000000000564268884814338</v>
+        <v>0.00000000051213239996586</v>
       </c>
       <c r="BG40" t="n">
         <v>2</v>
       </c>
       <c r="BH40" t="n">
-        <v>22.0021664956888</v>
+        <v>22.0545202771726</v>
       </c>
       <c r="BI40" t="n">
         <v>2</v>
       </c>
       <c r="BJ40" t="n">
-        <v>0.0000000172891828135892</v>
+        <v>0.0000000156605541957682</v>
       </c>
       <c r="BK40" t="n">
         <v>2</v>
       </c>
       <c r="BL40" t="n">
-        <v>0.000000000785252105760057</v>
+        <v>0.000000000709338023001014</v>
       </c>
       <c r="BM40" t="n">
         <v>2</v>
       </c>
       <c r="BN40" t="n">
-        <v>0.000000000564268884814338</v>
+        <v>0.00000000051213239996586</v>
       </c>
       <c r="BO40" t="n">
         <v>2</v>
       </c>
       <c r="BP40" t="n">
-        <v>0.00000000000811228319955082</v>
+        <v>0.00000000000728919184240537</v>
       </c>
       <c r="BQ40" t="n">
         <v>2</v>
       </c>
       <c r="BR40" t="n">
-        <v>35.3368187833366</v>
+        <v>35.5821975088497</v>
       </c>
       <c r="BS40" t="n">
         <v>2</v>
@@ -12116,7 +12116,7 @@
         <v>-5.18406849163871</v>
       </c>
       <c r="CQ40" t="n">
-        <v>42.7652054935032</v>
+        <v>36.943495502518</v>
       </c>
     </row>
     <row r="41">
@@ -12256,79 +12256,79 @@
         <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>23.1625630123714</v>
+        <v>23.0593345004596</v>
       </c>
       <c r="AU41" t="n">
         <v>2</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.0000000193128382794584</v>
+        <v>0.0000000191292977217476</v>
       </c>
       <c r="AW41" t="n">
         <v>2</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.000000000833637826330127</v>
+        <v>0.000000000829481791422641</v>
       </c>
       <c r="AY41" t="n">
         <v>2</v>
       </c>
       <c r="AZ41" t="n">
-        <v>0.000000000507136395676595</v>
+        <v>0.000000000505957282271183</v>
       </c>
       <c r="BA41" t="n">
         <v>2</v>
       </c>
       <c r="BB41" t="n">
-        <v>0.00000000000725838325364452</v>
+        <v>0.0000000000070644985683787</v>
       </c>
       <c r="BC41" t="n">
         <v>2</v>
       </c>
       <c r="BD41" t="n">
-        <v>35.2232458480337</v>
+        <v>35.1980563186417</v>
       </c>
       <c r="BE41" t="n">
         <v>2</v>
       </c>
       <c r="BF41" t="n">
-        <v>0.000000000564454173636856</v>
+        <v>0.000000000512425801963442</v>
       </c>
       <c r="BG41" t="n">
         <v>2</v>
       </c>
       <c r="BH41" t="n">
-        <v>22.0024598924942</v>
+        <v>22.0545637933066</v>
       </c>
       <c r="BI41" t="n">
         <v>2</v>
       </c>
       <c r="BJ41" t="n">
-        <v>0.0000000172946555565618</v>
+        <v>0.000000015669034165189</v>
       </c>
       <c r="BK41" t="n">
         <v>2</v>
       </c>
       <c r="BL41" t="n">
-        <v>0.000000000785488255109804</v>
+        <v>0.00000000070972150520215</v>
       </c>
       <c r="BM41" t="n">
         <v>2</v>
       </c>
       <c r="BN41" t="n">
-        <v>0.000000000564454173636856</v>
+        <v>0.000000000512425801963442</v>
       </c>
       <c r="BO41" t="n">
         <v>2</v>
       </c>
       <c r="BP41" t="n">
-        <v>0.00000000000811495182837395</v>
+        <v>0.00000000000729342308854091</v>
       </c>
       <c r="BQ41" t="n">
         <v>2</v>
       </c>
       <c r="BR41" t="n">
-        <v>35.3389972244085</v>
+        <v>35.5837934867265</v>
       </c>
       <c r="BS41" t="n">
         <v>2</v>
@@ -12403,7 +12403,7 @@
         <v>-0.982987428021949</v>
       </c>
       <c r="CQ41" t="n">
-        <v>42.5046480990915</v>
+        <v>36.7265015647041</v>
       </c>
     </row>
     <row r="42">
@@ -12543,79 +12543,79 @@
         <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>23.1620056701075</v>
+        <v>23.0588513454662</v>
       </c>
       <c r="AU42" t="n">
         <v>2</v>
       </c>
       <c r="AV42" t="n">
-        <v>0.0000000193173708071455</v>
+        <v>0.0000000191334567260666</v>
       </c>
       <c r="AW42" t="n">
         <v>2</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.000000000833851345070902</v>
+        <v>0.000000000829677490913084</v>
       </c>
       <c r="AY42" t="n">
         <v>2</v>
       </c>
       <c r="AZ42" t="n">
-        <v>0.000000000507308454118692</v>
+        <v>0.000000000506120267758711</v>
       </c>
       <c r="BA42" t="n">
         <v>2</v>
       </c>
       <c r="BB42" t="n">
-        <v>0.00000000000726051451596809</v>
+        <v>0.0000000000070670391593877</v>
       </c>
       <c r="BC42" t="n">
         <v>2</v>
       </c>
       <c r="BD42" t="n">
-        <v>35.224830180942</v>
+        <v>35.19956274519</v>
       </c>
       <c r="BE42" t="n">
         <v>2</v>
       </c>
       <c r="BF42" t="n">
-        <v>0.000000000564639462459374</v>
+        <v>0.000000000512719203961023</v>
       </c>
       <c r="BG42" t="n">
         <v>2</v>
       </c>
       <c r="BH42" t="n">
-        <v>22.0027532892997</v>
+        <v>22.0546073094406</v>
       </c>
       <c r="BI42" t="n">
         <v>2</v>
       </c>
       <c r="BJ42" t="n">
-        <v>0.0000000173001282995344</v>
+        <v>0.0000000156775141346098</v>
       </c>
       <c r="BK42" t="n">
         <v>2</v>
       </c>
       <c r="BL42" t="n">
-        <v>0.00000000078572440445955</v>
+        <v>0.000000000710104987403285</v>
       </c>
       <c r="BM42" t="n">
         <v>2</v>
       </c>
       <c r="BN42" t="n">
-        <v>0.000000000564639462459374</v>
+        <v>0.000000000512719203961023</v>
       </c>
       <c r="BO42" t="n">
         <v>2</v>
       </c>
       <c r="BP42" t="n">
-        <v>0.00000000000811762045719708</v>
+        <v>0.00000000000729765433467646</v>
       </c>
       <c r="BQ42" t="n">
         <v>2</v>
       </c>
       <c r="BR42" t="n">
-        <v>35.3411756654803</v>
+        <v>35.5853894646033</v>
       </c>
       <c r="BS42" t="n">
         <v>2</v>
@@ -12690,7 +12690,7 @@
         <v>0.271546202441082</v>
       </c>
       <c r="CQ42" t="n">
-        <v>42.4206732441241</v>
+        <v>36.6620310819335</v>
       </c>
     </row>
     <row r="43">
@@ -12830,79 +12830,79 @@
         <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>23.1614483278454</v>
+        <v>23.0583681904742</v>
       </c>
       <c r="AU43" t="n">
         <v>2</v>
       </c>
       <c r="AV43" t="n">
-        <v>0.0000000193219033348182</v>
+        <v>0.0000000191376157303724</v>
       </c>
       <c r="AW43" t="n">
         <v>2</v>
       </c>
       <c r="AX43" t="n">
-        <v>0.000000000834064863810999</v>
+        <v>0.000000000829873190402904</v>
       </c>
       <c r="AY43" t="n">
         <v>2</v>
       </c>
       <c r="AZ43" t="n">
-        <v>0.000000000507480512560241</v>
+        <v>0.000000000506283253245722</v>
       </c>
       <c r="BA43" t="n">
         <v>2</v>
       </c>
       <c r="BB43" t="n">
-        <v>0.00000000000726264577828488</v>
+        <v>0.00000000000706957975038863</v>
       </c>
       <c r="BC43" t="n">
         <v>2</v>
       </c>
       <c r="BD43" t="n">
-        <v>35.2264145138453</v>
+        <v>35.2010691717335</v>
       </c>
       <c r="BE43" t="n">
         <v>2</v>
       </c>
       <c r="BF43" t="n">
-        <v>0.000000000564824751281303</v>
+        <v>0.000000000513012605957672</v>
       </c>
       <c r="BG43" t="n">
         <v>2</v>
       </c>
       <c r="BH43" t="n">
-        <v>22.0030466861042</v>
+        <v>22.0546508255745</v>
       </c>
       <c r="BI43" t="n">
         <v>2</v>
       </c>
       <c r="BJ43" t="n">
-        <v>0.0000000173056010424897</v>
+        <v>0.0000000156859941040037</v>
       </c>
       <c r="BK43" t="n">
         <v>2</v>
       </c>
       <c r="BL43" t="n">
-        <v>0.000000000785960553808546</v>
+        <v>0.000000000710488469603201</v>
       </c>
       <c r="BM43" t="n">
         <v>2</v>
       </c>
       <c r="BN43" t="n">
-        <v>0.000000000564824751281303</v>
+        <v>0.000000000513012605957672</v>
       </c>
       <c r="BO43" t="n">
         <v>2</v>
       </c>
       <c r="BP43" t="n">
-        <v>0.00000000000812028908601172</v>
+        <v>0.00000000000730188558079855</v>
       </c>
       <c r="BQ43" t="n">
         <v>2</v>
       </c>
       <c r="BR43" t="n">
-        <v>35.3433541065453</v>
+        <v>35.5869854424751</v>
       </c>
       <c r="BS43" t="n">
         <v>2</v>
@@ -12977,7 +12977,7 @@
         <v>0.281266387690989</v>
       </c>
       <c r="CQ43" t="n">
-        <v>42.2867373631196</v>
+        <v>36.55435167948</v>
       </c>
     </row>
     <row r="44">
@@ -13117,79 +13117,79 @@
         <v>2</v>
       </c>
       <c r="AT44" t="n">
-        <v>23.1610024540325</v>
+        <v>23.0579816664779</v>
       </c>
       <c r="AU44" t="n">
         <v>2</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.0000000193255293569823</v>
+        <v>0.0000000191409429338408</v>
       </c>
       <c r="AW44" t="n">
         <v>2</v>
       </c>
       <c r="AX44" t="n">
-        <v>0.000000000834235678804298</v>
+        <v>0.000000000830029749995879</v>
       </c>
       <c r="AY44" t="n">
         <v>2</v>
       </c>
       <c r="AZ44" t="n">
-        <v>0.000000000507618159314465</v>
+        <v>0.000000000506413641636262</v>
       </c>
       <c r="BA44" t="n">
         <v>2</v>
       </c>
       <c r="BB44" t="n">
-        <v>0.00000000000726435078815051</v>
+        <v>0.00000000000707161222320392</v>
       </c>
       <c r="BC44" t="n">
         <v>2</v>
       </c>
       <c r="BD44" t="n">
-        <v>35.2276819801769</v>
+        <v>35.2022743129769</v>
       </c>
       <c r="BE44" t="n">
         <v>2</v>
       </c>
       <c r="BF44" t="n">
-        <v>0.000000000564972982339907</v>
+        <v>0.00000000051324732755667</v>
       </c>
       <c r="BG44" t="n">
         <v>2</v>
       </c>
       <c r="BH44" t="n">
-        <v>22.0032814035495</v>
+        <v>22.0546856384818</v>
       </c>
       <c r="BI44" t="n">
         <v>2</v>
       </c>
       <c r="BJ44" t="n">
-        <v>0.0000000173099792368851</v>
+        <v>0.0000000156927780795673</v>
       </c>
       <c r="BK44" t="n">
         <v>2</v>
       </c>
       <c r="BL44" t="n">
-        <v>0.000000000786149473289094</v>
+        <v>0.000000000710795255365328</v>
       </c>
       <c r="BM44" t="n">
         <v>2</v>
       </c>
       <c r="BN44" t="n">
-        <v>0.000000000564972982339907</v>
+        <v>0.00000000051324732755667</v>
       </c>
       <c r="BO44" t="n">
         <v>2</v>
       </c>
       <c r="BP44" t="n">
-        <v>0.00000000000812242398907871</v>
+        <v>0.00000000000730527057772043</v>
       </c>
       <c r="BQ44" t="n">
         <v>2</v>
       </c>
       <c r="BR44" t="n">
-        <v>35.3450968594097</v>
+        <v>35.5882622247816</v>
       </c>
       <c r="BS44" t="n">
         <v>2</v>
@@ -13264,7 +13264,7 @@
         <v>2.41851203746344</v>
       </c>
       <c r="CQ44" t="n">
-        <v>42.295988882409</v>
+        <v>36.568818363784</v>
       </c>
     </row>
     <row r="45">
@@ -13404,79 +13404,79 @@
         <v>2</v>
       </c>
       <c r="AT45" t="n">
-        <v>23.1604451117686</v>
+        <v>23.0574985114844</v>
       </c>
       <c r="AU45" t="n">
         <v>2</v>
       </c>
       <c r="AV45" t="n">
-        <v>0.0000000193300618846694</v>
+        <v>0.0000000191451019381598</v>
       </c>
       <c r="AW45" t="n">
         <v>2</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.000000000834449197545073</v>
+        <v>0.000000000830225449486322</v>
       </c>
       <c r="AY45" t="n">
         <v>2</v>
       </c>
       <c r="AZ45" t="n">
-        <v>0.000000000507790217756561</v>
+        <v>0.000000000506576627123791</v>
       </c>
       <c r="BA45" t="n">
         <v>2</v>
       </c>
       <c r="BB45" t="n">
-        <v>0.00000000000726648205047409</v>
+        <v>0.00000000000707415281421292</v>
       </c>
       <c r="BC45" t="n">
         <v>2</v>
       </c>
       <c r="BD45" t="n">
-        <v>35.2292663130852</v>
+        <v>35.2037807395252</v>
       </c>
       <c r="BE45" t="n">
         <v>2</v>
       </c>
       <c r="BF45" t="n">
-        <v>0.000000000565158271162425</v>
+        <v>0.000000000513540729554252</v>
       </c>
       <c r="BG45" t="n">
         <v>2</v>
       </c>
       <c r="BH45" t="n">
-        <v>22.003574800355</v>
+        <v>22.0547291546158</v>
       </c>
       <c r="BI45" t="n">
         <v>2</v>
       </c>
       <c r="BJ45" t="n">
-        <v>0.0000000173154519798577</v>
+        <v>0.0000000157012580489881</v>
       </c>
       <c r="BK45" t="n">
         <v>2</v>
       </c>
       <c r="BL45" t="n">
-        <v>0.000000000786385622638841</v>
+        <v>0.000000000711178737566463</v>
       </c>
       <c r="BM45" t="n">
         <v>2</v>
       </c>
       <c r="BN45" t="n">
-        <v>0.000000000565158271162425</v>
+        <v>0.000000000513540729554252</v>
       </c>
       <c r="BO45" t="n">
         <v>2</v>
       </c>
       <c r="BP45" t="n">
-        <v>0.00000000000812509261790184</v>
+        <v>0.00000000000730950182385598</v>
       </c>
       <c r="BQ45" t="n">
         <v>2</v>
       </c>
       <c r="BR45" t="n">
-        <v>35.3472753004816</v>
+        <v>35.5898582026584</v>
       </c>
       <c r="BS45" t="n">
         <v>2</v>
@@ -13551,7 +13551,7 @@
         <v>2.43763761143301</v>
       </c>
       <c r="CQ45" t="n">
-        <v>42.4159717484555</v>
+        <v>36.680674620525</v>
       </c>
     </row>
     <row r="46">
@@ -13691,79 +13691,79 @@
         <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>23.1598877695065</v>
+        <v>23.0570153564925</v>
       </c>
       <c r="AU46" t="n">
         <v>2</v>
       </c>
       <c r="AV46" t="n">
-        <v>0.000000019334594412342</v>
+        <v>0.0000000191492609424656</v>
       </c>
       <c r="AW46" t="n">
         <v>2</v>
       </c>
       <c r="AX46" t="n">
-        <v>0.00000000083466271628517</v>
+        <v>0.000000000830421148976142</v>
       </c>
       <c r="AY46" t="n">
         <v>2</v>
       </c>
       <c r="AZ46" t="n">
-        <v>0.00000000050796227619811</v>
+        <v>0.000000000506739612610801</v>
       </c>
       <c r="BA46" t="n">
         <v>2</v>
       </c>
       <c r="BB46" t="n">
-        <v>0.00000000000726861331279088</v>
+        <v>0.00000000000707669340521385</v>
       </c>
       <c r="BC46" t="n">
         <v>2</v>
       </c>
       <c r="BD46" t="n">
-        <v>35.2308506459885</v>
+        <v>35.2052871660687</v>
       </c>
       <c r="BE46" t="n">
         <v>2</v>
       </c>
       <c r="BF46" t="n">
-        <v>0.000000000565343559984354</v>
+        <v>0.0000000005138341315509</v>
       </c>
       <c r="BG46" t="n">
         <v>2</v>
       </c>
       <c r="BH46" t="n">
-        <v>22.0038681971595</v>
+        <v>22.0547726707496</v>
       </c>
       <c r="BI46" t="n">
         <v>2</v>
       </c>
       <c r="BJ46" t="n">
-        <v>0.000000017320924722813</v>
+        <v>0.0000000157097380183819</v>
       </c>
       <c r="BK46" t="n">
         <v>2</v>
       </c>
       <c r="BL46" t="n">
-        <v>0.000000000786621771987837</v>
+        <v>0.00000000071156221976638</v>
       </c>
       <c r="BM46" t="n">
         <v>2</v>
       </c>
       <c r="BN46" t="n">
-        <v>0.000000000565343559984354</v>
+        <v>0.0000000005138341315509</v>
       </c>
       <c r="BO46" t="n">
         <v>2</v>
       </c>
       <c r="BP46" t="n">
-        <v>0.00000000000812776124671648</v>
+        <v>0.00000000000731373306997807</v>
       </c>
       <c r="BQ46" t="n">
         <v>2</v>
       </c>
       <c r="BR46" t="n">
-        <v>35.3494537415465</v>
+        <v>35.5914541805301</v>
       </c>
       <c r="BS46" t="n">
         <v>2</v>
@@ -13838,7 +13838,7 @@
         <v>3.79872998391112</v>
       </c>
       <c r="CQ46" t="n">
-        <v>42.4056225858989</v>
+        <v>36.6798542564003</v>
       </c>
     </row>
     <row r="47">
@@ -13978,79 +13978,79 @@
         <v>2</v>
       </c>
       <c r="AT47" t="n">
-        <v>23.1594418956936</v>
+        <v>23.0566288324961</v>
       </c>
       <c r="AU47" t="n">
         <v>2</v>
       </c>
       <c r="AV47" t="n">
-        <v>0.0000000193382204345061</v>
+        <v>0.000000019152588145934</v>
       </c>
       <c r="AW47" t="n">
         <v>2</v>
       </c>
       <c r="AX47" t="n">
-        <v>0.000000000834833531278469</v>
+        <v>0.000000000830577708569117</v>
       </c>
       <c r="AY47" t="n">
         <v>2</v>
       </c>
       <c r="AZ47" t="n">
-        <v>0.000000000508099922952334</v>
+        <v>0.000000000506870001001342</v>
       </c>
       <c r="BA47" t="n">
         <v>2</v>
       </c>
       <c r="BB47" t="n">
-        <v>0.00000000000727031832265651</v>
+        <v>0.00000000000707872587802914</v>
       </c>
       <c r="BC47" t="n">
         <v>2</v>
       </c>
       <c r="BD47" t="n">
-        <v>35.2321181123202</v>
+        <v>35.2064923073121</v>
       </c>
       <c r="BE47" t="n">
         <v>2</v>
       </c>
       <c r="BF47" t="n">
-        <v>0.000000000565491791042957</v>
+        <v>0.000000000514068853149898</v>
       </c>
       <c r="BG47" t="n">
         <v>2</v>
       </c>
       <c r="BH47" t="n">
-        <v>22.0041029146048</v>
+        <v>22.054807483657</v>
       </c>
       <c r="BI47" t="n">
         <v>2</v>
       </c>
       <c r="BJ47" t="n">
-        <v>0.0000000173253029172084</v>
+        <v>0.0000000157165219939455</v>
       </c>
       <c r="BK47" t="n">
         <v>2</v>
       </c>
       <c r="BL47" t="n">
-        <v>0.000000000786810691468385</v>
+        <v>0.000000000711869005528507</v>
       </c>
       <c r="BM47" t="n">
         <v>2</v>
       </c>
       <c r="BN47" t="n">
-        <v>0.000000000565491791042957</v>
+        <v>0.000000000514068853149898</v>
       </c>
       <c r="BO47" t="n">
         <v>2</v>
       </c>
       <c r="BP47" t="n">
-        <v>0.00000000000812989614978347</v>
+        <v>0.00000000000731711806689995</v>
       </c>
       <c r="BQ47" t="n">
         <v>2</v>
       </c>
       <c r="BR47" t="n">
-        <v>35.351196494411</v>
+        <v>35.5927309628366</v>
       </c>
       <c r="BS47" t="n">
         <v>2</v>
@@ -14125,7 +14125,7 @@
         <v>3.74250718743205</v>
       </c>
       <c r="CQ47" t="n">
-        <v>42.3309252522982</v>
+        <v>36.6217432184122</v>
       </c>
     </row>
     <row r="48">
@@ -14265,79 +14265,79 @@
         <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>23.1588845534298</v>
+        <v>23.0561456775026</v>
       </c>
       <c r="AU48" t="n">
         <v>2</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.0000000193427529621932</v>
+        <v>0.0000000191567471502531</v>
       </c>
       <c r="AW48" t="n">
         <v>2</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.000000000835047050019245</v>
+        <v>0.00000000083077340805956</v>
       </c>
       <c r="AY48" t="n">
         <v>2</v>
       </c>
       <c r="AZ48" t="n">
-        <v>0.00000000050827198139443</v>
+        <v>0.000000000507032986488871</v>
       </c>
       <c r="BA48" t="n">
         <v>2</v>
       </c>
       <c r="BB48" t="n">
-        <v>0.00000000000727244958498009</v>
+        <v>0.00000000000708126646903814</v>
       </c>
       <c r="BC48" t="n">
         <v>2</v>
       </c>
       <c r="BD48" t="n">
-        <v>35.2337024452285</v>
+        <v>35.2079987338604</v>
       </c>
       <c r="BE48" t="n">
         <v>2</v>
       </c>
       <c r="BF48" t="n">
-        <v>0.000000000565677079865475</v>
+        <v>0.00000000051436225514748</v>
       </c>
       <c r="BG48" t="n">
         <v>2</v>
       </c>
       <c r="BH48" t="n">
-        <v>22.0043963114102</v>
+        <v>22.0548509997909</v>
       </c>
       <c r="BI48" t="n">
         <v>2</v>
       </c>
       <c r="BJ48" t="n">
-        <v>0.000000017330775660181</v>
+        <v>0.0000000157250019633663</v>
       </c>
       <c r="BK48" t="n">
         <v>2</v>
       </c>
       <c r="BL48" t="n">
-        <v>0.000000000787046840818132</v>
+        <v>0.000000000712252487729642</v>
       </c>
       <c r="BM48" t="n">
         <v>2</v>
       </c>
       <c r="BN48" t="n">
-        <v>0.000000000565677079865475</v>
+        <v>0.00000000051436225514748</v>
       </c>
       <c r="BO48" t="n">
         <v>2</v>
       </c>
       <c r="BP48" t="n">
-        <v>0.0000000000081325647786066</v>
+        <v>0.0000000000073213493130355</v>
       </c>
       <c r="BQ48" t="n">
         <v>2</v>
       </c>
       <c r="BR48" t="n">
-        <v>35.3533749354828</v>
+        <v>35.5943269407134</v>
       </c>
       <c r="BS48" t="n">
         <v>2</v>
@@ -14412,7 +14412,7 @@
         <v>3.74364924774537</v>
       </c>
       <c r="CQ48" t="n">
-        <v>42.1941756481958</v>
+        <v>36.5115466378118</v>
       </c>
     </row>
     <row r="49">
@@ -14552,79 +14552,79 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>23.1583272111659</v>
+        <v>23.0556625225092</v>
       </c>
       <c r="AU49" t="n">
         <v>2</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.0000000193472854898803</v>
+        <v>0.0000000191609061545721</v>
       </c>
       <c r="AW49" t="n">
         <v>2</v>
       </c>
       <c r="AX49" t="n">
-        <v>0.00000000083526056876002</v>
+        <v>0.000000000830969107550002</v>
       </c>
       <c r="AY49" t="n">
         <v>2</v>
       </c>
       <c r="AZ49" t="n">
-        <v>0.000000000508444039836527</v>
+        <v>0.000000000507195971976399</v>
       </c>
       <c r="BA49" t="n">
         <v>2</v>
       </c>
       <c r="BB49" t="n">
-        <v>0.00000000000727458084730366</v>
+        <v>0.00000000000708380706004715</v>
       </c>
       <c r="BC49" t="n">
         <v>2</v>
       </c>
       <c r="BD49" t="n">
-        <v>35.2352867781368</v>
+        <v>35.2095051604087</v>
       </c>
       <c r="BE49" t="n">
         <v>2</v>
       </c>
       <c r="BF49" t="n">
-        <v>0.000000000565862368687993</v>
+        <v>0.000000000514655657145061</v>
       </c>
       <c r="BG49" t="n">
         <v>2</v>
       </c>
       <c r="BH49" t="n">
-        <v>22.0046897082157</v>
+        <v>22.0548945159249</v>
       </c>
       <c r="BI49" t="n">
         <v>2</v>
       </c>
       <c r="BJ49" t="n">
-        <v>0.0000000173362484031536</v>
+        <v>0.0000000157334819327871</v>
       </c>
       <c r="BK49" t="n">
         <v>2</v>
       </c>
       <c r="BL49" t="n">
-        <v>0.000000000787282990167878</v>
+        <v>0.000000000712635969930777</v>
       </c>
       <c r="BM49" t="n">
         <v>2</v>
       </c>
       <c r="BN49" t="n">
-        <v>0.000000000565862368687993</v>
+        <v>0.000000000514655657145061</v>
       </c>
       <c r="BO49" t="n">
         <v>2</v>
       </c>
       <c r="BP49" t="n">
-        <v>0.00000000000813523340742973</v>
+        <v>0.00000000000732558055917104</v>
       </c>
       <c r="BQ49" t="n">
         <v>2</v>
       </c>
       <c r="BR49" t="n">
-        <v>35.3555533765547</v>
+        <v>35.5959229185902</v>
       </c>
       <c r="BS49" t="n">
         <v>2</v>
@@ -14699,7 +14699,7 @@
         <v>3.6936620881182</v>
       </c>
       <c r="CQ49" t="n">
-        <v>42.0436020869507</v>
+        <v>36.3893441422938</v>
       </c>
     </row>
     <row r="50">
@@ -14839,79 +14839,79 @@
         <v>2</v>
       </c>
       <c r="AT50" t="n">
-        <v>23.1577698689038</v>
+        <v>23.0551793675172</v>
       </c>
       <c r="AU50" t="n">
         <v>2</v>
       </c>
       <c r="AV50" t="n">
-        <v>0.0000000193518180175529</v>
+        <v>0.0000000191650651588778</v>
       </c>
       <c r="AW50" t="n">
         <v>2</v>
       </c>
       <c r="AX50" t="n">
-        <v>0.000000000835474087500117</v>
+        <v>0.000000000831164807039822</v>
       </c>
       <c r="AY50" t="n">
         <v>2</v>
       </c>
       <c r="AZ50" t="n">
-        <v>0.000000000508616098278076</v>
+        <v>0.000000000507358957463409</v>
       </c>
       <c r="BA50" t="n">
         <v>2</v>
       </c>
       <c r="BB50" t="n">
-        <v>0.00000000000727671210962045</v>
+        <v>0.00000000000708634765104808</v>
       </c>
       <c r="BC50" t="n">
         <v>2</v>
       </c>
       <c r="BD50" t="n">
-        <v>35.2368711110401</v>
+        <v>35.2110115869522</v>
       </c>
       <c r="BE50" t="n">
         <v>2</v>
       </c>
       <c r="BF50" t="n">
-        <v>0.000000000566047657509923</v>
+        <v>0.00000000051494905914171</v>
       </c>
       <c r="BG50" t="n">
         <v>2</v>
       </c>
       <c r="BH50" t="n">
-        <v>22.0049831050202</v>
+        <v>22.0549380320588</v>
       </c>
       <c r="BI50" t="n">
         <v>2</v>
       </c>
       <c r="BJ50" t="n">
-        <v>0.0000000173417211461089</v>
+        <v>0.0000000157419619021809</v>
       </c>
       <c r="BK50" t="n">
         <v>2</v>
       </c>
       <c r="BL50" t="n">
-        <v>0.000000000787519139516874</v>
+        <v>0.000000000713019452130694</v>
       </c>
       <c r="BM50" t="n">
         <v>2</v>
       </c>
       <c r="BN50" t="n">
-        <v>0.000000000566047657509923</v>
+        <v>0.00000000051494905914171</v>
       </c>
       <c r="BO50" t="n">
         <v>2</v>
       </c>
       <c r="BP50" t="n">
-        <v>0.00000000000813790203624437</v>
+        <v>0.00000000000732981180529313</v>
       </c>
       <c r="BQ50" t="n">
         <v>2</v>
       </c>
       <c r="BR50" t="n">
-        <v>35.3577318176196</v>
+        <v>35.5975188964619</v>
       </c>
       <c r="BS50" t="n">
         <v>2</v>
@@ -14986,7 +14986,7 @@
         <v>3.6970978813372</v>
       </c>
       <c r="CQ50" t="n">
-        <v>41.9330035026978</v>
+        <v>36.3017017747243</v>
       </c>
     </row>
     <row r="51">
@@ -15126,79 +15126,79 @@
         <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>23.1573239950909</v>
+        <v>23.0547928435209</v>
       </c>
       <c r="AU51" t="n">
         <v>2</v>
       </c>
       <c r="AV51" t="n">
-        <v>0.000000019355444039717</v>
+        <v>0.0000000191683923623463</v>
       </c>
       <c r="AW51" t="n">
         <v>2</v>
       </c>
       <c r="AX51" t="n">
-        <v>0.000000000835644902493416</v>
+        <v>0.000000000831321366632798</v>
       </c>
       <c r="AY51" t="n">
         <v>2</v>
       </c>
       <c r="AZ51" t="n">
-        <v>0.0000000005087537450323</v>
+        <v>0.00000000050748934585395</v>
       </c>
       <c r="BA51" t="n">
         <v>2</v>
       </c>
       <c r="BB51" t="n">
-        <v>0.00000000000727841711948608</v>
+        <v>0.00000000000708838012386336</v>
       </c>
       <c r="BC51" t="n">
         <v>2</v>
       </c>
       <c r="BD51" t="n">
-        <v>35.2381385773717</v>
+        <v>35.2122167281956</v>
       </c>
       <c r="BE51" t="n">
         <v>2</v>
       </c>
       <c r="BF51" t="n">
-        <v>0.000000000566195888568526</v>
+        <v>0.000000000515183780740708</v>
       </c>
       <c r="BG51" t="n">
         <v>2</v>
       </c>
       <c r="BH51" t="n">
-        <v>22.0052178224655</v>
+        <v>22.0549728449661</v>
       </c>
       <c r="BI51" t="n">
         <v>2</v>
       </c>
       <c r="BJ51" t="n">
-        <v>0.0000000173460993405043</v>
+        <v>0.0000000157487458777445</v>
       </c>
       <c r="BK51" t="n">
         <v>2</v>
       </c>
       <c r="BL51" t="n">
-        <v>0.000000000787708058997422</v>
+        <v>0.000000000713326237892821</v>
       </c>
       <c r="BM51" t="n">
         <v>2</v>
       </c>
       <c r="BN51" t="n">
-        <v>0.000000000566195888568526</v>
+        <v>0.000000000515183780740708</v>
       </c>
       <c r="BO51" t="n">
         <v>2</v>
       </c>
       <c r="BP51" t="n">
-        <v>0.00000000000814003693931136</v>
+        <v>0.00000000000733319680221502</v>
       </c>
       <c r="BQ51" t="n">
         <v>2</v>
       </c>
       <c r="BR51" t="n">
-        <v>35.3594745704841</v>
+        <v>35.5987956787684</v>
       </c>
       <c r="BS51" t="n">
         <v>2</v>
@@ -15273,7 +15273,7 @@
         <v>3.34248729069318</v>
       </c>
       <c r="CQ51" t="n">
-        <v>41.6875456248137</v>
+        <v>36.0956433554974</v>
       </c>
     </row>
     <row r="52">
@@ -15413,79 +15413,79 @@
         <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>23.156766652827</v>
+        <v>23.0543096885274</v>
       </c>
       <c r="AU52" t="n">
         <v>2</v>
       </c>
       <c r="AV52" t="n">
-        <v>0.0000000193599765674041</v>
+        <v>0.0000000191725513666653</v>
       </c>
       <c r="AW52" t="n">
         <v>2</v>
       </c>
       <c r="AX52" t="n">
-        <v>0.000000000835858421234191</v>
+        <v>0.00000000083151706612324</v>
       </c>
       <c r="AY52" t="n">
         <v>2</v>
       </c>
       <c r="AZ52" t="n">
-        <v>0.000000000508925803474396</v>
+        <v>0.000000000507652331341479</v>
       </c>
       <c r="BA52" t="n">
         <v>2</v>
       </c>
       <c r="BB52" t="n">
-        <v>0.00000000000728054838180966</v>
+        <v>0.00000000000709092071487237</v>
       </c>
       <c r="BC52" t="n">
         <v>2</v>
       </c>
       <c r="BD52" t="n">
-        <v>35.23972291028</v>
+        <v>35.2137231547439</v>
       </c>
       <c r="BE52" t="n">
         <v>2</v>
       </c>
       <c r="BF52" t="n">
-        <v>0.000000000566381177391044</v>
+        <v>0.00000000051547718273829</v>
       </c>
       <c r="BG52" t="n">
         <v>2</v>
       </c>
       <c r="BH52" t="n">
-        <v>22.0055112192709</v>
+        <v>22.0550163611001</v>
       </c>
       <c r="BI52" t="n">
         <v>2</v>
       </c>
       <c r="BJ52" t="n">
-        <v>0.0000000173515720834769</v>
+        <v>0.0000000157572258471653</v>
       </c>
       <c r="BK52" t="n">
         <v>2</v>
       </c>
       <c r="BL52" t="n">
-        <v>0.000000000787944208347169</v>
+        <v>0.000000000713709720093956</v>
       </c>
       <c r="BM52" t="n">
         <v>2</v>
       </c>
       <c r="BN52" t="n">
-        <v>0.000000000566381177391044</v>
+        <v>0.00000000051547718273829</v>
       </c>
       <c r="BO52" t="n">
         <v>2</v>
       </c>
       <c r="BP52" t="n">
-        <v>0.00000000000814270556813449</v>
+        <v>0.00000000000733742804835056</v>
       </c>
       <c r="BQ52" t="n">
         <v>2</v>
       </c>
       <c r="BR52" t="n">
-        <v>35.3616530115559</v>
+        <v>35.6003916566452</v>
       </c>
       <c r="BS52" t="n">
         <v>2</v>
@@ -15560,7 +15560,7 @@
         <v>3.4884077796726</v>
       </c>
       <c r="CQ52" t="n">
-        <v>41.7388506698901</v>
+        <v>36.1481319286365</v>
       </c>
     </row>
     <row r="53">
@@ -15700,79 +15700,79 @@
         <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>23.1562093105631</v>
+        <v>23.0538265335339</v>
       </c>
       <c r="AU53" t="n">
         <v>2</v>
       </c>
       <c r="AV53" t="n">
-        <v>0.0000000193645090950912</v>
+        <v>0.0000000191767103709843</v>
       </c>
       <c r="AW53" t="n">
         <v>2</v>
       </c>
       <c r="AX53" t="n">
-        <v>0.000000000836071939974967</v>
+        <v>0.000000000831712765613682</v>
       </c>
       <c r="AY53" t="n">
         <v>2</v>
       </c>
       <c r="AZ53" t="n">
-        <v>0.000000000509097861916492</v>
+        <v>0.000000000507815316829007</v>
       </c>
       <c r="BA53" t="n">
         <v>2</v>
       </c>
       <c r="BB53" t="n">
-        <v>0.00000000000728267964413323</v>
+        <v>0.00000000000709346130588138</v>
       </c>
       <c r="BC53" t="n">
         <v>2</v>
       </c>
       <c r="BD53" t="n">
-        <v>35.2413072431883</v>
+        <v>35.2152295812922</v>
       </c>
       <c r="BE53" t="n">
         <v>2</v>
       </c>
       <c r="BF53" t="n">
-        <v>0.000000000566566466213562</v>
+        <v>0.000000000515770584735871</v>
       </c>
       <c r="BG53" t="n">
         <v>2</v>
       </c>
       <c r="BH53" t="n">
-        <v>22.0058046160764</v>
+        <v>22.0550598772341</v>
       </c>
       <c r="BI53" t="n">
         <v>2</v>
       </c>
       <c r="BJ53" t="n">
-        <v>0.0000000173570448264496</v>
+        <v>0.0000000157657058165861</v>
       </c>
       <c r="BK53" t="n">
         <v>2</v>
       </c>
       <c r="BL53" t="n">
-        <v>0.000000000788180357696916</v>
+        <v>0.000000000714093202295091</v>
       </c>
       <c r="BM53" t="n">
         <v>2</v>
       </c>
       <c r="BN53" t="n">
-        <v>0.000000000566566466213562</v>
+        <v>0.000000000515770584735871</v>
       </c>
       <c r="BO53" t="n">
         <v>2</v>
       </c>
       <c r="BP53" t="n">
-        <v>0.00000000000814537419695762</v>
+        <v>0.0000000000073416592944861</v>
       </c>
       <c r="BQ53" t="n">
         <v>2</v>
       </c>
       <c r="BR53" t="n">
-        <v>35.3638314526278</v>
+        <v>35.601987634522</v>
       </c>
       <c r="BS53" t="n">
         <v>2</v>
@@ -15847,7 +15847,7 @@
         <v>3.51202440046374</v>
       </c>
       <c r="CQ53" t="n">
-        <v>41.8656184851209</v>
+        <v>36.2660213355657</v>
       </c>
     </row>
     <row r="54">
@@ -15987,79 +15987,79 @@
         <v>2</v>
       </c>
       <c r="AT54" t="n">
-        <v>23.155651968301</v>
+        <v>23.053343378542</v>
       </c>
       <c r="AU54" t="n">
         <v>2</v>
       </c>
       <c r="AV54" t="n">
-        <v>0.0000000193690416227639</v>
+        <v>0.0000000191808693752901</v>
       </c>
       <c r="AW54" t="n">
         <v>2</v>
       </c>
       <c r="AX54" t="n">
-        <v>0.000000000836285458715064</v>
+        <v>0.000000000831908465103502</v>
       </c>
       <c r="AY54" t="n">
         <v>2</v>
       </c>
       <c r="AZ54" t="n">
-        <v>0.000000000509269920358042</v>
+        <v>0.000000000507978302316018</v>
       </c>
       <c r="BA54" t="n">
         <v>2</v>
       </c>
       <c r="BB54" t="n">
-        <v>0.00000000000728481090645002</v>
+        <v>0.00000000000709600189688231</v>
       </c>
       <c r="BC54" t="n">
         <v>2</v>
       </c>
       <c r="BD54" t="n">
-        <v>35.2428915760916</v>
+        <v>35.2167360078356</v>
       </c>
       <c r="BE54" t="n">
         <v>2</v>
       </c>
       <c r="BF54" t="n">
-        <v>0.000000000566751755035491</v>
+        <v>0.00000000051606398673252</v>
       </c>
       <c r="BG54" t="n">
         <v>2</v>
       </c>
       <c r="BH54" t="n">
-        <v>22.0060980128809</v>
+        <v>22.0551033933679</v>
       </c>
       <c r="BI54" t="n">
         <v>2</v>
       </c>
       <c r="BJ54" t="n">
-        <v>0.0000000173625175694048</v>
+        <v>0.00000001577418578598</v>
       </c>
       <c r="BK54" t="n">
         <v>2</v>
       </c>
       <c r="BL54" t="n">
-        <v>0.000000000788416507045912</v>
+        <v>0.000000000714476684495007</v>
       </c>
       <c r="BM54" t="n">
         <v>2</v>
       </c>
       <c r="BN54" t="n">
-        <v>0.000000000566751755035491</v>
+        <v>0.00000000051606398673252</v>
       </c>
       <c r="BO54" t="n">
         <v>2</v>
       </c>
       <c r="BP54" t="n">
-        <v>0.00000000000814804282577226</v>
+        <v>0.00000000000734589054060819</v>
       </c>
       <c r="BQ54" t="n">
         <v>2</v>
       </c>
       <c r="BR54" t="n">
-        <v>35.3660098936928</v>
+        <v>35.6035836123938</v>
       </c>
       <c r="BS54" t="n">
         <v>2</v>
@@ -16134,7 +16134,7 @@
         <v>3.15545368800036</v>
       </c>
       <c r="CQ54" t="n">
-        <v>41.7460310456361</v>
+        <v>36.1705188302687</v>
       </c>
     </row>
     <row r="55">
@@ -16274,79 +16274,79 @@
         <v>2</v>
       </c>
       <c r="AT55" t="n">
-        <v>23.1552060944882</v>
+        <v>23.0529568545456</v>
       </c>
       <c r="AU55" t="n">
         <v>2</v>
       </c>
       <c r="AV55" t="n">
-        <v>0.0000000193726676449279</v>
+        <v>0.0000000191841965787585</v>
       </c>
       <c r="AW55" t="n">
         <v>2</v>
       </c>
       <c r="AX55" t="n">
-        <v>0.000000000836456273708363</v>
+        <v>0.000000000832065024696478</v>
       </c>
       <c r="AY55" t="n">
         <v>2</v>
       </c>
       <c r="AZ55" t="n">
-        <v>0.000000000509407567112266</v>
+        <v>0.000000000508108690706559</v>
       </c>
       <c r="BA55" t="n">
         <v>2</v>
       </c>
       <c r="BB55" t="n">
-        <v>0.00000000000728651591631565</v>
+        <v>0.00000000000709803436969759</v>
       </c>
       <c r="BC55" t="n">
         <v>2</v>
       </c>
       <c r="BD55" t="n">
-        <v>35.2441590424233</v>
+        <v>35.2179411490791</v>
       </c>
       <c r="BE55" t="n">
         <v>2</v>
       </c>
       <c r="BF55" t="n">
-        <v>0.000000000566899986094095</v>
+        <v>0.000000000516298708331518</v>
       </c>
       <c r="BG55" t="n">
         <v>2</v>
       </c>
       <c r="BH55" t="n">
-        <v>22.0063327303262</v>
+        <v>22.0551382062752</v>
       </c>
       <c r="BI55" t="n">
         <v>2</v>
       </c>
       <c r="BJ55" t="n">
-        <v>0.0000000173668957638002</v>
+        <v>0.0000000157809697615436</v>
       </c>
       <c r="BK55" t="n">
         <v>2</v>
       </c>
       <c r="BL55" t="n">
-        <v>0.00000000078860542652646</v>
+        <v>0.000000000714783470257135</v>
       </c>
       <c r="BM55" t="n">
         <v>2</v>
       </c>
       <c r="BN55" t="n">
-        <v>0.000000000566899986094095</v>
+        <v>0.000000000516298708331518</v>
       </c>
       <c r="BO55" t="n">
         <v>2</v>
       </c>
       <c r="BP55" t="n">
-        <v>0.00000000000815017772883925</v>
+        <v>0.00000000000734927553753008</v>
       </c>
       <c r="BQ55" t="n">
         <v>2</v>
       </c>
       <c r="BR55" t="n">
-        <v>35.3677526465572</v>
+        <v>35.6048603947003</v>
       </c>
       <c r="BS55" t="n">
         <v>2</v>
@@ -16421,7 +16421,7 @@
         <v>3.21556164856152</v>
       </c>
       <c r="CQ55" t="n">
-        <v>42.4042140840074</v>
+        <v>36.7473787372246</v>
       </c>
     </row>
     <row r="56">
@@ -16561,79 +16561,79 @@
         <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>23.1546487522243</v>
+        <v>23.0524736995522</v>
       </c>
       <c r="AU56" t="n">
         <v>2</v>
       </c>
       <c r="AV56" t="n">
-        <v>0.000000019377200172615</v>
+        <v>0.0000000191883555830775</v>
       </c>
       <c r="AW56" t="n">
         <v>2</v>
       </c>
       <c r="AX56" t="n">
-        <v>0.000000000836669792449138</v>
+        <v>0.00000000083226072418692</v>
       </c>
       <c r="AY56" t="n">
         <v>2</v>
       </c>
       <c r="AZ56" t="n">
-        <v>0.000000000509579625554362</v>
+        <v>0.000000000508271676194087</v>
       </c>
       <c r="BA56" t="n">
         <v>2</v>
       </c>
       <c r="BB56" t="n">
-        <v>0.00000000000728864717863923</v>
+        <v>0.0000000000071005749607066</v>
       </c>
       <c r="BC56" t="n">
         <v>2</v>
       </c>
       <c r="BD56" t="n">
-        <v>35.2457433753316</v>
+        <v>35.2194475756273</v>
       </c>
       <c r="BE56" t="n">
         <v>2</v>
       </c>
       <c r="BF56" t="n">
-        <v>0.000000000567085274916613</v>
+        <v>0.000000000516592110329099</v>
       </c>
       <c r="BG56" t="n">
         <v>2</v>
       </c>
       <c r="BH56" t="n">
-        <v>22.0066261271316</v>
+        <v>22.0551817224092</v>
       </c>
       <c r="BI56" t="n">
         <v>2</v>
       </c>
       <c r="BJ56" t="n">
-        <v>0.0000000173723685067728</v>
+        <v>0.0000000157894497309644</v>
       </c>
       <c r="BK56" t="n">
         <v>2</v>
       </c>
       <c r="BL56" t="n">
-        <v>0.000000000788841575876206</v>
+        <v>0.00000000071516695245827</v>
       </c>
       <c r="BM56" t="n">
         <v>2</v>
       </c>
       <c r="BN56" t="n">
-        <v>0.000000000567085274916613</v>
+        <v>0.000000000516592110329099</v>
       </c>
       <c r="BO56" t="n">
         <v>2</v>
       </c>
       <c r="BP56" t="n">
-        <v>0.00000000000815284635766238</v>
+        <v>0.00000000000735350678366562</v>
       </c>
       <c r="BQ56" t="n">
         <v>2</v>
       </c>
       <c r="BR56" t="n">
-        <v>35.3699310876291</v>
+        <v>35.6064563725771</v>
       </c>
       <c r="BS56" t="n">
         <v>2</v>
@@ -16708,7 +16708,7 @@
         <v>3.62245902197374</v>
       </c>
       <c r="CQ56" t="n">
-        <v>42.1710219102634</v>
+        <v>36.5534883082788</v>
       </c>
     </row>
     <row r="57">
@@ -16848,79 +16848,79 @@
         <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>23.1540914099604</v>
+        <v>23.0519905445587</v>
       </c>
       <c r="AU57" t="n">
         <v>2</v>
       </c>
       <c r="AV57" t="n">
-        <v>0.0000000193817327003021</v>
+        <v>0.0000000191925145873965</v>
       </c>
       <c r="AW57" t="n">
         <v>2</v>
       </c>
       <c r="AX57" t="n">
-        <v>0.000000000836883311189914</v>
+        <v>0.000000000832456423677362</v>
       </c>
       <c r="AY57" t="n">
         <v>2</v>
       </c>
       <c r="AZ57" t="n">
-        <v>0.000000000509751683996458</v>
+        <v>0.000000000508434661681615</v>
       </c>
       <c r="BA57" t="n">
         <v>2</v>
       </c>
       <c r="BB57" t="n">
-        <v>0.0000000000072907784409628</v>
+        <v>0.0000000000071031155517156</v>
       </c>
       <c r="BC57" t="n">
         <v>2</v>
       </c>
       <c r="BD57" t="n">
-        <v>35.2473277082399</v>
+        <v>35.2209540021756</v>
       </c>
       <c r="BE57" t="n">
         <v>2</v>
       </c>
       <c r="BF57" t="n">
-        <v>0.000000000567270563739131</v>
+        <v>0.000000000516885512326681</v>
       </c>
       <c r="BG57" t="n">
         <v>2</v>
       </c>
       <c r="BH57" t="n">
-        <v>22.0069195239371</v>
+        <v>22.0552252385432</v>
       </c>
       <c r="BI57" t="n">
         <v>2</v>
       </c>
       <c r="BJ57" t="n">
-        <v>0.0000000173778412497455</v>
+        <v>0.0000000157979297003852</v>
       </c>
       <c r="BK57" t="n">
         <v>2</v>
       </c>
       <c r="BL57" t="n">
-        <v>0.000000000789077725225953</v>
+        <v>0.000000000715550434659405</v>
       </c>
       <c r="BM57" t="n">
         <v>2</v>
       </c>
       <c r="BN57" t="n">
-        <v>0.000000000567270563739131</v>
+        <v>0.000000000516885512326681</v>
       </c>
       <c r="BO57" t="n">
         <v>2</v>
       </c>
       <c r="BP57" t="n">
-        <v>0.00000000000815551498648551</v>
+        <v>0.00000000000735773802980116</v>
       </c>
       <c r="BQ57" t="n">
         <v>2</v>
       </c>
       <c r="BR57" t="n">
-        <v>35.3721095287009</v>
+        <v>35.6080523504539</v>
       </c>
       <c r="BS57" t="n">
         <v>2</v>
@@ -16995,7 +16995,7 @@
         <v>3.28887919412815</v>
       </c>
       <c r="CQ57" t="n">
-        <v>41.5563301816742</v>
+        <v>36.0287640710577</v>
       </c>
     </row>
     <row r="58">
@@ -17135,79 +17135,79 @@
         <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>23.1535340676983</v>
+        <v>23.0515073895667</v>
       </c>
       <c r="AU58" t="n">
         <v>2</v>
       </c>
       <c r="AV58" t="n">
-        <v>0.0000000193862652279748</v>
+        <v>0.0000000191966735917023</v>
       </c>
       <c r="AW58" t="n">
         <v>2</v>
       </c>
       <c r="AX58" t="n">
-        <v>0.000000000837096829930011</v>
+        <v>0.000000000832652123167182</v>
       </c>
       <c r="AY58" t="n">
         <v>2</v>
       </c>
       <c r="AZ58" t="n">
-        <v>0.000000000509923742438007</v>
+        <v>0.000000000508597647168626</v>
       </c>
       <c r="BA58" t="n">
         <v>2</v>
       </c>
       <c r="BB58" t="n">
-        <v>0.00000000000729290970327959</v>
+        <v>0.00000000000710565614271653</v>
       </c>
       <c r="BC58" t="n">
         <v>2</v>
       </c>
       <c r="BD58" t="n">
-        <v>35.2489120411432</v>
+        <v>35.2224604287191</v>
       </c>
       <c r="BE58" t="n">
         <v>2</v>
       </c>
       <c r="BF58" t="n">
-        <v>0.00000000056745585256106</v>
+        <v>0.00000000051717891432333</v>
       </c>
       <c r="BG58" t="n">
         <v>2</v>
       </c>
       <c r="BH58" t="n">
-        <v>22.0072129207416</v>
+        <v>22.0552687546771</v>
       </c>
       <c r="BI58" t="n">
         <v>2</v>
       </c>
       <c r="BJ58" t="n">
-        <v>0.0000000173833139927007</v>
+        <v>0.000000015806409669779</v>
       </c>
       <c r="BK58" t="n">
         <v>2</v>
       </c>
       <c r="BL58" t="n">
-        <v>0.000000000789313874574949</v>
+        <v>0.000000000715933916859321</v>
       </c>
       <c r="BM58" t="n">
         <v>2</v>
       </c>
       <c r="BN58" t="n">
-        <v>0.00000000056745585256106</v>
+        <v>0.00000000051717891432333</v>
       </c>
       <c r="BO58" t="n">
         <v>2</v>
       </c>
       <c r="BP58" t="n">
-        <v>0.00000000000815818361530015</v>
+        <v>0.00000000000736196927592326</v>
       </c>
       <c r="BQ58" t="n">
         <v>2</v>
       </c>
       <c r="BR58" t="n">
-        <v>35.3742879697659</v>
+        <v>35.6096483283256</v>
       </c>
       <c r="BS58" t="n">
         <v>2</v>
@@ -17282,7 +17282,7 @@
         <v>3.24951830151261</v>
       </c>
       <c r="CQ58" t="n">
-        <v>40.8994275383548</v>
+        <v>35.4672075302854</v>
       </c>
     </row>
     <row r="59">
@@ -17422,79 +17422,79 @@
         <v>2</v>
       </c>
       <c r="AT59" t="n">
-        <v>23.1530881938854</v>
+        <v>23.0511208655704</v>
       </c>
       <c r="AU59" t="n">
         <v>2</v>
       </c>
       <c r="AV59" t="n">
-        <v>0.0000000193898912501388</v>
+        <v>0.0000000192000007951707</v>
       </c>
       <c r="AW59" t="n">
         <v>2</v>
       </c>
       <c r="AX59" t="n">
-        <v>0.00000000083726764492331</v>
+        <v>0.000000000832808682760158</v>
       </c>
       <c r="AY59" t="n">
         <v>2</v>
       </c>
       <c r="AZ59" t="n">
-        <v>0.000000000510061389192231</v>
+        <v>0.000000000508728035559167</v>
       </c>
       <c r="BA59" t="n">
         <v>2</v>
       </c>
       <c r="BB59" t="n">
-        <v>0.00000000000729461471314523</v>
+        <v>0.00000000000710768861553182</v>
       </c>
       <c r="BC59" t="n">
         <v>2</v>
       </c>
       <c r="BD59" t="n">
-        <v>35.2501795074748</v>
+        <v>35.2236655699625</v>
       </c>
       <c r="BE59" t="n">
         <v>2</v>
       </c>
       <c r="BF59" t="n">
-        <v>0.000000000567604083619663</v>
+        <v>0.000000000517413635922327</v>
       </c>
       <c r="BG59" t="n">
         <v>2</v>
       </c>
       <c r="BH59" t="n">
-        <v>22.0074476381869</v>
+        <v>22.0553035675844</v>
       </c>
       <c r="BI59" t="n">
         <v>2</v>
       </c>
       <c r="BJ59" t="n">
-        <v>0.0000000173876921870961</v>
+        <v>0.0000000158131936453426</v>
       </c>
       <c r="BK59" t="n">
         <v>2</v>
       </c>
       <c r="BL59" t="n">
-        <v>0.000000000789502794055497</v>
+        <v>0.000000000716240702621448</v>
       </c>
       <c r="BM59" t="n">
         <v>2</v>
       </c>
       <c r="BN59" t="n">
-        <v>0.000000000567604083619663</v>
+        <v>0.000000000517413635922327</v>
       </c>
       <c r="BO59" t="n">
         <v>2</v>
       </c>
       <c r="BP59" t="n">
-        <v>0.00000000000816031851836714</v>
+        <v>0.00000000000736535427284514</v>
       </c>
       <c r="BQ59" t="n">
         <v>2</v>
       </c>
       <c r="BR59" t="n">
-        <v>35.3760307226303</v>
+        <v>35.6109251106321</v>
       </c>
       <c r="BS59" t="n">
         <v>2</v>
@@ -17569,7 +17569,7 @@
         <v>2.86341956755845</v>
       </c>
       <c r="CQ59" t="n">
-        <v>40.767421353251</v>
+        <v>35.3590970613099</v>
       </c>
     </row>
     <row r="60">
@@ -17709,79 +17709,79 @@
         <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>23.1525308516215</v>
+        <v>23.0506377105769</v>
       </c>
       <c r="AU60" t="n">
         <v>2</v>
       </c>
       <c r="AV60" t="n">
-        <v>0.0000000193944237778259</v>
+        <v>0.0000000192041597994897</v>
       </c>
       <c r="AW60" t="n">
         <v>2</v>
       </c>
       <c r="AX60" t="n">
-        <v>0.000000000837481163664085</v>
+        <v>0.0000000008330043822506</v>
       </c>
       <c r="AY60" t="n">
         <v>2</v>
       </c>
       <c r="AZ60" t="n">
-        <v>0.000000000510233447634328</v>
+        <v>0.000000000508891021046695</v>
       </c>
       <c r="BA60" t="n">
         <v>2</v>
       </c>
       <c r="BB60" t="n">
-        <v>0.0000000000072967459754688</v>
+        <v>0.00000000000711022920654082</v>
       </c>
       <c r="BC60" t="n">
         <v>2</v>
       </c>
       <c r="BD60" t="n">
-        <v>35.2517638403831</v>
+        <v>35.2251719965108</v>
       </c>
       <c r="BE60" t="n">
         <v>2</v>
       </c>
       <c r="BF60" t="n">
-        <v>0.000000000567789372442182</v>
+        <v>0.000000000517707037919909</v>
       </c>
       <c r="BG60" t="n">
         <v>2</v>
       </c>
       <c r="BH60" t="n">
-        <v>22.0077410349924</v>
+        <v>22.0553470837184</v>
       </c>
       <c r="BI60" t="n">
         <v>2</v>
       </c>
       <c r="BJ60" t="n">
-        <v>0.0000000173931649300688</v>
+        <v>0.0000000158216736147634</v>
       </c>
       <c r="BK60" t="n">
         <v>2</v>
       </c>
       <c r="BL60" t="n">
-        <v>0.000000000789738943405244</v>
+        <v>0.000000000716624184822584</v>
       </c>
       <c r="BM60" t="n">
         <v>2</v>
       </c>
       <c r="BN60" t="n">
-        <v>0.000000000567789372442182</v>
+        <v>0.000000000517707037919909</v>
       </c>
       <c r="BO60" t="n">
         <v>2</v>
       </c>
       <c r="BP60" t="n">
-        <v>0.00000000000816298714719027</v>
+        <v>0.00000000000736958551898068</v>
       </c>
       <c r="BQ60" t="n">
         <v>2</v>
       </c>
       <c r="BR60" t="n">
-        <v>35.3782091637022</v>
+        <v>35.6125210885089</v>
       </c>
       <c r="BS60" t="n">
         <v>2</v>
@@ -17856,7 +17856,7 @@
         <v>2.90487664778913</v>
       </c>
       <c r="CQ60" t="n">
-        <v>41.1804026001513</v>
+        <v>35.7253354354527</v>
       </c>
     </row>
     <row r="61">
@@ -17996,79 +17996,79 @@
         <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>23.1519735093577</v>
+        <v>23.0501545555834</v>
       </c>
       <c r="AU61" t="n">
         <v>2</v>
       </c>
       <c r="AV61" t="n">
-        <v>0.000000019398956305513</v>
+        <v>0.0000000192083188038088</v>
       </c>
       <c r="AW61" t="n">
         <v>2</v>
       </c>
       <c r="AX61" t="n">
-        <v>0.000000000837694682404861</v>
+        <v>0.000000000833200081741042</v>
       </c>
       <c r="AY61" t="n">
         <v>2</v>
       </c>
       <c r="AZ61" t="n">
-        <v>0.000000000510405506076424</v>
+        <v>0.000000000509054006534224</v>
       </c>
       <c r="BA61" t="n">
         <v>2</v>
       </c>
       <c r="BB61" t="n">
-        <v>0.00000000000729887723779237</v>
+        <v>0.00000000000711276979754983</v>
       </c>
       <c r="BC61" t="n">
         <v>2</v>
       </c>
       <c r="BD61" t="n">
-        <v>35.2533481732914</v>
+        <v>35.2266784230591</v>
       </c>
       <c r="BE61" t="n">
         <v>2</v>
       </c>
       <c r="BF61" t="n">
-        <v>0.0000000005679746612647</v>
+        <v>0.00000000051800043991749</v>
       </c>
       <c r="BG61" t="n">
         <v>2</v>
       </c>
       <c r="BH61" t="n">
-        <v>22.0080344317978</v>
+        <v>22.0553905998523</v>
       </c>
       <c r="BI61" t="n">
         <v>2</v>
       </c>
       <c r="BJ61" t="n">
-        <v>0.0000000173986376730414</v>
+        <v>0.0000000158301535841842</v>
       </c>
       <c r="BK61" t="n">
         <v>2</v>
       </c>
       <c r="BL61" t="n">
-        <v>0.00000000078997509275499</v>
+        <v>0.000000000717007667023719</v>
       </c>
       <c r="BM61" t="n">
         <v>2</v>
       </c>
       <c r="BN61" t="n">
-        <v>0.0000000005679746612647</v>
+        <v>0.00000000051800043991749</v>
       </c>
       <c r="BO61" t="n">
         <v>2</v>
       </c>
       <c r="BP61" t="n">
-        <v>0.00000000000816565577601339</v>
+        <v>0.00000000000737381676511623</v>
       </c>
       <c r="BQ61" t="n">
         <v>2</v>
       </c>
       <c r="BR61" t="n">
-        <v>35.3803876047741</v>
+        <v>35.6141170663857</v>
       </c>
       <c r="BS61" t="n">
         <v>2</v>
@@ -18143,7 +18143,7 @@
         <v>2.60460902641061</v>
       </c>
       <c r="CQ61" t="n">
-        <v>41.6242669496158</v>
+        <v>36.1185449423664</v>
       </c>
     </row>
     <row r="62">
@@ -18283,79 +18283,79 @@
         <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>23.1514161670956</v>
+        <v>23.0496714005915</v>
       </c>
       <c r="AU62" t="n">
         <v>2</v>
       </c>
       <c r="AV62" t="n">
-        <v>0.0000000194034888331857</v>
+        <v>0.0000000192124778081145</v>
       </c>
       <c r="AW62" t="n">
         <v>2</v>
       </c>
       <c r="AX62" t="n">
-        <v>0.000000000837908201144957</v>
+        <v>0.000000000833395781230862</v>
       </c>
       <c r="AY62" t="n">
         <v>2</v>
       </c>
       <c r="AZ62" t="n">
-        <v>0.000000000510577564517973</v>
+        <v>0.000000000509216992021234</v>
       </c>
       <c r="BA62" t="n">
         <v>2</v>
       </c>
       <c r="BB62" t="n">
-        <v>0.00000000000730100850010916</v>
+        <v>0.00000000000711531038855076</v>
       </c>
       <c r="BC62" t="n">
         <v>2</v>
       </c>
       <c r="BD62" t="n">
-        <v>35.2549325061947</v>
+        <v>35.2281848496026</v>
       </c>
       <c r="BE62" t="n">
         <v>2</v>
       </c>
       <c r="BF62" t="n">
-        <v>0.000000000568159950086629</v>
+        <v>0.000000000518293841914139</v>
       </c>
       <c r="BG62" t="n">
         <v>2</v>
       </c>
       <c r="BH62" t="n">
-        <v>22.0083278286023</v>
+        <v>22.0554341159862</v>
       </c>
       <c r="BI62" t="n">
         <v>2</v>
       </c>
       <c r="BJ62" t="n">
-        <v>0.0000000174041104159966</v>
+        <v>0.000000015838633553578</v>
       </c>
       <c r="BK62" t="n">
         <v>2</v>
       </c>
       <c r="BL62" t="n">
-        <v>0.000000000790211242103986</v>
+        <v>0.000000000717391149223635</v>
       </c>
       <c r="BM62" t="n">
         <v>2</v>
       </c>
       <c r="BN62" t="n">
-        <v>0.000000000568159950086629</v>
+        <v>0.000000000518293841914139</v>
       </c>
       <c r="BO62" t="n">
         <v>2</v>
       </c>
       <c r="BP62" t="n">
-        <v>0.00000000000816832440482804</v>
+        <v>0.00000000000737804801123832</v>
       </c>
       <c r="BQ62" t="n">
         <v>2</v>
       </c>
       <c r="BR62" t="n">
-        <v>35.382566045839</v>
+        <v>35.6157130442574</v>
       </c>
       <c r="BS62" t="n">
         <v>2</v>
@@ -18430,7 +18430,7 @@
         <v>2.49063853919066</v>
       </c>
       <c r="CQ62" t="n">
-        <v>41.6024904406931</v>
+        <v>36.1077990538748</v>
       </c>
     </row>
     <row r="63">
@@ -18570,79 +18570,79 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>23.1509702932827</v>
+        <v>23.0492848765952</v>
       </c>
       <c r="AU63" t="n">
         <v>2</v>
       </c>
       <c r="AV63" t="n">
-        <v>0.0000000194071148553498</v>
+        <v>0.000000019215805011583</v>
       </c>
       <c r="AW63" t="n">
         <v>2</v>
       </c>
       <c r="AX63" t="n">
-        <v>0.000000000838079016138256</v>
+        <v>0.000000000833552340823838</v>
       </c>
       <c r="AY63" t="n">
         <v>2</v>
       </c>
       <c r="AZ63" t="n">
-        <v>0.000000000510715211272197</v>
+        <v>0.000000000509347380411775</v>
       </c>
       <c r="BA63" t="n">
         <v>2</v>
       </c>
       <c r="BB63" t="n">
-        <v>0.0000000000073027135099748</v>
+        <v>0.00000000000711734286136604</v>
       </c>
       <c r="BC63" t="n">
         <v>2</v>
       </c>
       <c r="BD63" t="n">
-        <v>35.2561999725264</v>
+        <v>35.229389990846</v>
       </c>
       <c r="BE63" t="n">
         <v>2</v>
       </c>
       <c r="BF63" t="n">
-        <v>0.000000000568308181145232</v>
+        <v>0.000000000518528563513137</v>
       </c>
       <c r="BG63" t="n">
         <v>2</v>
       </c>
       <c r="BH63" t="n">
-        <v>22.0085625460476</v>
+        <v>22.0554689288935</v>
       </c>
       <c r="BI63" t="n">
         <v>2</v>
       </c>
       <c r="BJ63" t="n">
-        <v>0.0000000174084886103921</v>
+        <v>0.0000000158454175291416</v>
       </c>
       <c r="BK63" t="n">
         <v>2</v>
       </c>
       <c r="BL63" t="n">
-        <v>0.000000000790400161584534</v>
+        <v>0.000000000717697934985762</v>
       </c>
       <c r="BM63" t="n">
         <v>2</v>
       </c>
       <c r="BN63" t="n">
-        <v>0.000000000568308181145232</v>
+        <v>0.000000000518528563513137</v>
       </c>
       <c r="BO63" t="n">
         <v>2</v>
       </c>
       <c r="BP63" t="n">
-        <v>0.00000000000817045930789503</v>
+        <v>0.0000000000073814330081602</v>
       </c>
       <c r="BQ63" t="n">
         <v>2</v>
       </c>
       <c r="BR63" t="n">
-        <v>35.3843087987034</v>
+        <v>35.616989826564</v>
       </c>
       <c r="BS63" t="n">
         <v>2</v>
@@ -18717,7 +18717,7 @@
         <v>2.49756898208693</v>
       </c>
       <c r="CQ63" t="n">
-        <v>41.5544548355112</v>
+        <v>36.0726288476043</v>
       </c>
     </row>
     <row r="64">
@@ -18857,79 +18857,79 @@
         <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>23.1504129510188</v>
+        <v>23.0488017216017</v>
       </c>
       <c r="AU64" t="n">
         <v>2</v>
       </c>
       <c r="AV64" t="n">
-        <v>0.0000000194116473830368</v>
+        <v>0.000000019219964015902</v>
       </c>
       <c r="AW64" t="n">
         <v>2</v>
       </c>
       <c r="AX64" t="n">
-        <v>0.000000000838292534879032</v>
+        <v>0.00000000083374804031428</v>
       </c>
       <c r="AY64" t="n">
         <v>2</v>
       </c>
       <c r="AZ64" t="n">
-        <v>0.000000000510887269714293</v>
+        <v>0.000000000509510365899303</v>
       </c>
       <c r="BA64" t="n">
         <v>2</v>
       </c>
       <c r="BB64" t="n">
-        <v>0.00000000000730484477229837</v>
+        <v>0.00000000000711988345237505</v>
       </c>
       <c r="BC64" t="n">
         <v>2</v>
       </c>
       <c r="BD64" t="n">
-        <v>35.2577843054347</v>
+        <v>35.2308964173943</v>
       </c>
       <c r="BE64" t="n">
         <v>2</v>
       </c>
       <c r="BF64" t="n">
-        <v>0.00000000056849346996775</v>
+        <v>0.000000000518821965510719</v>
       </c>
       <c r="BG64" t="n">
         <v>2</v>
       </c>
       <c r="BH64" t="n">
-        <v>22.0088559428531</v>
+        <v>22.0555124450275</v>
       </c>
       <c r="BI64" t="n">
         <v>2</v>
       </c>
       <c r="BJ64" t="n">
-        <v>0.0000000174139613533647</v>
+        <v>0.0000000158538974985624</v>
       </c>
       <c r="BK64" t="n">
         <v>2</v>
       </c>
       <c r="BL64" t="n">
-        <v>0.000000000790636310934281</v>
+        <v>0.000000000718081417186897</v>
       </c>
       <c r="BM64" t="n">
         <v>2</v>
       </c>
       <c r="BN64" t="n">
-        <v>0.00000000056849346996775</v>
+        <v>0.000000000518821965510719</v>
       </c>
       <c r="BO64" t="n">
         <v>2</v>
       </c>
       <c r="BP64" t="n">
-        <v>0.00000000000817312793671816</v>
+        <v>0.00000000000738566425429575</v>
       </c>
       <c r="BQ64" t="n">
         <v>2</v>
       </c>
       <c r="BR64" t="n">
-        <v>35.3864872397753</v>
+        <v>35.6185858044407</v>
       </c>
       <c r="BS64" t="n">
         <v>2</v>
@@ -19004,7 +19004,7 @@
         <v>4.05369660160578</v>
       </c>
       <c r="CQ64" t="n">
-        <v>41.6220108904086</v>
+        <v>36.1394480889793</v>
       </c>
     </row>
     <row r="65">
@@ -19144,79 +19144,79 @@
         <v>2</v>
       </c>
       <c r="AT65" t="n">
-        <v>23.1498556087567</v>
+        <v>23.0483185666097</v>
       </c>
       <c r="AU65" t="n">
         <v>2</v>
       </c>
       <c r="AV65" t="n">
-        <v>0.0000000194161799107095</v>
+        <v>0.0000000192241230202078</v>
       </c>
       <c r="AW65" t="n">
         <v>2</v>
       </c>
       <c r="AX65" t="n">
-        <v>0.000000000838506053619129</v>
+        <v>0.0000000008339437398041</v>
       </c>
       <c r="AY65" t="n">
         <v>2</v>
       </c>
       <c r="AZ65" t="n">
-        <v>0.000000000511059328155843</v>
+        <v>0.000000000509673351386314</v>
       </c>
       <c r="BA65" t="n">
         <v>2</v>
       </c>
       <c r="BB65" t="n">
-        <v>0.00000000000730697603461516</v>
+        <v>0.00000000000712242404337598</v>
       </c>
       <c r="BC65" t="n">
         <v>2</v>
       </c>
       <c r="BD65" t="n">
-        <v>35.2593686383379</v>
+        <v>35.2324028439378</v>
       </c>
       <c r="BE65" t="n">
         <v>2</v>
       </c>
       <c r="BF65" t="n">
-        <v>0.000000000568678758789679</v>
+        <v>0.000000000519115367507367</v>
       </c>
       <c r="BG65" t="n">
         <v>2</v>
       </c>
       <c r="BH65" t="n">
-        <v>22.0091493396576</v>
+        <v>22.0555559611614</v>
       </c>
       <c r="BI65" t="n">
         <v>2</v>
       </c>
       <c r="BJ65" t="n">
-        <v>0.0000000174194340963199</v>
+        <v>0.0000000158623774679563</v>
       </c>
       <c r="BK65" t="n">
         <v>2</v>
       </c>
       <c r="BL65" t="n">
-        <v>0.000000000790872460283277</v>
+        <v>0.000000000718464899386814</v>
       </c>
       <c r="BM65" t="n">
         <v>2</v>
       </c>
       <c r="BN65" t="n">
-        <v>0.000000000568678758789679</v>
+        <v>0.000000000519115367507367</v>
       </c>
       <c r="BO65" t="n">
         <v>2</v>
       </c>
       <c r="BP65" t="n">
-        <v>0.0000000000081757965655328</v>
+        <v>0.00000000000738989550041784</v>
       </c>
       <c r="BQ65" t="n">
         <v>2</v>
       </c>
       <c r="BR65" t="n">
-        <v>35.3886656808402</v>
+        <v>35.6201817823125</v>
       </c>
       <c r="BS65" t="n">
         <v>2</v>
@@ -19291,7 +19291,7 @@
         <v>4.07999048785458</v>
       </c>
       <c r="CQ65" t="n">
-        <v>41.7529140997172</v>
+        <v>36.2613210016383</v>
       </c>
     </row>
     <row r="66">
@@ -19431,79 +19431,79 @@
         <v>2</v>
       </c>
       <c r="AT66" t="n">
-        <v>23.1494097349438</v>
+        <v>23.0479320426134</v>
       </c>
       <c r="AU66" t="n">
         <v>2</v>
       </c>
       <c r="AV66" t="n">
-        <v>0.0000000194198059328736</v>
+        <v>0.0000000192274502236762</v>
       </c>
       <c r="AW66" t="n">
         <v>2</v>
       </c>
       <c r="AX66" t="n">
-        <v>0.000000000838676868612428</v>
+        <v>0.000000000834100299397076</v>
       </c>
       <c r="AY66" t="n">
         <v>2</v>
       </c>
       <c r="AZ66" t="n">
-        <v>0.000000000511196974910067</v>
+        <v>0.000000000509803739776855</v>
       </c>
       <c r="BA66" t="n">
         <v>2</v>
       </c>
       <c r="BB66" t="n">
-        <v>0.0000000000073086810444808</v>
+        <v>0.00000000000712445651619126</v>
       </c>
       <c r="BC66" t="n">
         <v>2</v>
       </c>
       <c r="BD66" t="n">
-        <v>35.2606361046696</v>
+        <v>35.2336079851812</v>
       </c>
       <c r="BE66" t="n">
         <v>2</v>
       </c>
       <c r="BF66" t="n">
-        <v>0.000000000568826989848283</v>
+        <v>0.000000000519350089106365</v>
       </c>
       <c r="BG66" t="n">
         <v>2</v>
       </c>
       <c r="BH66" t="n">
-        <v>22.0093840571029</v>
+        <v>22.0555907740687</v>
       </c>
       <c r="BI66" t="n">
         <v>2</v>
       </c>
       <c r="BJ66" t="n">
-        <v>0.0000000174238122907154</v>
+        <v>0.0000000158691614435199</v>
       </c>
       <c r="BK66" t="n">
         <v>2</v>
       </c>
       <c r="BL66" t="n">
-        <v>0.000000000791061379763825</v>
+        <v>0.000000000718771685148941</v>
       </c>
       <c r="BM66" t="n">
         <v>2</v>
       </c>
       <c r="BN66" t="n">
-        <v>0.000000000568826989848283</v>
+        <v>0.000000000519350089106365</v>
       </c>
       <c r="BO66" t="n">
         <v>2</v>
       </c>
       <c r="BP66" t="n">
-        <v>0.00000000000817793146859979</v>
+        <v>0.00000000000739328049733972</v>
       </c>
       <c r="BQ66" t="n">
         <v>2</v>
       </c>
       <c r="BR66" t="n">
-        <v>35.3904084337047</v>
+        <v>35.621458564619</v>
       </c>
       <c r="BS66" t="n">
         <v>2</v>
@@ -19578,7 +19578,7 @@
         <v>5.52575819685587</v>
       </c>
       <c r="CQ66" t="n">
-        <v>41.9059212599855</v>
+        <v>36.400806461696</v>
       </c>
     </row>
     <row r="67">
@@ -19718,79 +19718,79 @@
         <v>2</v>
       </c>
       <c r="AT67" t="n">
-        <v>23.1488523926799</v>
+        <v>23.0474488876199</v>
       </c>
       <c r="AU67" t="n">
         <v>2</v>
       </c>
       <c r="AV67" t="n">
-        <v>0.0000000194243384605607</v>
+        <v>0.0000000192316092279952</v>
       </c>
       <c r="AW67" t="n">
         <v>2</v>
       </c>
       <c r="AX67" t="n">
-        <v>0.000000000838890387353203</v>
+        <v>0.000000000834295998887518</v>
       </c>
       <c r="AY67" t="n">
         <v>2</v>
       </c>
       <c r="AZ67" t="n">
-        <v>0.000000000511369033352163</v>
+        <v>0.000000000509966725264383</v>
       </c>
       <c r="BA67" t="n">
         <v>2</v>
       </c>
       <c r="BB67" t="n">
-        <v>0.00000000000731081230680437</v>
+        <v>0.00000000000712699710720027</v>
       </c>
       <c r="BC67" t="n">
         <v>2</v>
       </c>
       <c r="BD67" t="n">
-        <v>35.2622204375779</v>
+        <v>35.2351144117295</v>
       </c>
       <c r="BE67" t="n">
         <v>2</v>
       </c>
       <c r="BF67" t="n">
-        <v>0.000000000569012278670801</v>
+        <v>0.000000000519643491103947</v>
       </c>
       <c r="BG67" t="n">
         <v>2</v>
       </c>
       <c r="BH67" t="n">
-        <v>22.0096774539083</v>
+        <v>22.0556342902027</v>
       </c>
       <c r="BI67" t="n">
         <v>2</v>
       </c>
       <c r="BJ67" t="n">
-        <v>0.000000017429285033688</v>
+        <v>0.0000000158776414129406</v>
       </c>
       <c r="BK67" t="n">
         <v>2</v>
       </c>
       <c r="BL67" t="n">
-        <v>0.000000000791297529113572</v>
+        <v>0.000000000719155167350076</v>
       </c>
       <c r="BM67" t="n">
         <v>2</v>
       </c>
       <c r="BN67" t="n">
-        <v>0.000000000569012278670801</v>
+        <v>0.000000000519643491103947</v>
       </c>
       <c r="BO67" t="n">
         <v>2</v>
       </c>
       <c r="BP67" t="n">
-        <v>0.00000000000818060009742292</v>
+        <v>0.00000000000739751174347527</v>
       </c>
       <c r="BQ67" t="n">
         <v>2</v>
       </c>
       <c r="BR67" t="n">
-        <v>35.3925868747765</v>
+        <v>35.6230545424958</v>
       </c>
       <c r="BS67" t="n">
         <v>2</v>
@@ -19865,7 +19865,7 @@
         <v>5.53959626731989</v>
       </c>
       <c r="CQ67" t="n">
-        <v>41.8991772910033</v>
+        <v>36.4032112014878</v>
       </c>
     </row>
     <row r="68">
@@ -20005,79 +20005,79 @@
         <v>2</v>
       </c>
       <c r="AT68" t="n">
-        <v>23.1482950504161</v>
+        <v>23.0469657326264</v>
       </c>
       <c r="AU68" t="n">
         <v>2</v>
       </c>
       <c r="AV68" t="n">
-        <v>0.0000000194288709882478</v>
+        <v>0.0000000192357682323142</v>
       </c>
       <c r="AW68" t="n">
         <v>2</v>
       </c>
       <c r="AX68" t="n">
-        <v>0.000000000839103906093979</v>
+        <v>0.00000000083449169837796</v>
       </c>
       <c r="AY68" t="n">
         <v>2</v>
       </c>
       <c r="AZ68" t="n">
-        <v>0.000000000511541091794259</v>
+        <v>0.000000000510129710751912</v>
       </c>
       <c r="BA68" t="n">
         <v>2</v>
       </c>
       <c r="BB68" t="n">
-        <v>0.00000000000731294356912794</v>
+        <v>0.00000000000712953769820928</v>
       </c>
       <c r="BC68" t="n">
         <v>2</v>
       </c>
       <c r="BD68" t="n">
-        <v>35.2638047704862</v>
+        <v>35.2366208382778</v>
       </c>
       <c r="BE68" t="n">
         <v>2</v>
       </c>
       <c r="BF68" t="n">
-        <v>0.000000000569197567493319</v>
+        <v>0.000000000519936893101528</v>
       </c>
       <c r="BG68" t="n">
         <v>2</v>
       </c>
       <c r="BH68" t="n">
-        <v>22.0099708507138</v>
+        <v>22.0556778063367</v>
       </c>
       <c r="BI68" t="n">
         <v>2</v>
       </c>
       <c r="BJ68" t="n">
-        <v>0.0000000174347577766606</v>
+        <v>0.0000000158861213823614</v>
       </c>
       <c r="BK68" t="n">
         <v>2</v>
       </c>
       <c r="BL68" t="n">
-        <v>0.000000000791533678463318</v>
+        <v>0.000000000719538649551211</v>
       </c>
       <c r="BM68" t="n">
         <v>2</v>
       </c>
       <c r="BN68" t="n">
-        <v>0.000000000569197567493319</v>
+        <v>0.000000000519936893101528</v>
       </c>
       <c r="BO68" t="n">
         <v>2</v>
       </c>
       <c r="BP68" t="n">
-        <v>0.00000000000818326872624605</v>
+        <v>0.00000000000740174298961081</v>
       </c>
       <c r="BQ68" t="n">
         <v>2</v>
       </c>
       <c r="BR68" t="n">
-        <v>35.3947653158484</v>
+        <v>35.6246505203726</v>
       </c>
       <c r="BS68" t="n">
         <v>2</v>
@@ -20152,7 +20152,7 @@
         <v>6.7037143124496</v>
       </c>
       <c r="CQ68" t="n">
-        <v>41.7048505431216</v>
+        <v>36.2426108257531</v>
       </c>
     </row>
     <row r="69">
@@ -20292,79 +20292,79 @@
         <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>23.147737708154</v>
+        <v>23.0464825776345</v>
       </c>
       <c r="AU69" t="n">
         <v>2</v>
       </c>
       <c r="AV69" t="n">
-        <v>0.0000000194334035159204</v>
+        <v>0.00000001923992723662</v>
       </c>
       <c r="AW69" t="n">
         <v>2</v>
       </c>
       <c r="AX69" t="n">
-        <v>0.000000000839317424834075</v>
+        <v>0.00000000083468739786778</v>
       </c>
       <c r="AY69" t="n">
         <v>2</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0.000000000511713150235808</v>
+        <v>0.000000000510292696238922</v>
       </c>
       <c r="BA69" t="n">
         <v>2</v>
       </c>
       <c r="BB69" t="n">
-        <v>0.00000000000731507483144473</v>
+        <v>0.00000000000713207828921021</v>
       </c>
       <c r="BC69" t="n">
         <v>2</v>
       </c>
       <c r="BD69" t="n">
-        <v>35.2653891033895</v>
+        <v>35.2381272648213</v>
       </c>
       <c r="BE69" t="n">
         <v>2</v>
       </c>
       <c r="BF69" t="n">
-        <v>0.000000000569382856315248</v>
+        <v>0.000000000520230295098177</v>
       </c>
       <c r="BG69" t="n">
         <v>2</v>
       </c>
       <c r="BH69" t="n">
-        <v>22.0102642475183</v>
+        <v>22.0557213224705</v>
       </c>
       <c r="BI69" t="n">
         <v>2</v>
       </c>
       <c r="BJ69" t="n">
-        <v>0.0000000174402305196158</v>
+        <v>0.0000000158946013517553</v>
       </c>
       <c r="BK69" t="n">
         <v>2</v>
       </c>
       <c r="BL69" t="n">
-        <v>0.000000000791769827812314</v>
+        <v>0.000000000719922131751128</v>
       </c>
       <c r="BM69" t="n">
         <v>2</v>
       </c>
       <c r="BN69" t="n">
-        <v>0.000000000569382856315248</v>
+        <v>0.000000000520230295098177</v>
       </c>
       <c r="BO69" t="n">
         <v>2</v>
       </c>
       <c r="BP69" t="n">
-        <v>0.00000000000818593735506069</v>
+        <v>0.0000000000074059742357329</v>
       </c>
       <c r="BQ69" t="n">
         <v>2</v>
       </c>
       <c r="BR69" t="n">
-        <v>35.3969437569134</v>
+        <v>35.6262464982443</v>
       </c>
       <c r="BS69" t="n">
         <v>2</v>
@@ -20439,7 +20439,7 @@
         <v>7.14340964809016</v>
       </c>
       <c r="CQ69" t="n">
-        <v>41.6819229069836</v>
+        <v>36.2309297499548</v>
       </c>
     </row>
     <row r="70">
@@ -20579,79 +20579,79 @@
         <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>23.1472918343411</v>
+        <v>23.0460960536382</v>
       </c>
       <c r="AU70" t="n">
         <v>2</v>
       </c>
       <c r="AV70" t="n">
-        <v>0.0000000194370295380845</v>
+        <v>0.0000000192432544400884</v>
       </c>
       <c r="AW70" t="n">
         <v>2</v>
       </c>
       <c r="AX70" t="n">
-        <v>0.000000000839488239827375</v>
+        <v>0.000000000834843957460756</v>
       </c>
       <c r="AY70" t="n">
         <v>2</v>
       </c>
       <c r="AZ70" t="n">
-        <v>0.000000000511850796990032</v>
+        <v>0.000000000510423084629463</v>
       </c>
       <c r="BA70" t="n">
         <v>2</v>
       </c>
       <c r="BB70" t="n">
-        <v>0.00000000000731677984131037</v>
+        <v>0.00000000000713411076202549</v>
       </c>
       <c r="BC70" t="n">
         <v>2</v>
       </c>
       <c r="BD70" t="n">
-        <v>35.2666565697212</v>
+        <v>35.2393324060647</v>
       </c>
       <c r="BE70" t="n">
         <v>2</v>
       </c>
       <c r="BF70" t="n">
-        <v>0.000000000569531087373851</v>
+        <v>0.000000000520465016697175</v>
       </c>
       <c r="BG70" t="n">
         <v>2</v>
       </c>
       <c r="BH70" t="n">
-        <v>22.0104989649636</v>
+        <v>22.0557561353778</v>
       </c>
       <c r="BI70" t="n">
         <v>2</v>
       </c>
       <c r="BJ70" t="n">
-        <v>0.0000000174446087140113</v>
+        <v>0.0000000159013853273189</v>
       </c>
       <c r="BK70" t="n">
         <v>2</v>
       </c>
       <c r="BL70" t="n">
-        <v>0.000000000791958747292862</v>
+        <v>0.000000000720228917513255</v>
       </c>
       <c r="BM70" t="n">
         <v>2</v>
       </c>
       <c r="BN70" t="n">
-        <v>0.000000000569531087373851</v>
+        <v>0.000000000520465016697175</v>
       </c>
       <c r="BO70" t="n">
         <v>2</v>
       </c>
       <c r="BP70" t="n">
-        <v>0.00000000000818807225812768</v>
+        <v>0.00000000000740935923265479</v>
       </c>
       <c r="BQ70" t="n">
         <v>2</v>
       </c>
       <c r="BR70" t="n">
-        <v>35.3986865097778</v>
+        <v>35.6275232805508</v>
       </c>
       <c r="BS70" t="n">
         <v>2</v>
@@ -20726,7 +20726,7 @@
         <v>7.1489315276557</v>
       </c>
       <c r="CQ70" t="n">
-        <v>41.6397260518609</v>
+        <v>36.2008480250547</v>
       </c>
     </row>
     <row r="71">
@@ -20866,79 +20866,79 @@
         <v>2</v>
       </c>
       <c r="AT71" t="n">
-        <v>23.1467344920772</v>
+        <v>23.0456128986447</v>
       </c>
       <c r="AU71" t="n">
         <v>2</v>
       </c>
       <c r="AV71" t="n">
-        <v>0.0000000194415620657716</v>
+        <v>0.0000000192474134444074</v>
       </c>
       <c r="AW71" t="n">
         <v>2</v>
       </c>
       <c r="AX71" t="n">
-        <v>0.00000000083970175856815</v>
+        <v>0.000000000835039656951198</v>
       </c>
       <c r="AY71" t="n">
         <v>2</v>
       </c>
       <c r="AZ71" t="n">
-        <v>0.000000000512022855432129</v>
+        <v>0.000000000510586070116991</v>
       </c>
       <c r="BA71" t="n">
         <v>2</v>
       </c>
       <c r="BB71" t="n">
-        <v>0.00000000000731891110363394</v>
+        <v>0.0000000000071366513530345</v>
       </c>
       <c r="BC71" t="n">
         <v>2</v>
       </c>
       <c r="BD71" t="n">
-        <v>35.2682409026295</v>
+        <v>35.240838832613</v>
       </c>
       <c r="BE71" t="n">
         <v>2</v>
       </c>
       <c r="BF71" t="n">
-        <v>0.000000000569716376196369</v>
+        <v>0.000000000520758418694757</v>
       </c>
       <c r="BG71" t="n">
         <v>2</v>
       </c>
       <c r="BH71" t="n">
-        <v>22.0107923617691</v>
+        <v>22.0557996515118</v>
       </c>
       <c r="BI71" t="n">
         <v>2</v>
       </c>
       <c r="BJ71" t="n">
-        <v>0.0000000174500814569839</v>
+        <v>0.0000000159098652967397</v>
       </c>
       <c r="BK71" t="n">
         <v>2</v>
       </c>
       <c r="BL71" t="n">
-        <v>0.000000000792194896642609</v>
+        <v>0.00000000072061239971439</v>
       </c>
       <c r="BM71" t="n">
         <v>2</v>
       </c>
       <c r="BN71" t="n">
-        <v>0.000000000569716376196369</v>
+        <v>0.000000000520758418694757</v>
       </c>
       <c r="BO71" t="n">
         <v>2</v>
       </c>
       <c r="BP71" t="n">
-        <v>0.00000000000819074088695081</v>
+        <v>0.00000000000741359047879033</v>
       </c>
       <c r="BQ71" t="n">
         <v>2</v>
       </c>
       <c r="BR71" t="n">
-        <v>35.4008649508497</v>
+        <v>35.6291192584276</v>
       </c>
       <c r="BS71" t="n">
         <v>2</v>
@@ -21013,7 +21013,7 @@
         <v>8.28488317053642</v>
       </c>
       <c r="CQ71" t="n">
-        <v>41.5603212573906</v>
+        <v>36.1400558595483</v>
       </c>
     </row>
     <row r="72">
@@ -21153,79 +21153,79 @@
         <v>2</v>
       </c>
       <c r="AT72" t="n">
-        <v>23.1461771498133</v>
+        <v>23.0451297436512</v>
       </c>
       <c r="AU72" t="n">
         <v>2</v>
       </c>
       <c r="AV72" t="n">
-        <v>0.0000000194460945934587</v>
+        <v>0.0000000192515724487264</v>
       </c>
       <c r="AW72" t="n">
         <v>2</v>
       </c>
       <c r="AX72" t="n">
-        <v>0.000000000839915277308926</v>
+        <v>0.000000000835235356441641</v>
       </c>
       <c r="AY72" t="n">
         <v>2</v>
       </c>
       <c r="AZ72" t="n">
-        <v>0.000000000512194913874225</v>
+        <v>0.00000000051074905560452</v>
       </c>
       <c r="BA72" t="n">
         <v>2</v>
       </c>
       <c r="BB72" t="n">
-        <v>0.00000000000732104236595751</v>
+        <v>0.00000000000713919194404351</v>
       </c>
       <c r="BC72" t="n">
         <v>2</v>
       </c>
       <c r="BD72" t="n">
-        <v>35.2698252355378</v>
+        <v>35.2423452591613</v>
       </c>
       <c r="BE72" t="n">
         <v>2</v>
       </c>
       <c r="BF72" t="n">
-        <v>0.000000000569901665018888</v>
+        <v>0.000000000521051820692338</v>
       </c>
       <c r="BG72" t="n">
         <v>2</v>
       </c>
       <c r="BH72" t="n">
-        <v>22.0110857585745</v>
+        <v>22.0558431676458</v>
       </c>
       <c r="BI72" t="n">
         <v>2</v>
       </c>
       <c r="BJ72" t="n">
-        <v>0.0000000174555541999565</v>
+        <v>0.0000000159183452661605</v>
       </c>
       <c r="BK72" t="n">
         <v>2</v>
       </c>
       <c r="BL72" t="n">
-        <v>0.000000000792431045992356</v>
+        <v>0.000000000720995881915525</v>
       </c>
       <c r="BM72" t="n">
         <v>2</v>
       </c>
       <c r="BN72" t="n">
-        <v>0.000000000569901665018888</v>
+        <v>0.000000000521051820692338</v>
       </c>
       <c r="BO72" t="n">
         <v>2</v>
       </c>
       <c r="BP72" t="n">
-        <v>0.00000000000819340951577394</v>
+        <v>0.00000000000741782172492587</v>
       </c>
       <c r="BQ72" t="n">
         <v>2</v>
       </c>
       <c r="BR72" t="n">
-        <v>35.4030433919215</v>
+        <v>35.6307152363044</v>
       </c>
       <c r="BS72" t="n">
         <v>2</v>
@@ -21300,7 +21300,7 @@
         <v>8.31385953178543</v>
       </c>
       <c r="CQ72" t="n">
-        <v>41.6210919906441</v>
+        <v>36.2011658731656</v>
       </c>
     </row>
     <row r="73">
@@ -21440,79 +21440,79 @@
         <v>2</v>
       </c>
       <c r="AT73" t="n">
-        <v>23.1456198075512</v>
+        <v>23.0446465886592</v>
       </c>
       <c r="AU73" t="n">
         <v>2</v>
       </c>
       <c r="AV73" t="n">
-        <v>0.0000000194506271211313</v>
+        <v>0.0000000192557314530322</v>
       </c>
       <c r="AW73" t="n">
         <v>2</v>
       </c>
       <c r="AX73" t="n">
-        <v>0.000000000840128796049022</v>
+        <v>0.000000000835431055931461</v>
       </c>
       <c r="AY73" t="n">
         <v>2</v>
       </c>
       <c r="AZ73" t="n">
-        <v>0.000000000512366972315774</v>
+        <v>0.00000000051091204109153</v>
       </c>
       <c r="BA73" t="n">
         <v>2</v>
       </c>
       <c r="BB73" t="n">
-        <v>0.00000000000732317362827431</v>
+        <v>0.00000000000714173253504444</v>
       </c>
       <c r="BC73" t="n">
         <v>2</v>
       </c>
       <c r="BD73" t="n">
-        <v>35.271409568441</v>
+        <v>35.2438516857048</v>
       </c>
       <c r="BE73" t="n">
         <v>2</v>
       </c>
       <c r="BF73" t="n">
-        <v>0.000000000570086953840817</v>
+        <v>0.000000000521345222688987</v>
       </c>
       <c r="BG73" t="n">
         <v>2</v>
       </c>
       <c r="BH73" t="n">
-        <v>22.011379155379</v>
+        <v>22.0558866837796</v>
       </c>
       <c r="BI73" t="n">
         <v>2</v>
       </c>
       <c r="BJ73" t="n">
-        <v>0.0000000174610269429117</v>
+        <v>0.0000000159268252355543</v>
       </c>
       <c r="BK73" t="n">
         <v>2</v>
       </c>
       <c r="BL73" t="n">
-        <v>0.000000000792667195341352</v>
+        <v>0.000000000721379364115441</v>
       </c>
       <c r="BM73" t="n">
         <v>2</v>
       </c>
       <c r="BN73" t="n">
-        <v>0.000000000570086953840817</v>
+        <v>0.000000000521345222688987</v>
       </c>
       <c r="BO73" t="n">
         <v>2</v>
       </c>
       <c r="BP73" t="n">
-        <v>0.00000000000819607814458858</v>
+        <v>0.00000000000742205297104796</v>
       </c>
       <c r="BQ73" t="n">
         <v>2</v>
       </c>
       <c r="BR73" t="n">
-        <v>35.4052218329865</v>
+        <v>35.6323112141761</v>
       </c>
       <c r="BS73" t="n">
         <v>2</v>
@@ -21587,7 +21587,7 @@
         <v>7.74408016513614</v>
       </c>
       <c r="CQ73" t="n">
-        <v>41.6176323560057</v>
+        <v>36.2064329780505</v>
       </c>
     </row>
     <row r="74">
@@ -21727,79 +21727,79 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>23.1451739337383</v>
+        <v>23.0442600646629</v>
       </c>
       <c r="AU74" t="n">
         <v>2</v>
       </c>
       <c r="AV74" t="n">
-        <v>0.0000000194542531432954</v>
+        <v>0.0000000192590586565006</v>
       </c>
       <c r="AW74" t="n">
         <v>2</v>
       </c>
       <c r="AX74" t="n">
-        <v>0.000000000840299611042321</v>
+        <v>0.000000000835587615524436</v>
       </c>
       <c r="AY74" t="n">
         <v>2</v>
       </c>
       <c r="AZ74" t="n">
-        <v>0.000000000512504619069998</v>
+        <v>0.000000000511042429482071</v>
       </c>
       <c r="BA74" t="n">
         <v>2</v>
       </c>
       <c r="BB74" t="n">
-        <v>0.00000000000732487863813994</v>
+        <v>0.00000000000714376500785972</v>
       </c>
       <c r="BC74" t="n">
         <v>2</v>
       </c>
       <c r="BD74" t="n">
-        <v>35.2726770347727</v>
+        <v>35.2450568269482</v>
       </c>
       <c r="BE74" t="n">
         <v>2</v>
       </c>
       <c r="BF74" t="n">
-        <v>0.00000000057023518489942</v>
+        <v>0.000000000521579944287985</v>
       </c>
       <c r="BG74" t="n">
         <v>2</v>
       </c>
       <c r="BH74" t="n">
-        <v>22.0116138728243</v>
+        <v>22.055921496687</v>
       </c>
       <c r="BI74" t="n">
         <v>2</v>
       </c>
       <c r="BJ74" t="n">
-        <v>0.0000000174654051373072</v>
+        <v>0.0000000159336092111179</v>
       </c>
       <c r="BK74" t="n">
         <v>2</v>
       </c>
       <c r="BL74" t="n">
-        <v>0.0000000007928561148219</v>
+        <v>0.000000000721686149877569</v>
       </c>
       <c r="BM74" t="n">
         <v>2</v>
       </c>
       <c r="BN74" t="n">
-        <v>0.00000000057023518489942</v>
+        <v>0.000000000521579944287985</v>
       </c>
       <c r="BO74" t="n">
         <v>2</v>
       </c>
       <c r="BP74" t="n">
-        <v>0.00000000000819821304765557</v>
+        <v>0.00000000000742543796796985</v>
       </c>
       <c r="BQ74" t="n">
         <v>2</v>
       </c>
       <c r="BR74" t="n">
-        <v>35.4069645858509</v>
+        <v>35.6335879964827</v>
       </c>
       <c r="BS74" t="n">
         <v>2</v>
@@ -21874,7 +21874,7 @@
         <v>7.1703531829007</v>
       </c>
       <c r="CQ74" t="n">
-        <v>41.5701753164311</v>
+        <v>36.1717684347688</v>
       </c>
     </row>
     <row r="75">
@@ -22014,79 +22014,79 @@
         <v>2</v>
       </c>
       <c r="AT75" t="n">
-        <v>23.1446165914745</v>
+        <v>23.0437769096694</v>
       </c>
       <c r="AU75" t="n">
         <v>2</v>
       </c>
       <c r="AV75" t="n">
-        <v>0.0000000194587856709825</v>
+        <v>0.0000000192632176608197</v>
       </c>
       <c r="AW75" t="n">
         <v>2</v>
       </c>
       <c r="AX75" t="n">
-        <v>0.000000000840513129783097</v>
+        <v>0.000000000835783315014879</v>
       </c>
       <c r="AY75" t="n">
         <v>2</v>
       </c>
       <c r="AZ75" t="n">
-        <v>0.000000000512676677512094</v>
+        <v>0.000000000511205414969599</v>
       </c>
       <c r="BA75" t="n">
         <v>2</v>
       </c>
       <c r="BB75" t="n">
-        <v>0.00000000000732700990046351</v>
+        <v>0.00000000000714630559886873</v>
       </c>
       <c r="BC75" t="n">
         <v>2</v>
       </c>
       <c r="BD75" t="n">
-        <v>35.274261367681</v>
+        <v>35.2465632534965</v>
       </c>
       <c r="BE75" t="n">
         <v>2</v>
       </c>
       <c r="BF75" t="n">
-        <v>0.000000000570420473721938</v>
+        <v>0.000000000521873346285566</v>
       </c>
       <c r="BG75" t="n">
         <v>2</v>
       </c>
       <c r="BH75" t="n">
-        <v>22.0119072696298</v>
+        <v>22.055965012821</v>
       </c>
       <c r="BI75" t="n">
         <v>2</v>
       </c>
       <c r="BJ75" t="n">
-        <v>0.0000000174708778802798</v>
+        <v>0.0000000159420891805387</v>
       </c>
       <c r="BK75" t="n">
         <v>2</v>
       </c>
       <c r="BL75" t="n">
-        <v>0.000000000793092264171646</v>
+        <v>0.000000000722069632078704</v>
       </c>
       <c r="BM75" t="n">
         <v>2</v>
       </c>
       <c r="BN75" t="n">
-        <v>0.000000000570420473721938</v>
+        <v>0.000000000521873346285566</v>
       </c>
       <c r="BO75" t="n">
         <v>2</v>
       </c>
       <c r="BP75" t="n">
-        <v>0.0000000000082008816764787</v>
+        <v>0.00000000000742966921410539</v>
       </c>
       <c r="BQ75" t="n">
         <v>2</v>
       </c>
       <c r="BR75" t="n">
-        <v>35.4091430269228</v>
+        <v>35.6351839743595</v>
       </c>
       <c r="BS75" t="n">
         <v>2</v>
@@ -22161,7 +22161,7 @@
         <v>7.17013446278017</v>
       </c>
       <c r="CQ75" t="n">
-        <v>41.476303587134</v>
+        <v>36.0983567596869</v>
       </c>
     </row>
     <row r="76">
@@ -22301,79 +22301,79 @@
         <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>23.1440592492106</v>
+        <v>23.043293754676</v>
       </c>
       <c r="AU76" t="n">
         <v>2</v>
       </c>
       <c r="AV76" t="n">
-        <v>0.0000000194633181986696</v>
+        <v>0.0000000192673766651387</v>
       </c>
       <c r="AW76" t="n">
         <v>2</v>
       </c>
       <c r="AX76" t="n">
-        <v>0.000000000840726648523872</v>
+        <v>0.000000000835979014505321</v>
       </c>
       <c r="AY76" t="n">
         <v>2</v>
       </c>
       <c r="AZ76" t="n">
-        <v>0.000000000512848735954191</v>
+        <v>0.000000000511368400457128</v>
       </c>
       <c r="BA76" t="n">
         <v>2</v>
       </c>
       <c r="BB76" t="n">
-        <v>0.00000000000732914116278708</v>
+        <v>0.00000000000714884618987773</v>
       </c>
       <c r="BC76" t="n">
         <v>2</v>
       </c>
       <c r="BD76" t="n">
-        <v>35.2758457005893</v>
+        <v>35.2480696800448</v>
       </c>
       <c r="BE76" t="n">
         <v>2</v>
       </c>
       <c r="BF76" t="n">
-        <v>0.000000000570605762544456</v>
+        <v>0.000000000522166748283148</v>
       </c>
       <c r="BG76" t="n">
         <v>2</v>
       </c>
       <c r="BH76" t="n">
-        <v>22.0122006664352</v>
+        <v>22.0560085289549</v>
       </c>
       <c r="BI76" t="n">
         <v>2</v>
       </c>
       <c r="BJ76" t="n">
-        <v>0.0000000174763506232524</v>
+        <v>0.0000000159505691499595</v>
       </c>
       <c r="BK76" t="n">
         <v>2</v>
       </c>
       <c r="BL76" t="n">
-        <v>0.000000000793328413521393</v>
+        <v>0.000000000722453114279839</v>
       </c>
       <c r="BM76" t="n">
         <v>2</v>
       </c>
       <c r="BN76" t="n">
-        <v>0.000000000570605762544456</v>
+        <v>0.000000000522166748283148</v>
       </c>
       <c r="BO76" t="n">
         <v>2</v>
       </c>
       <c r="BP76" t="n">
-        <v>0.00000000000820355030530182</v>
+        <v>0.00000000000743390046024094</v>
       </c>
       <c r="BQ76" t="n">
         <v>2</v>
       </c>
       <c r="BR76" t="n">
-        <v>35.4113214679946</v>
+        <v>35.6367799522363</v>
       </c>
       <c r="BS76" t="n">
         <v>2</v>
@@ -22448,7 +22448,7 @@
         <v>5.9194396749186</v>
       </c>
       <c r="CQ76" t="n">
-        <v>41.5495307746691</v>
+        <v>36.1703853323022</v>
       </c>
     </row>
     <row r="77">
@@ -22588,79 +22588,79 @@
         <v>2</v>
       </c>
       <c r="AT77" t="n">
-        <v>23.1435019069485</v>
+        <v>23.042810599684</v>
       </c>
       <c r="AU77" t="n">
         <v>2</v>
       </c>
       <c r="AV77" t="n">
-        <v>0.0000000194678507263423</v>
+        <v>0.0000000192715356694444</v>
       </c>
       <c r="AW77" t="n">
         <v>2</v>
       </c>
       <c r="AX77" t="n">
-        <v>0.000000000840940167263969</v>
+        <v>0.000000000836174713995141</v>
       </c>
       <c r="AY77" t="n">
         <v>2</v>
       </c>
       <c r="AZ77" t="n">
-        <v>0.00000000051302079439574</v>
+        <v>0.000000000511531385944138</v>
       </c>
       <c r="BA77" t="n">
         <v>2</v>
       </c>
       <c r="BB77" t="n">
-        <v>0.00000000000733127242510387</v>
+        <v>0.00000000000715138678087866</v>
       </c>
       <c r="BC77" t="n">
         <v>2</v>
       </c>
       <c r="BD77" t="n">
-        <v>35.2774300334926</v>
+        <v>35.2495761065882</v>
       </c>
       <c r="BE77" t="n">
         <v>2</v>
       </c>
       <c r="BF77" t="n">
-        <v>0.000000000570791051366385</v>
+        <v>0.000000000522460150279797</v>
       </c>
       <c r="BG77" t="n">
         <v>2</v>
       </c>
       <c r="BH77" t="n">
-        <v>22.0124940632397</v>
+        <v>22.0560520450888</v>
       </c>
       <c r="BI77" t="n">
         <v>2</v>
       </c>
       <c r="BJ77" t="n">
-        <v>0.0000000174818233662076</v>
+        <v>0.0000000159590491193533</v>
       </c>
       <c r="BK77" t="n">
         <v>2</v>
       </c>
       <c r="BL77" t="n">
-        <v>0.000000000793564562870389</v>
+        <v>0.000000000722836596479755</v>
       </c>
       <c r="BM77" t="n">
         <v>2</v>
       </c>
       <c r="BN77" t="n">
-        <v>0.000000000570791051366385</v>
+        <v>0.000000000522460150279797</v>
       </c>
       <c r="BO77" t="n">
         <v>2</v>
       </c>
       <c r="BP77" t="n">
-        <v>0.00000000000820621893411647</v>
+        <v>0.00000000000743813170636303</v>
       </c>
       <c r="BQ77" t="n">
         <v>2</v>
       </c>
       <c r="BR77" t="n">
-        <v>35.4134999090596</v>
+        <v>35.638375930108</v>
       </c>
       <c r="BS77" t="n">
         <v>2</v>
@@ -22735,7 +22735,7 @@
         <v>5.93816921241341</v>
       </c>
       <c r="CQ77" t="n">
-        <v>41.5752607535608</v>
+        <v>36.2010976555567</v>
       </c>
     </row>
     <row r="78">
@@ -22875,79 +22875,79 @@
         <v>2</v>
       </c>
       <c r="AT78" t="n">
-        <v>23.1430560331356</v>
+        <v>23.0424240756877</v>
       </c>
       <c r="AU78" t="n">
         <v>2</v>
       </c>
       <c r="AV78" t="n">
-        <v>0.0000000194714767485063</v>
+        <v>0.0000000192748628729129</v>
       </c>
       <c r="AW78" t="n">
         <v>2</v>
       </c>
       <c r="AX78" t="n">
-        <v>0.000000000841110982257268</v>
+        <v>0.000000000836331273588117</v>
       </c>
       <c r="AY78" t="n">
         <v>2</v>
       </c>
       <c r="AZ78" t="n">
-        <v>0.000000000513158441149964</v>
+        <v>0.000000000511661774334679</v>
       </c>
       <c r="BA78" t="n">
         <v>2</v>
       </c>
       <c r="BB78" t="n">
-        <v>0.00000000000733297743496951</v>
+        <v>0.00000000000715341925369395</v>
       </c>
       <c r="BC78" t="n">
         <v>2</v>
       </c>
       <c r="BD78" t="n">
-        <v>35.2786974998243</v>
+        <v>35.2507812478317</v>
       </c>
       <c r="BE78" t="n">
         <v>2</v>
       </c>
       <c r="BF78" t="n">
-        <v>0.000000000570939282424989</v>
+        <v>0.000000000522694871878795</v>
       </c>
       <c r="BG78" t="n">
         <v>2</v>
       </c>
       <c r="BH78" t="n">
-        <v>22.012728780685</v>
+        <v>22.0560868579961</v>
       </c>
       <c r="BI78" t="n">
         <v>2</v>
       </c>
       <c r="BJ78" t="n">
-        <v>0.0000000174862015606031</v>
+        <v>0.0000000159658330949169</v>
       </c>
       <c r="BK78" t="n">
         <v>2</v>
       </c>
       <c r="BL78" t="n">
-        <v>0.000000000793753482350937</v>
+        <v>0.000000000723143382241882</v>
       </c>
       <c r="BM78" t="n">
         <v>2</v>
       </c>
       <c r="BN78" t="n">
-        <v>0.000000000570939282424989</v>
+        <v>0.000000000522694871878795</v>
       </c>
       <c r="BO78" t="n">
         <v>2</v>
       </c>
       <c r="BP78" t="n">
-        <v>0.00000000000820835383718346</v>
+        <v>0.00000000000744151670328491</v>
       </c>
       <c r="BQ78" t="n">
         <v>2</v>
       </c>
       <c r="BR78" t="n">
-        <v>35.415242661924</v>
+        <v>35.6396527124145</v>
       </c>
       <c r="BS78" t="n">
         <v>2</v>
@@ -23022,7 +23022,7 @@
         <v>6.70243938017233</v>
       </c>
       <c r="CQ78" t="n">
-        <v>41.5951910919066</v>
+        <v>36.2251143631414</v>
       </c>
     </row>
     <row r="79">
@@ -23162,79 +23162,79 @@
         <v>2</v>
       </c>
       <c r="AT79" t="n">
-        <v>23.1424986908717</v>
+        <v>23.0419409206942</v>
       </c>
       <c r="AU79" t="n">
         <v>2</v>
       </c>
       <c r="AV79" t="n">
-        <v>0.0000000194760092761934</v>
+        <v>0.0000000192790218772319</v>
       </c>
       <c r="AW79" t="n">
         <v>2</v>
       </c>
       <c r="AX79" t="n">
-        <v>0.000000000841324500998044</v>
+        <v>0.000000000836526973078559</v>
       </c>
       <c r="AY79" t="n">
         <v>2</v>
       </c>
       <c r="AZ79" t="n">
-        <v>0.00000000051333049959206</v>
+        <v>0.000000000511824759822208</v>
       </c>
       <c r="BA79" t="n">
         <v>2</v>
       </c>
       <c r="BB79" t="n">
-        <v>0.00000000000733510869729308</v>
+        <v>0.00000000000715595984470295</v>
       </c>
       <c r="BC79" t="n">
         <v>2</v>
       </c>
       <c r="BD79" t="n">
-        <v>35.2802818327326</v>
+        <v>35.2522876743799</v>
       </c>
       <c r="BE79" t="n">
         <v>2</v>
       </c>
       <c r="BF79" t="n">
-        <v>0.000000000571124571247507</v>
+        <v>0.000000000522988273876376</v>
       </c>
       <c r="BG79" t="n">
         <v>2</v>
       </c>
       <c r="BH79" t="n">
-        <v>22.0130221774905</v>
+        <v>22.0561303741301</v>
       </c>
       <c r="BI79" t="n">
         <v>2</v>
       </c>
       <c r="BJ79" t="n">
-        <v>0.0000000174916743035757</v>
+        <v>0.0000000159743130643377</v>
       </c>
       <c r="BK79" t="n">
         <v>2</v>
       </c>
       <c r="BL79" t="n">
-        <v>0.000000000793989631700684</v>
+        <v>0.000000000723526864443018</v>
       </c>
       <c r="BM79" t="n">
         <v>2</v>
       </c>
       <c r="BN79" t="n">
-        <v>0.000000000571124571247507</v>
+        <v>0.000000000522988273876376</v>
       </c>
       <c r="BO79" t="n">
         <v>2</v>
       </c>
       <c r="BP79" t="n">
-        <v>0.00000000000821102246600659</v>
+        <v>0.00000000000744574794942046</v>
       </c>
       <c r="BQ79" t="n">
         <v>2</v>
       </c>
       <c r="BR79" t="n">
-        <v>35.4174211029959</v>
+        <v>35.6412486902913</v>
       </c>
       <c r="BS79" t="n">
         <v>2</v>
@@ -23309,7 +23309,7 @@
         <v>6.99623733476838</v>
       </c>
       <c r="CQ79" t="n">
-        <v>41.5424319696378</v>
+        <v>36.1874952276797</v>
       </c>
     </row>
     <row r="80">
@@ -23449,79 +23449,79 @@
         <v>2</v>
       </c>
       <c r="AT80" t="n">
-        <v>23.1419413486078</v>
+        <v>23.0414577657007</v>
       </c>
       <c r="AU80" t="n">
         <v>2</v>
       </c>
       <c r="AV80" t="n">
-        <v>0.0000000194805418038805</v>
+        <v>0.0000000192831808815509</v>
       </c>
       <c r="AW80" t="n">
         <v>2</v>
       </c>
       <c r="AX80" t="n">
-        <v>0.000000000841538019738819</v>
+        <v>0.000000000836722672569001</v>
       </c>
       <c r="AY80" t="n">
         <v>2</v>
       </c>
       <c r="AZ80" t="n">
-        <v>0.000000000513502558034156</v>
+        <v>0.000000000511987745309736</v>
       </c>
       <c r="BA80" t="n">
         <v>2</v>
       </c>
       <c r="BB80" t="n">
-        <v>0.00000000000733723995961665</v>
+        <v>0.00000000000715850043571196</v>
       </c>
       <c r="BC80" t="n">
         <v>2</v>
       </c>
       <c r="BD80" t="n">
-        <v>35.2818661656409</v>
+        <v>35.2537941009282</v>
       </c>
       <c r="BE80" t="n">
         <v>2</v>
       </c>
       <c r="BF80" t="n">
-        <v>0.000000000571309860070025</v>
+        <v>0.000000000523281675873957</v>
       </c>
       <c r="BG80" t="n">
         <v>2</v>
       </c>
       <c r="BH80" t="n">
-        <v>22.0133155742959</v>
+        <v>22.0561738902641</v>
       </c>
       <c r="BI80" t="n">
         <v>2</v>
       </c>
       <c r="BJ80" t="n">
-        <v>0.0000000174971470465483</v>
+        <v>0.0000000159827930337585</v>
       </c>
       <c r="BK80" t="n">
         <v>2</v>
       </c>
       <c r="BL80" t="n">
-        <v>0.00000000079422578105043</v>
+        <v>0.000000000723910346644153</v>
       </c>
       <c r="BM80" t="n">
         <v>2</v>
       </c>
       <c r="BN80" t="n">
-        <v>0.000000000571309860070025</v>
+        <v>0.000000000523281675873957</v>
       </c>
       <c r="BO80" t="n">
         <v>2</v>
       </c>
       <c r="BP80" t="n">
-        <v>0.00000000000821369109482971</v>
+        <v>0.000000000007449979195556</v>
       </c>
       <c r="BQ80" t="n">
         <v>2</v>
       </c>
       <c r="BR80" t="n">
-        <v>35.4195995440678</v>
+        <v>35.6428446681681</v>
       </c>
       <c r="BS80" t="n">
         <v>2</v>
@@ -23596,7 +23596,7 @@
         <v>7.01169755782352</v>
       </c>
       <c r="CQ80" t="n">
-        <v>41.5396789296752</v>
+        <v>36.1934372341435</v>
       </c>
     </row>
     <row r="81">
@@ -23736,79 +23736,79 @@
         <v>2</v>
       </c>
       <c r="AT81" t="n">
-        <v>23.1413840063457</v>
+        <v>23.0409746107088</v>
       </c>
       <c r="AU81" t="n">
         <v>2</v>
       </c>
       <c r="AV81" t="n">
-        <v>0.0000000194850743315532</v>
+        <v>0.0000000192873398858567</v>
       </c>
       <c r="AW81" t="n">
         <v>2</v>
       </c>
       <c r="AX81" t="n">
-        <v>0.000000000841751538478916</v>
+        <v>0.000000000836918372058821</v>
       </c>
       <c r="AY81" t="n">
         <v>2</v>
       </c>
       <c r="AZ81" t="n">
-        <v>0.000000000513674616475706</v>
+        <v>0.000000000512150730796746</v>
       </c>
       <c r="BA81" t="n">
         <v>2</v>
       </c>
       <c r="BB81" t="n">
-        <v>0.00000000000733937122193345</v>
+        <v>0.00000000000716104102671289</v>
       </c>
       <c r="BC81" t="n">
         <v>2</v>
       </c>
       <c r="BD81" t="n">
-        <v>35.2834504985441</v>
+        <v>35.2553005274717</v>
       </c>
       <c r="BE81" t="n">
         <v>2</v>
       </c>
       <c r="BF81" t="n">
-        <v>0.000000000571495148891954</v>
+        <v>0.000000000523575077870606</v>
       </c>
       <c r="BG81" t="n">
         <v>2</v>
       </c>
       <c r="BH81" t="n">
-        <v>22.0136089711004</v>
+        <v>22.0562174063979</v>
       </c>
       <c r="BI81" t="n">
         <v>2</v>
       </c>
       <c r="BJ81" t="n">
-        <v>0.0000000175026197895035</v>
+        <v>0.0000000159912730031524</v>
       </c>
       <c r="BK81" t="n">
         <v>2</v>
       </c>
       <c r="BL81" t="n">
-        <v>0.000000000794461930399426</v>
+        <v>0.000000000724293828844069</v>
       </c>
       <c r="BM81" t="n">
         <v>2</v>
       </c>
       <c r="BN81" t="n">
-        <v>0.000000000571495148891954</v>
+        <v>0.000000000523575077870606</v>
       </c>
       <c r="BO81" t="n">
         <v>2</v>
       </c>
       <c r="BP81" t="n">
-        <v>0.00000000000821635972364436</v>
+        <v>0.00000000000745421044167809</v>
       </c>
       <c r="BQ81" t="n">
         <v>2</v>
       </c>
       <c r="BR81" t="n">
-        <v>35.4217779851327</v>
+        <v>35.6444406460398</v>
       </c>
       <c r="BS81" t="n">
         <v>2</v>
@@ -23883,7 +23883,7 @@
         <v>7.47253887115824</v>
       </c>
       <c r="CQ81" t="n">
-        <v>41.4857236359436</v>
+        <v>36.1547675617409</v>
       </c>
     </row>
     <row r="82">
@@ -24023,79 +24023,79 @@
         <v>2</v>
       </c>
       <c r="AT82" t="n">
-        <v>23.1409381325329</v>
+        <v>23.0405880867124</v>
       </c>
       <c r="AU82" t="n">
         <v>2</v>
       </c>
       <c r="AV82" t="n">
-        <v>0.0000000194887003537173</v>
+        <v>0.0000000192906670893251</v>
       </c>
       <c r="AW82" t="n">
         <v>2</v>
       </c>
       <c r="AX82" t="n">
-        <v>0.000000000841922353472215</v>
+        <v>0.000000000837074931651797</v>
       </c>
       <c r="AY82" t="n">
         <v>2</v>
       </c>
       <c r="AZ82" t="n">
-        <v>0.00000000051381226322993</v>
+        <v>0.000000000512281119187287</v>
       </c>
       <c r="BA82" t="n">
         <v>2</v>
       </c>
       <c r="BB82" t="n">
-        <v>0.00000000000734107623179908</v>
+        <v>0.00000000000716307349952817</v>
       </c>
       <c r="BC82" t="n">
         <v>2</v>
       </c>
       <c r="BD82" t="n">
-        <v>35.2847179648758</v>
+        <v>35.2565056687151</v>
       </c>
       <c r="BE82" t="n">
         <v>2</v>
       </c>
       <c r="BF82" t="n">
-        <v>0.000000000571643379950557</v>
+        <v>0.000000000523809799469604</v>
       </c>
       <c r="BG82" t="n">
         <v>2</v>
       </c>
       <c r="BH82" t="n">
-        <v>22.0138436885457</v>
+        <v>22.0562522193053</v>
       </c>
       <c r="BI82" t="n">
         <v>2</v>
       </c>
       <c r="BJ82" t="n">
-        <v>0.000000017506997983899</v>
+        <v>0.000000015998056978716</v>
       </c>
       <c r="BK82" t="n">
         <v>2</v>
       </c>
       <c r="BL82" t="n">
-        <v>0.000000000794650849879974</v>
+        <v>0.000000000724600614606196</v>
       </c>
       <c r="BM82" t="n">
         <v>2</v>
       </c>
       <c r="BN82" t="n">
-        <v>0.000000000571643379950557</v>
+        <v>0.000000000523809799469604</v>
       </c>
       <c r="BO82" t="n">
         <v>2</v>
       </c>
       <c r="BP82" t="n">
-        <v>0.00000000000821849462671135</v>
+        <v>0.00000000000745759543859998</v>
       </c>
       <c r="BQ82" t="n">
         <v>2</v>
       </c>
       <c r="BR82" t="n">
-        <v>35.4235207379971</v>
+        <v>35.6457174283463</v>
       </c>
       <c r="BS82" t="n">
         <v>2</v>
@@ -24170,7 +24170,7 @@
         <v>7.49058868483862</v>
       </c>
       <c r="CQ82" t="n">
-        <v>41.5134685227124</v>
+        <v>36.1856335928809</v>
       </c>
     </row>
     <row r="83">
@@ -24310,79 +24310,79 @@
         <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>23.140380790269</v>
+        <v>23.040104931719</v>
       </c>
       <c r="AU83" t="n">
         <v>2</v>
       </c>
       <c r="AV83" t="n">
-        <v>0.0000000194932328814043</v>
+        <v>0.0000000192948260936441</v>
       </c>
       <c r="AW83" t="n">
         <v>2</v>
       </c>
       <c r="AX83" t="n">
-        <v>0.000000000842135872212991</v>
+        <v>0.000000000837270631142239</v>
       </c>
       <c r="AY83" t="n">
         <v>2</v>
       </c>
       <c r="AZ83" t="n">
-        <v>0.000000000513984321672026</v>
+        <v>0.000000000512444104674816</v>
       </c>
       <c r="BA83" t="n">
         <v>2</v>
       </c>
       <c r="BB83" t="n">
-        <v>0.00000000000734320749412265</v>
+        <v>0.00000000000716561409053718</v>
       </c>
       <c r="BC83" t="n">
         <v>2</v>
       </c>
       <c r="BD83" t="n">
-        <v>35.2863022977841</v>
+        <v>35.2580120952634</v>
       </c>
       <c r="BE83" t="n">
         <v>2</v>
       </c>
       <c r="BF83" t="n">
-        <v>0.000000000571828668773076</v>
+        <v>0.000000000524103201467186</v>
       </c>
       <c r="BG83" t="n">
         <v>2</v>
       </c>
       <c r="BH83" t="n">
-        <v>22.0141370853512</v>
+        <v>22.0562957354392</v>
       </c>
       <c r="BI83" t="n">
         <v>2</v>
       </c>
       <c r="BJ83" t="n">
-        <v>0.0000000175124707268716</v>
+        <v>0.0000000160065369481368</v>
       </c>
       <c r="BK83" t="n">
         <v>2</v>
       </c>
       <c r="BL83" t="n">
-        <v>0.000000000794886999229721</v>
+        <v>0.000000000724984096807332</v>
       </c>
       <c r="BM83" t="n">
         <v>2</v>
       </c>
       <c r="BN83" t="n">
-        <v>0.000000000571828668773076</v>
+        <v>0.000000000524103201467186</v>
       </c>
       <c r="BO83" t="n">
         <v>2</v>
       </c>
       <c r="BP83" t="n">
-        <v>0.00000000000822116325553447</v>
+        <v>0.00000000000746182668473552</v>
       </c>
       <c r="BQ83" t="n">
         <v>2</v>
       </c>
       <c r="BR83" t="n">
-        <v>35.425699179069</v>
+        <v>35.6473134062231</v>
       </c>
       <c r="BS83" t="n">
         <v>2</v>
@@ -24457,7 +24457,7 @@
         <v>7.41369434791237</v>
       </c>
       <c r="CQ83" t="n">
-        <v>41.4966134250086</v>
+        <v>36.1793072325264</v>
       </c>
     </row>
     <row r="84">
@@ -24597,79 +24597,79 @@
         <v>2</v>
       </c>
       <c r="AT84" t="n">
-        <v>23.1398234480069</v>
+        <v>23.039621776727</v>
       </c>
       <c r="AU84" t="n">
         <v>2</v>
       </c>
       <c r="AV84" t="n">
-        <v>0.000000019497765409077</v>
+        <v>0.0000000192989850979499</v>
       </c>
       <c r="AW84" t="n">
         <v>2</v>
       </c>
       <c r="AX84" t="n">
-        <v>0.000000000842349390953087</v>
+        <v>0.000000000837466330632059</v>
       </c>
       <c r="AY84" t="n">
         <v>2</v>
       </c>
       <c r="AZ84" t="n">
-        <v>0.000000000514156380113575</v>
+        <v>0.000000000512607090161826</v>
       </c>
       <c r="BA84" t="n">
         <v>2</v>
       </c>
       <c r="BB84" t="n">
-        <v>0.00000000000734533875643945</v>
+        <v>0.00000000000716815468153811</v>
       </c>
       <c r="BC84" t="n">
         <v>2</v>
       </c>
       <c r="BD84" t="n">
-        <v>35.2878866306874</v>
+        <v>35.2595185218069</v>
       </c>
       <c r="BE84" t="n">
         <v>2</v>
       </c>
       <c r="BF84" t="n">
-        <v>0.000000000572013957595005</v>
+        <v>0.000000000524396603463834</v>
       </c>
       <c r="BG84" t="n">
         <v>2</v>
       </c>
       <c r="BH84" t="n">
-        <v>22.0144304821557</v>
+        <v>22.0563392515731</v>
       </c>
       <c r="BI84" t="n">
         <v>2</v>
       </c>
       <c r="BJ84" t="n">
-        <v>0.0000000175179434698268</v>
+        <v>0.0000000160150169175306</v>
       </c>
       <c r="BK84" t="n">
         <v>2</v>
       </c>
       <c r="BL84" t="n">
-        <v>0.000000000795123148578717</v>
+        <v>0.000000000725367579007248</v>
       </c>
       <c r="BM84" t="n">
         <v>2</v>
       </c>
       <c r="BN84" t="n">
-        <v>0.000000000572013957595005</v>
+        <v>0.000000000524396603463834</v>
       </c>
       <c r="BO84" t="n">
         <v>2</v>
       </c>
       <c r="BP84" t="n">
-        <v>0.00000000000822383188434912</v>
+        <v>0.00000000000746605793085761</v>
       </c>
       <c r="BQ84" t="n">
         <v>2</v>
       </c>
       <c r="BR84" t="n">
-        <v>35.4278776201339</v>
+        <v>35.6489093840948</v>
       </c>
       <c r="BS84" t="n">
         <v>2</v>
@@ -24744,7 +24744,7 @@
         <v>7.52246908174681</v>
       </c>
       <c r="CQ84" t="n">
-        <v>41.4555028667771</v>
+        <v>36.1518339738199</v>
       </c>
     </row>
     <row r="85">
@@ -24884,79 +24884,79 @@
         <v>2</v>
       </c>
       <c r="AT85" t="n">
-        <v>23.139377574194</v>
+        <v>23.0392352527307</v>
       </c>
       <c r="AU85" t="n">
         <v>2</v>
       </c>
       <c r="AV85" t="n">
-        <v>0.0000000195013914312411</v>
+        <v>0.0000000193023123014183</v>
       </c>
       <c r="AW85" t="n">
         <v>2</v>
       </c>
       <c r="AX85" t="n">
-        <v>0.000000000842520205946386</v>
+        <v>0.000000000837622890225035</v>
       </c>
       <c r="AY85" t="n">
         <v>2</v>
       </c>
       <c r="AZ85" t="n">
-        <v>0.000000000514294026867799</v>
+        <v>0.000000000512737478552367</v>
       </c>
       <c r="BA85" t="n">
         <v>2</v>
       </c>
       <c r="BB85" t="n">
-        <v>0.00000000000734704376630508</v>
+        <v>0.00000000000717018715435339</v>
       </c>
       <c r="BC85" t="n">
         <v>2</v>
       </c>
       <c r="BD85" t="n">
-        <v>35.2891540970191</v>
+        <v>35.2607236630503</v>
       </c>
       <c r="BE85" t="n">
         <v>2</v>
       </c>
       <c r="BF85" t="n">
-        <v>0.000000000572162188653608</v>
+        <v>0.000000000524631325062832</v>
       </c>
       <c r="BG85" t="n">
         <v>2</v>
       </c>
       <c r="BH85" t="n">
-        <v>22.014665199601</v>
+        <v>22.0563740644804</v>
       </c>
       <c r="BI85" t="n">
         <v>2</v>
       </c>
       <c r="BJ85" t="n">
-        <v>0.0000000175223216642223</v>
+        <v>0.0000000160218008930942</v>
       </c>
       <c r="BK85" t="n">
         <v>2</v>
       </c>
       <c r="BL85" t="n">
-        <v>0.000000000795312068059265</v>
+        <v>0.000000000725674364769375</v>
       </c>
       <c r="BM85" t="n">
         <v>2</v>
       </c>
       <c r="BN85" t="n">
-        <v>0.000000000572162188653608</v>
+        <v>0.000000000524631325062832</v>
       </c>
       <c r="BO85" t="n">
         <v>2</v>
       </c>
       <c r="BP85" t="n">
-        <v>0.00000000000822596678741611</v>
+        <v>0.0000000000074694429277795</v>
       </c>
       <c r="BQ85" t="n">
         <v>2</v>
       </c>
       <c r="BR85" t="n">
-        <v>35.4296203729984</v>
+        <v>35.6501861664014</v>
       </c>
       <c r="BS85" t="n">
         <v>2</v>
@@ -25031,7 +25031,7 @@
         <v>7.53666881250179</v>
       </c>
       <c r="CQ85" t="n">
-        <v>41.4615712408571</v>
+        <v>36.1638313309496</v>
       </c>
     </row>
     <row r="86">
@@ -25171,79 +25171,79 @@
         <v>2</v>
       </c>
       <c r="AT86" t="n">
-        <v>23.1388202319301</v>
+        <v>23.0387520977372</v>
       </c>
       <c r="AU86" t="n">
         <v>2</v>
       </c>
       <c r="AV86" t="n">
-        <v>0.0000000195059239589282</v>
+        <v>0.0000000193064713057373</v>
       </c>
       <c r="AW86" t="n">
         <v>2</v>
       </c>
       <c r="AX86" t="n">
-        <v>0.000000000842733724687162</v>
+        <v>0.000000000837818589715477</v>
       </c>
       <c r="AY86" t="n">
         <v>2</v>
       </c>
       <c r="AZ86" t="n">
-        <v>0.000000000514466085309895</v>
+        <v>0.000000000512900464039896</v>
       </c>
       <c r="BA86" t="n">
         <v>2</v>
       </c>
       <c r="BB86" t="n">
-        <v>0.00000000000734917502862865</v>
+        <v>0.0000000000071727277453624</v>
       </c>
       <c r="BC86" t="n">
         <v>2</v>
       </c>
       <c r="BD86" t="n">
-        <v>35.2907384299274</v>
+        <v>35.2622300895986</v>
       </c>
       <c r="BE86" t="n">
         <v>2</v>
       </c>
       <c r="BF86" t="n">
-        <v>0.000000000572347477476126</v>
+        <v>0.000000000524924727060414</v>
       </c>
       <c r="BG86" t="n">
         <v>2</v>
       </c>
       <c r="BH86" t="n">
-        <v>22.0149585964065</v>
+        <v>22.0564175806144</v>
       </c>
       <c r="BI86" t="n">
         <v>2</v>
       </c>
       <c r="BJ86" t="n">
-        <v>0.0000000175277944071949</v>
+        <v>0.000000016030280862515</v>
       </c>
       <c r="BK86" t="n">
         <v>2</v>
       </c>
       <c r="BL86" t="n">
-        <v>0.000000000795548217409012</v>
+        <v>0.00000000072605784697051</v>
       </c>
       <c r="BM86" t="n">
         <v>2</v>
       </c>
       <c r="BN86" t="n">
-        <v>0.000000000572347477476126</v>
+        <v>0.000000000524924727060414</v>
       </c>
       <c r="BO86" t="n">
         <v>2</v>
       </c>
       <c r="BP86" t="n">
-        <v>0.00000000000822863541623924</v>
+        <v>0.00000000000747367417391504</v>
       </c>
       <c r="BQ86" t="n">
         <v>2</v>
       </c>
       <c r="BR86" t="n">
-        <v>35.4317988140702</v>
+        <v>35.6517821442782</v>
       </c>
       <c r="BS86" t="n">
         <v>2</v>
@@ -25318,7 +25318,7 @@
         <v>7.62069803432348</v>
       </c>
       <c r="CQ86" t="n">
-        <v>41.4067985179677</v>
+        <v>36.1244387983762</v>
       </c>
     </row>
     <row r="87">
@@ -25458,79 +25458,79 @@
         <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>23.1382628896662</v>
+        <v>23.0382689427437</v>
       </c>
       <c r="AU87" t="n">
         <v>2</v>
       </c>
       <c r="AV87" t="n">
-        <v>0.0000000195104564866153</v>
+        <v>0.0000000193106303100563</v>
       </c>
       <c r="AW87" t="n">
         <v>2</v>
       </c>
       <c r="AX87" t="n">
-        <v>0.000000000842947243427937</v>
+        <v>0.000000000838014289205919</v>
       </c>
       <c r="AY87" t="n">
         <v>2</v>
       </c>
       <c r="AZ87" t="n">
-        <v>0.000000000514638143751992</v>
+        <v>0.000000000513063449527424</v>
       </c>
       <c r="BA87" t="n">
         <v>2</v>
       </c>
       <c r="BB87" t="n">
-        <v>0.00000000000735130629095222</v>
+        <v>0.00000000000717526833637141</v>
       </c>
       <c r="BC87" t="n">
         <v>2</v>
       </c>
       <c r="BD87" t="n">
-        <v>35.2923227628357</v>
+        <v>35.2637365161469</v>
       </c>
       <c r="BE87" t="n">
         <v>2</v>
       </c>
       <c r="BF87" t="n">
-        <v>0.000000000572532766298644</v>
+        <v>0.000000000525218129057995</v>
       </c>
       <c r="BG87" t="n">
         <v>2</v>
       </c>
       <c r="BH87" t="n">
-        <v>22.0152519932119</v>
+        <v>22.0564610967484</v>
       </c>
       <c r="BI87" t="n">
         <v>2</v>
       </c>
       <c r="BJ87" t="n">
-        <v>0.0000000175332671501675</v>
+        <v>0.0000000160387608319358</v>
       </c>
       <c r="BK87" t="n">
         <v>2</v>
       </c>
       <c r="BL87" t="n">
-        <v>0.000000000795784366758758</v>
+        <v>0.000000000726441329171645</v>
       </c>
       <c r="BM87" t="n">
         <v>2</v>
       </c>
       <c r="BN87" t="n">
-        <v>0.000000000572532766298644</v>
+        <v>0.000000000525218129057995</v>
       </c>
       <c r="BO87" t="n">
         <v>2</v>
       </c>
       <c r="BP87" t="n">
-        <v>0.00000000000823130404506237</v>
+        <v>0.00000000000747790542005058</v>
       </c>
       <c r="BQ87" t="n">
         <v>2</v>
       </c>
       <c r="BR87" t="n">
-        <v>35.4339772551421</v>
+        <v>35.653378122155</v>
       </c>
       <c r="BS87" t="n">
         <v>2</v>
@@ -25605,7 +25605,7 @@
         <v>7.63553526203096</v>
       </c>
       <c r="CQ87" t="n">
-        <v>41.3979972067499</v>
+        <v>36.1251523855564</v>
       </c>
     </row>
     <row r="88">
@@ -25745,79 +25745,79 @@
         <v>2</v>
       </c>
       <c r="AT88" t="n">
-        <v>23.1377055474041</v>
+        <v>23.0377857877518</v>
       </c>
       <c r="AU88" t="n">
         <v>2</v>
       </c>
       <c r="AV88" t="n">
-        <v>0.0000000195149890142879</v>
+        <v>0.0000000193147893143621</v>
       </c>
       <c r="AW88" t="n">
         <v>2</v>
       </c>
       <c r="AX88" t="n">
-        <v>0.000000000843160762168034</v>
+        <v>0.000000000838209988695739</v>
       </c>
       <c r="AY88" t="n">
         <v>2</v>
       </c>
       <c r="AZ88" t="n">
-        <v>0.000000000514810202193541</v>
+        <v>0.000000000513226435014434</v>
       </c>
       <c r="BA88" t="n">
         <v>2</v>
       </c>
       <c r="BB88" t="n">
-        <v>0.00000000000735343755326902</v>
+        <v>0.00000000000717780892737234</v>
       </c>
       <c r="BC88" t="n">
         <v>2</v>
       </c>
       <c r="BD88" t="n">
-        <v>35.2939070957389</v>
+        <v>35.2652429426904</v>
       </c>
       <c r="BE88" t="n">
         <v>2</v>
       </c>
       <c r="BF88" t="n">
-        <v>0.000000000572718055120573</v>
+        <v>0.000000000525511531054644</v>
       </c>
       <c r="BG88" t="n">
         <v>2</v>
       </c>
       <c r="BH88" t="n">
-        <v>22.0155453900164</v>
+        <v>22.0565046128822</v>
       </c>
       <c r="BI88" t="n">
         <v>2</v>
       </c>
       <c r="BJ88" t="n">
-        <v>0.0000000175387398931227</v>
+        <v>0.0000000160472408013296</v>
       </c>
       <c r="BK88" t="n">
         <v>2</v>
       </c>
       <c r="BL88" t="n">
-        <v>0.000000000796020516107754</v>
+        <v>0.000000000726824811371562</v>
       </c>
       <c r="BM88" t="n">
         <v>2</v>
       </c>
       <c r="BN88" t="n">
-        <v>0.000000000572718055120573</v>
+        <v>0.000000000525511531054644</v>
       </c>
       <c r="BO88" t="n">
         <v>2</v>
       </c>
       <c r="BP88" t="n">
-        <v>0.00000000000823397267387701</v>
+        <v>0.00000000000748213666617267</v>
       </c>
       <c r="BQ88" t="n">
         <v>2</v>
       </c>
       <c r="BR88" t="n">
-        <v>35.4361556962071</v>
+        <v>35.6549741000267</v>
       </c>
       <c r="BS88" t="n">
         <v>2</v>
@@ -25892,7 +25892,7 @@
         <v>7.28714505275269</v>
       </c>
       <c r="CQ88" t="n">
-        <v>41.3366582601075</v>
+        <v>36.0800180786402</v>
       </c>
     </row>
     <row r="89">
@@ -26032,79 +26032,79 @@
         <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>23.1372596735913</v>
+        <v>23.0373992637554</v>
       </c>
       <c r="AU89" t="n">
         <v>2</v>
       </c>
       <c r="AV89" t="n">
-        <v>0.000000019518615036452</v>
+        <v>0.0000000193181165178306</v>
       </c>
       <c r="AW89" t="n">
         <v>2</v>
       </c>
       <c r="AX89" t="n">
-        <v>0.000000000843331577161333</v>
+        <v>0.000000000838366548288715</v>
       </c>
       <c r="AY89" t="n">
         <v>2</v>
       </c>
       <c r="AZ89" t="n">
-        <v>0.000000000514947848947765</v>
+        <v>0.000000000513356823404975</v>
       </c>
       <c r="BA89" t="n">
         <v>2</v>
       </c>
       <c r="BB89" t="n">
-        <v>0.00000000000735514256313465</v>
+        <v>0.00000000000717984140018762</v>
       </c>
       <c r="BC89" t="n">
         <v>2</v>
       </c>
       <c r="BD89" t="n">
-        <v>35.2951745620706</v>
+        <v>35.2664480839338</v>
       </c>
       <c r="BE89" t="n">
         <v>2</v>
       </c>
       <c r="BF89" t="n">
-        <v>0.000000000572866286179177</v>
+        <v>0.000000000525746252653642</v>
       </c>
       <c r="BG89" t="n">
         <v>2</v>
       </c>
       <c r="BH89" t="n">
-        <v>22.0157801074617</v>
+        <v>22.0565394257896</v>
       </c>
       <c r="BI89" t="n">
         <v>2</v>
       </c>
       <c r="BJ89" t="n">
-        <v>0.0000000175431180875182</v>
+        <v>0.0000000160540247768932</v>
       </c>
       <c r="BK89" t="n">
         <v>2</v>
       </c>
       <c r="BL89" t="n">
-        <v>0.000000000796209435588302</v>
+        <v>0.000000000727131597133689</v>
       </c>
       <c r="BM89" t="n">
         <v>2</v>
       </c>
       <c r="BN89" t="n">
-        <v>0.000000000572866286179177</v>
+        <v>0.000000000525746252653642</v>
       </c>
       <c r="BO89" t="n">
         <v>2</v>
       </c>
       <c r="BP89" t="n">
-        <v>0.000000000008236107576944</v>
+        <v>0.00000000000748552166309456</v>
       </c>
       <c r="BQ89" t="n">
         <v>2</v>
       </c>
       <c r="BR89" t="n">
-        <v>35.4378984490715</v>
+        <v>35.6562508823332</v>
       </c>
       <c r="BS89" t="n">
         <v>2</v>
@@ -26179,7 +26179,7 @@
         <v>7.28209359003276</v>
       </c>
       <c r="CQ89" t="n">
-        <v>41.234652319458</v>
+        <v>35.9976896817292</v>
       </c>
     </row>
     <row r="90">
@@ -26319,79 +26319,79 @@
         <v>2</v>
       </c>
       <c r="AT90" t="n">
-        <v>23.1367023313274</v>
+        <v>23.036916108762</v>
       </c>
       <c r="AU90" t="n">
         <v>2</v>
       </c>
       <c r="AV90" t="n">
-        <v>0.0000000195231475641391</v>
+        <v>0.0000000193222755221496</v>
       </c>
       <c r="AW90" t="n">
         <v>2</v>
       </c>
       <c r="AX90" t="n">
-        <v>0.000000000843545095902109</v>
+        <v>0.000000000838562247779157</v>
       </c>
       <c r="AY90" t="n">
         <v>2</v>
       </c>
       <c r="AZ90" t="n">
-        <v>0.000000000515119907389861</v>
+        <v>0.000000000513519808892504</v>
       </c>
       <c r="BA90" t="n">
         <v>2</v>
       </c>
       <c r="BB90" t="n">
-        <v>0.00000000000735727382545822</v>
+        <v>0.00000000000718238199119663</v>
       </c>
       <c r="BC90" t="n">
         <v>2</v>
       </c>
       <c r="BD90" t="n">
-        <v>35.2967588949789</v>
+        <v>35.2679545104821</v>
       </c>
       <c r="BE90" t="n">
         <v>2</v>
       </c>
       <c r="BF90" t="n">
-        <v>0.000000000573051575001695</v>
+        <v>0.000000000526039654651224</v>
       </c>
       <c r="BG90" t="n">
         <v>2</v>
       </c>
       <c r="BH90" t="n">
-        <v>22.0160735042672</v>
+        <v>22.0565829419235</v>
       </c>
       <c r="BI90" t="n">
         <v>2</v>
       </c>
       <c r="BJ90" t="n">
-        <v>0.0000000175485908304908</v>
+        <v>0.000000016062504746314</v>
       </c>
       <c r="BK90" t="n">
         <v>2</v>
       </c>
       <c r="BL90" t="n">
-        <v>0.000000000796445584938049</v>
+        <v>0.000000000727515079334824</v>
       </c>
       <c r="BM90" t="n">
         <v>2</v>
       </c>
       <c r="BN90" t="n">
-        <v>0.000000000573051575001695</v>
+        <v>0.000000000526039654651224</v>
       </c>
       <c r="BO90" t="n">
         <v>2</v>
       </c>
       <c r="BP90" t="n">
-        <v>0.00000000000823877620576713</v>
+        <v>0.0000000000074897529092301</v>
       </c>
       <c r="BQ90" t="n">
         <v>2</v>
       </c>
       <c r="BR90" t="n">
-        <v>35.4400768901434</v>
+        <v>35.65784686021</v>
       </c>
       <c r="BS90" t="n">
         <v>2</v>
@@ -26466,7 +26466,7 @@
         <v>6.99575977309107</v>
       </c>
       <c r="CQ90" t="n">
-        <v>41.1705033047096</v>
+        <v>35.950068093857</v>
       </c>
     </row>
     <row r="91">
@@ -26606,79 +26606,79 @@
         <v>2</v>
       </c>
       <c r="AT91" t="n">
-        <v>23.1361449890635</v>
+        <v>23.0364329537685</v>
       </c>
       <c r="AU91" t="n">
         <v>2</v>
       </c>
       <c r="AV91" t="n">
-        <v>0.0000000195276800918262</v>
+        <v>0.0000000193264345264686</v>
       </c>
       <c r="AW91" t="n">
         <v>2</v>
       </c>
       <c r="AX91" t="n">
-        <v>0.000000000843758614642884</v>
+        <v>0.000000000838757947269599</v>
       </c>
       <c r="AY91" t="n">
         <v>2</v>
       </c>
       <c r="AZ91" t="n">
-        <v>0.000000000515291965831957</v>
+        <v>0.000000000513682794380032</v>
       </c>
       <c r="BA91" t="n">
         <v>2</v>
       </c>
       <c r="BB91" t="n">
-        <v>0.00000000000735940508778179</v>
+        <v>0.00000000000718492258220563</v>
       </c>
       <c r="BC91" t="n">
         <v>2</v>
       </c>
       <c r="BD91" t="n">
-        <v>35.2983432278872</v>
+        <v>35.2694609370304</v>
       </c>
       <c r="BE91" t="n">
         <v>2</v>
       </c>
       <c r="BF91" t="n">
-        <v>0.000000000573236863824213</v>
+        <v>0.000000000526333056648805</v>
       </c>
       <c r="BG91" t="n">
         <v>2</v>
       </c>
       <c r="BH91" t="n">
-        <v>22.0163669010726</v>
+        <v>22.0566264580575</v>
       </c>
       <c r="BI91" t="n">
         <v>2</v>
       </c>
       <c r="BJ91" t="n">
-        <v>0.0000000175540635734634</v>
+        <v>0.0000000160709847157348</v>
       </c>
       <c r="BK91" t="n">
         <v>2</v>
       </c>
       <c r="BL91" t="n">
-        <v>0.000000000796681734287796</v>
+        <v>0.000000000727898561535959</v>
       </c>
       <c r="BM91" t="n">
         <v>2</v>
       </c>
       <c r="BN91" t="n">
-        <v>0.000000000573236863824213</v>
+        <v>0.000000000526333056648805</v>
       </c>
       <c r="BO91" t="n">
         <v>2</v>
       </c>
       <c r="BP91" t="n">
-        <v>0.00000000000824144483459025</v>
+        <v>0.00000000000749398415536564</v>
       </c>
       <c r="BQ91" t="n">
         <v>2</v>
       </c>
       <c r="BR91" t="n">
-        <v>35.4422553312152</v>
+        <v>35.6594428380868</v>
       </c>
       <c r="BS91" t="n">
         <v>2</v>
@@ -26753,7 +26753,7 @@
         <v>7.08735755476761</v>
       </c>
       <c r="CQ91" t="n">
-        <v>41.0654624087392</v>
+        <v>35.8667175537448</v>
       </c>
     </row>
     <row r="92">
@@ -26893,79 +26893,79 @@
         <v>2</v>
       </c>
       <c r="AT92" t="n">
-        <v>23.1355876468014</v>
+        <v>23.0359497987765</v>
       </c>
       <c r="AU92" t="n">
         <v>2</v>
       </c>
       <c r="AV92" t="n">
-        <v>0.0000000195322126194988</v>
+        <v>0.0000000193305935307744</v>
       </c>
       <c r="AW92" t="n">
         <v>2</v>
       </c>
       <c r="AX92" t="n">
-        <v>0.000000000843972133382981</v>
+        <v>0.000000000838953646759419</v>
       </c>
       <c r="AY92" t="n">
         <v>2</v>
       </c>
       <c r="AZ92" t="n">
-        <v>0.000000000515464024273507</v>
+        <v>0.000000000513845779867043</v>
       </c>
       <c r="BA92" t="n">
         <v>2</v>
       </c>
       <c r="BB92" t="n">
-        <v>0.00000000000736153635009859</v>
+        <v>0.00000000000718746317320657</v>
       </c>
       <c r="BC92" t="n">
         <v>2</v>
       </c>
       <c r="BD92" t="n">
-        <v>35.2999275607905</v>
+        <v>35.2709673635739</v>
       </c>
       <c r="BE92" t="n">
         <v>2</v>
       </c>
       <c r="BF92" t="n">
-        <v>0.000000000573422152646142</v>
+        <v>0.000000000526626458645454</v>
       </c>
       <c r="BG92" t="n">
         <v>2</v>
       </c>
       <c r="BH92" t="n">
-        <v>22.0166602978771</v>
+        <v>22.0566699741914</v>
       </c>
       <c r="BI92" t="n">
         <v>2</v>
       </c>
       <c r="BJ92" t="n">
-        <v>0.0000000175595363164186</v>
+        <v>0.0000000160794646851287</v>
       </c>
       <c r="BK92" t="n">
         <v>2</v>
       </c>
       <c r="BL92" t="n">
-        <v>0.000000000796917883636792</v>
+        <v>0.000000000728282043735875</v>
       </c>
       <c r="BM92" t="n">
         <v>2</v>
       </c>
       <c r="BN92" t="n">
-        <v>0.000000000573422152646142</v>
+        <v>0.000000000526626458645454</v>
       </c>
       <c r="BO92" t="n">
         <v>2</v>
       </c>
       <c r="BP92" t="n">
-        <v>0.0000000000082441134634049</v>
+        <v>0.00000000000749821540148774</v>
       </c>
       <c r="BQ92" t="n">
         <v>2</v>
       </c>
       <c r="BR92" t="n">
-        <v>35.4444337722802</v>
+        <v>35.6610388159585</v>
       </c>
       <c r="BS92" t="n">
         <v>2</v>
@@ -27040,7 +27040,7 @@
         <v>7.08073620663607</v>
       </c>
       <c r="CQ92" t="n">
-        <v>40.9345993019189</v>
+        <v>35.760777966808</v>
       </c>
     </row>
     <row r="93">
@@ -27180,79 +27180,79 @@
         <v>2</v>
       </c>
       <c r="AT93" t="n">
-        <v>23.1351417729885</v>
+        <v>23.0355632747802</v>
       </c>
       <c r="AU93" t="n">
         <v>2</v>
       </c>
       <c r="AV93" t="n">
-        <v>0.0000000195358386416629</v>
+        <v>0.0000000193339207342428</v>
       </c>
       <c r="AW93" t="n">
         <v>2</v>
       </c>
       <c r="AX93" t="n">
-        <v>0.00000000084414294837628</v>
+        <v>0.000000000839110206352395</v>
       </c>
       <c r="AY93" t="n">
         <v>2</v>
       </c>
       <c r="AZ93" t="n">
-        <v>0.00000000051560167102773</v>
+        <v>0.000000000513976168257583</v>
       </c>
       <c r="BA93" t="n">
         <v>2</v>
       </c>
       <c r="BB93" t="n">
-        <v>0.00000000000736324135996422</v>
+        <v>0.00000000000718949564602185</v>
       </c>
       <c r="BC93" t="n">
         <v>2</v>
       </c>
       <c r="BD93" t="n">
-        <v>35.3011950271222</v>
+        <v>35.2721725048173</v>
       </c>
       <c r="BE93" t="n">
         <v>2</v>
       </c>
       <c r="BF93" t="n">
-        <v>0.000000000573570383704745</v>
+        <v>0.000000000526861180244452</v>
       </c>
       <c r="BG93" t="n">
         <v>2</v>
       </c>
       <c r="BH93" t="n">
-        <v>22.0168950153224</v>
+        <v>22.0567047870987</v>
       </c>
       <c r="BI93" t="n">
         <v>2</v>
       </c>
       <c r="BJ93" t="n">
-        <v>0.0000000175639145108141</v>
+        <v>0.0000000160862486606923</v>
       </c>
       <c r="BK93" t="n">
         <v>2</v>
       </c>
       <c r="BL93" t="n">
-        <v>0.00000000079710680311734</v>
+        <v>0.000000000728588829498003</v>
       </c>
       <c r="BM93" t="n">
         <v>2</v>
       </c>
       <c r="BN93" t="n">
-        <v>0.000000000573570383704745</v>
+        <v>0.000000000526861180244452</v>
       </c>
       <c r="BO93" t="n">
         <v>2</v>
       </c>
       <c r="BP93" t="n">
-        <v>0.00000000000824624836647189</v>
+        <v>0.00000000000750160039840962</v>
       </c>
       <c r="BQ93" t="n">
         <v>2</v>
       </c>
       <c r="BR93" t="n">
-        <v>35.4461765251446</v>
+        <v>35.662315598265</v>
       </c>
       <c r="BS93" t="n">
         <v>2</v>
@@ -27327,7 +27327,7 @@
         <v>7.11019209845733</v>
       </c>
       <c r="CQ93" t="n">
-        <v>40.8532011316866</v>
+        <v>35.6963487969096</v>
       </c>
     </row>
     <row r="94">
@@ -27467,79 +27467,79 @@
         <v>2</v>
       </c>
       <c r="AT94" t="n">
-        <v>23.1345844307246</v>
+        <v>23.0350801197867</v>
       </c>
       <c r="AU94" t="n">
         <v>2</v>
       </c>
       <c r="AV94" t="n">
-        <v>0.00000001954037116935</v>
+        <v>0.0000000193380797385618</v>
       </c>
       <c r="AW94" t="n">
         <v>2</v>
       </c>
       <c r="AX94" t="n">
-        <v>0.000000000844356467117055</v>
+        <v>0.000000000839305905842837</v>
       </c>
       <c r="AY94" t="n">
         <v>2</v>
       </c>
       <c r="AZ94" t="n">
-        <v>0.000000000515773729469827</v>
+        <v>0.000000000514139153745112</v>
       </c>
       <c r="BA94" t="n">
         <v>2</v>
       </c>
       <c r="BB94" t="n">
-        <v>0.00000000000736537262228779</v>
+        <v>0.00000000000719203623703085</v>
       </c>
       <c r="BC94" t="n">
         <v>2</v>
       </c>
       <c r="BD94" t="n">
-        <v>35.3027793600305</v>
+        <v>35.2736789313656</v>
       </c>
       <c r="BE94" t="n">
         <v>2</v>
       </c>
       <c r="BF94" t="n">
-        <v>0.000000000573755672527263</v>
+        <v>0.000000000527154582242033</v>
       </c>
       <c r="BG94" t="n">
         <v>2</v>
       </c>
       <c r="BH94" t="n">
-        <v>22.0171884121279</v>
+        <v>22.0567483032327</v>
       </c>
       <c r="BI94" t="n">
         <v>2</v>
       </c>
       <c r="BJ94" t="n">
-        <v>0.0000000175693872537867</v>
+        <v>0.0000000160947286301131</v>
       </c>
       <c r="BK94" t="n">
         <v>2</v>
       </c>
       <c r="BL94" t="n">
-        <v>0.000000000797342952467086</v>
+        <v>0.000000000728972311699138</v>
       </c>
       <c r="BM94" t="n">
         <v>2</v>
       </c>
       <c r="BN94" t="n">
-        <v>0.000000000573755672527263</v>
+        <v>0.000000000527154582242033</v>
       </c>
       <c r="BO94" t="n">
         <v>2</v>
       </c>
       <c r="BP94" t="n">
-        <v>0.00000000000824891699529502</v>
+        <v>0.00000000000750583164454516</v>
       </c>
       <c r="BQ94" t="n">
         <v>2</v>
       </c>
       <c r="BR94" t="n">
-        <v>35.4483549662165</v>
+        <v>35.6639115761418</v>
       </c>
       <c r="BS94" t="n">
         <v>2</v>
@@ -27614,7 +27614,7 @@
         <v>7.16184432134071</v>
       </c>
       <c r="CQ94" t="n">
-        <v>41.0575828917165</v>
+        <v>35.8833356838058</v>
       </c>
     </row>
     <row r="95">
@@ -27754,79 +27754,79 @@
         <v>2</v>
       </c>
       <c r="AT95" t="n">
-        <v>23.1340270884608</v>
+        <v>23.0345969647932</v>
       </c>
       <c r="AU95" t="n">
         <v>2</v>
       </c>
       <c r="AV95" t="n">
-        <v>0.0000000195449036970371</v>
+        <v>0.0000000193422387428808</v>
       </c>
       <c r="AW95" t="n">
         <v>2</v>
       </c>
       <c r="AX95" t="n">
-        <v>0.000000000844569985857831</v>
+        <v>0.000000000839501605333279</v>
       </c>
       <c r="AY95" t="n">
         <v>2</v>
       </c>
       <c r="AZ95" t="n">
-        <v>0.000000000515945787911923</v>
+        <v>0.00000000051430213923264</v>
       </c>
       <c r="BA95" t="n">
         <v>2</v>
       </c>
       <c r="BB95" t="n">
-        <v>0.00000000000736750388461136</v>
+        <v>0.00000000000719457682803986</v>
       </c>
       <c r="BC95" t="n">
         <v>2</v>
       </c>
       <c r="BD95" t="n">
-        <v>35.3043636929388</v>
+        <v>35.2751853579139</v>
       </c>
       <c r="BE95" t="n">
         <v>2</v>
       </c>
       <c r="BF95" t="n">
-        <v>0.000000000573940961349782</v>
+        <v>0.000000000527447984239615</v>
       </c>
       <c r="BG95" t="n">
         <v>2</v>
       </c>
       <c r="BH95" t="n">
-        <v>22.0174818089333</v>
+        <v>22.0567918193667</v>
       </c>
       <c r="BI95" t="n">
         <v>2</v>
       </c>
       <c r="BJ95" t="n">
-        <v>0.0000000175748599967593</v>
+        <v>0.0000000161032085995339</v>
       </c>
       <c r="BK95" t="n">
         <v>2</v>
       </c>
       <c r="BL95" t="n">
-        <v>0.000000000797579101816833</v>
+        <v>0.000000000729355793900273</v>
       </c>
       <c r="BM95" t="n">
         <v>2</v>
       </c>
       <c r="BN95" t="n">
-        <v>0.000000000573940961349782</v>
+        <v>0.000000000527447984239615</v>
       </c>
       <c r="BO95" t="n">
         <v>2</v>
       </c>
       <c r="BP95" t="n">
-        <v>0.00000000000825158562411814</v>
+        <v>0.00000000000751006289068071</v>
       </c>
       <c r="BQ95" t="n">
         <v>2</v>
       </c>
       <c r="BR95" t="n">
-        <v>35.4505334072884</v>
+        <v>35.6655075540186</v>
       </c>
       <c r="BS95" t="n">
         <v>2</v>
@@ -27901,7 +27901,7 @@
         <v>7.27995317502018</v>
       </c>
       <c r="CQ95" t="n">
-        <v>41.0291411370063</v>
+        <v>35.8668888131454</v>
       </c>
     </row>
   </sheetData>
